--- a/HondaJet Perf Calc.xlsx
+++ b/HondaJet Perf Calc.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\Aviation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\HondaJet Perf Calc\hjet-performance-calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35514B9-7AA5-4779-97D4-9010E4B7D448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DE1284-C9CF-485E-B1EB-69B653405C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63ACE541-7DEF-4A6E-868E-15DE9EBE8715}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{63ACE541-7DEF-4A6E-868E-15DE9EBE8715}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="3" r:id="rId1"/>
     <sheet name="Takeoff" sheetId="1" r:id="rId2"/>
     <sheet name="MTOW Climb Requirements" sheetId="5" r:id="rId3"/>
     <sheet name="MTOW Brake Energy" sheetId="6" r:id="rId4"/>
-    <sheet name="AdminChecklist" sheetId="2" r:id="rId5"/>
+    <sheet name="AdminTools" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Base0">Takeoff!$C$42:$J$73</definedName>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="155">
   <si>
     <t>Uncorrected Takeoff Field Length [ft] and Speeds [KIAS], Dry Runway, Zero Slope, No Wind</t>
   </si>
@@ -136,9 +136,6 @@
     <t>REF[0]</t>
   </si>
   <si>
-    <t>Takeoff</t>
-  </si>
-  <si>
     <t>Uncorrected Takeoff Field Length [ft] and Speeds [KIAS] Dry Runway, Zero Slope, No Wind</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
   </si>
   <si>
     <t>FLAPS TO/APPR, ICE PROTECTION OFF, ALTITUDE 10000 FEET</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <t>Winds Corrected V1 [KIAS]</t>
@@ -297,9 +291,6 @@
   </si>
   <si>
     <t>MTOW</t>
-  </si>
-  <si>
-    <t>To Do</t>
   </si>
   <si>
     <t>Temperature [C]</t>
@@ -818,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -897,19 +888,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -918,16 +901,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,15 +943,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -957,31 +952,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -1014,115 +989,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1484,10 +1351,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E778DB-0D8E-494F-9E43-1D773419EB4C}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1382,7 @@
         <v>10025</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="22" cm="1">
         <f t="array" ref="E1">_xlfn.IFS(B1&lt;=7900,7800,
@@ -1525,14 +1395,13 @@
 B1 &gt; 10600, "ABOVE MTOW")</f>
         <v>10000</v>
       </c>
-      <c r="J1" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="62"/>
+      <c r="J1" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="64"/>
       <c r="D2" s="20"/>
       <c r="E2" s="38"/>
       <c r="J2">
@@ -1550,20 +1419,20 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="21">
         <v>5500</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E3" s="22">
         <f>IFERROR(MROUND(B3, 1000), VALUE(CONCATENATE("-" &amp; MROUND(ABS(B3), 1000))))</f>
         <v>6000</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H3" s="24" t="str" cm="1">
         <f t="array" ref="H3">IFERROR(_xlfn.IFS(E3 = -1000, "MTOWBaseM01000",
@@ -1591,14 +1460,14 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E4" s="23" cm="1">
         <f t="array" ref="E4">IFERROR(_xlfn.IFS(E3&gt;B3,E3,E3&lt;=B3,E3+1000),0)</f>
         <v>6000</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H4" s="24" t="str" cm="1">
         <f t="array" ref="H4">IFERROR(_xlfn.IFS(E4 = -1000, "MTOWBaseM01000",
@@ -1626,21 +1495,21 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="65">
+        <v>153</v>
+      </c>
+      <c r="B5" s="42">
         <f ca="1">VLOOKUP(E8, J2:K10, 2, FALSE)</f>
         <v>10025</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E5" s="23" cm="1">
         <f t="array" ref="E5">IFERROR(_xlfn.IFS(E3&gt;B3,E3-1000,E3&lt;=B3,E3),0)</f>
         <v>5000</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H5" s="24" t="str" cm="1">
         <f t="array" ref="H5">IFERROR(_xlfn.IFS(E5=-1000,"MTOWBaseM01000",
@@ -1667,13 +1536,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="str" cm="1">
+      <c r="A6" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_xlfn.IFS(B5 &gt; B1, "TOW VALID FOR CONDITIONS", B5 &lt; B1, "TOW INVALID FOR CONDITIONS", B5 = B1, "TOW WARNING FOR CONDITIONS")</f>
         <v>TOW WARNING FOR CONDITIONS</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="44"/>
       <c r="D6" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E6" s="23">
         <f>IFERROR(MROUND(B3, 500), VALUE(CONCATENATE("-" &amp; MROUND(ABS(B3), 500))))</f>
@@ -1694,7 +1563,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="28"/>
       <c r="D7" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E7" s="23">
         <f>IFERROR(MROUND(B3, 250), VALUE(CONCATENATE("-" &amp; MROUND(ABS(B3), 250))))</f>
@@ -1715,7 +1584,7 @@
       <c r="A8" s="11"/>
       <c r="B8" s="28"/>
       <c r="D8" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E8" s="23">
         <f>IFERROR(MROUND(B3, 125), VALUE(CONCATENATE("-" &amp; MROUND(ABS(B3), 125))))</f>
@@ -1749,13 +1618,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="21">
         <v>32</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="24" cm="1">
         <f t="array" ref="E10">_xlfn.IFS(E4=-1000,_xlfn.IFS(B10&lt;=-25,"M40",B10&lt;=20,15,B10&lt;=30,25,B10&lt;=37.5,35,B10&lt;=42.5,40,B10&lt;=47.5,45,B10&lt;=52.5,50,B10&gt;52.5,55),
@@ -1788,7 +1657,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="21">
         <v>80</v>
@@ -1799,7 +1668,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="21">
         <v>90</v>
@@ -1811,20 +1680,20 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="21">
         <v>25</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="23">
         <f>B13 * COS(RADIANS(ABS(B11-B12)))</f>
         <v>24.620193825305201</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" s="23" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(
@@ -1836,7 +1705,7 @@
         <v>HW20</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J13" s="30" t="str" cm="1">
         <f t="array" ref="J13">_xlfn.IFS(
@@ -1849,13 +1718,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="21">
         <v>1</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="23" cm="1">
         <f t="array" ref="E14">_xlfn.IFS(B14&lt;-1.5, -2, B14 &lt;= -0.5, -1, B14 &lt;= 0.5, 0, B14 &lt;= 1.5, 1, B14 &gt; 1.5, 2)</f>
@@ -1867,7 +1736,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="26" cm="1">
         <f t="array" ref="B16">_xlfn.IFS(E4=-1000,
@@ -1897,12 +1766,12 @@
         <v>119</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="26" cm="1">
         <f t="array" ref="B17">_xlfn.IFS(E4=-1000,
@@ -1932,12 +1801,12 @@
         <v>122</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="26" cm="1">
         <f t="array" ref="B18">_xlfn.IFS(E4=-1000,
@@ -1967,12 +1836,12 @@
         <v>123</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="26" cm="1">
         <f t="array" ref="B19">_xlfn.IFS(E4=-1000,
@@ -2002,12 +1871,12 @@
         <v>6959</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="26" cm="1">
         <f t="array" ref="B21">_xlfn.IFS(J13="TW10",VLOOKUP(B16,V1Winds,2,FALSE),
@@ -2018,7 +1887,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="26" cm="1">
         <f t="array" ref="B22">_xlfn.IFS(H13="TW10",VLOOKUP(ROUND(B19,-2),TOFLWinds,2,FALSE),
@@ -2034,7 +1903,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="27" cm="1">
         <f t="array" ref="B24">_xlfn.IFS(E14 = -2, VLOOKUP(B21, SlopeV1, 2, FALSE),
@@ -2047,7 +1916,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="27">
         <f>B17</f>
@@ -2056,7 +1925,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="27" cm="1">
         <f t="array" ref="B26">_xlfn.IFS(E14 = -2, VLOOKUP(B18, SlopeV2, 2, FALSE),
@@ -2069,7 +1938,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="27" cm="1">
         <f t="array" ref="B27">_xlfn.IFS(E14 = -2, VLOOKUP(ROUND(B22, -2), SlopeTOFL, 2, FALSE),
@@ -2089,34 +1958,34 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$B$16 = "X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$B$17 = "X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$B$18 = "X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$B$19 = "X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>B5 &gt; B1</formula>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>B1 =B5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>B5 &lt; B1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>B1 =B5</formula>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>B5 &gt; B1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2129,6 +1998,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D8DD7-4C32-442A-A15C-A63137A111E7}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:AR443"/>
   <sheetViews>
     <sheetView topLeftCell="L16" workbookViewId="0">
@@ -2143,146 +2015,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
+      <c r="L1" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
       <c r="O1" s="9"/>
-      <c r="P1" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
+      <c r="P1" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
       <c r="U1" s="9"/>
-      <c r="V1" s="45" t="s">
+      <c r="V1" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AH1" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AN1" s="45" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AH1" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AN1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
       <c r="K2" s="10"/>
       <c r="L2" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+        <v>26</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="13"/>
-      <c r="V2" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
+      <c r="V2" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
       <c r="AA2" s="13"/>
-      <c r="AB2" s="43" t="s">
+      <c r="AB2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AH2" s="43" t="s">
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AH2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AN2" s="43" t="s">
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AN2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="46" t="s">
+      <c r="C3" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
       <c r="O3" s="13"/>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="51" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="52"/>
@@ -2290,7 +2162,7 @@
       <c r="S3" s="52"/>
       <c r="T3" s="52"/>
       <c r="U3" s="13"/>
-      <c r="V3" s="44" t="s">
+      <c r="V3" s="51" t="s">
         <v>11</v>
       </c>
       <c r="W3" s="52"/>
@@ -2299,35 +2171,35 @@
       <c r="Z3" s="52"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD3" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AH3" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AH3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AN3" s="46" t="s">
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AN3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="2">
         <v>7800</v>
       </c>
@@ -2352,14 +2224,14 @@
       <c r="K4" s="11"/>
       <c r="L4" s="3"/>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="8">
         <v>-2</v>
@@ -2375,7 +2247,7 @@
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W4" s="8">
         <v>-2</v>
@@ -2436,7 +2308,7 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -2467,7 +2339,7 @@
         <v>111</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M5" s="1">
         <v>10</v>
@@ -2556,7 +2428,7 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -2677,7 +2549,7 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -2798,7 +2670,7 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -5107,7 +4979,7 @@
         <v>118</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
@@ -5201,7 +5073,7 @@
         <v>121</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
@@ -5294,7 +5166,7 @@
         <v>122</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
@@ -5387,7 +5259,7 @@
         <v>5569</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
@@ -5474,13 +5346,13 @@
         <v>118</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
@@ -5567,13 +5439,13 @@
         <v>121</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
@@ -5644,13 +5516,13 @@
         <v>122</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
@@ -5721,13 +5593,13 @@
         <v>5643</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
@@ -5807,18 +5679,18 @@
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
+      <c r="A38" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="N38" s="9"/>
@@ -5865,18 +5737,18 @@
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
+      <c r="A39" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="N39" s="13"/>
@@ -5923,24 +5795,24 @@
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="N40" s="10"/>
@@ -5987,9 +5859,9 @@
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="48"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="2">
         <v>7800</v>
       </c>
@@ -6058,7 +5930,7 @@
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>5</v>
@@ -6121,7 +5993,7 @@
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>7</v>
@@ -6184,7 +6056,7 @@
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>6</v>
@@ -6247,7 +6119,7 @@
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>8</v>
@@ -7598,7 +7470,7 @@
         <v>119</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
@@ -7677,7 +7549,7 @@
         <v>122</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
@@ -7756,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
@@ -7835,7 +7707,7 @@
         <v>6005</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
@@ -7905,16 +7777,16 @@
         <v>118</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
@@ -7984,16 +7856,16 @@
         <v>121</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
@@ -8063,16 +7935,16 @@
         <v>122</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
@@ -8142,16 +8014,16 @@
         <v>5805</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
@@ -8218,18 +8090,18 @@
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A75" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
+      <c r="A75" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -8267,18 +8139,18 @@
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A76" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
+      <c r="A76" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
@@ -8316,24 +8188,24 @@
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A77" s="46" t="s">
+      <c r="A77" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" s="46" t="s">
+      <c r="C77" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
@@ -8371,9 +8243,9 @@
       </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A78" s="46"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="48"/>
+      <c r="A78" s="48"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="2">
         <v>7800</v>
       </c>
@@ -8433,7 +8305,7 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>5</v>
@@ -8481,7 +8353,7 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>7</v>
@@ -8529,7 +8401,7 @@
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>6</v>
@@ -8577,7 +8449,7 @@
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>8</v>
@@ -9520,7 +9392,7 @@
         <v>122</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
@@ -9575,7 +9447,7 @@
         <v>5891</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
@@ -9624,13 +9496,13 @@
         <v>119</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
@@ -9679,13 +9551,13 @@
         <v>121</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
@@ -9734,13 +9606,13 @@
         <v>122</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
@@ -9789,13 +9661,13 @@
         <v>5968</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
@@ -9824,18 +9696,18 @@
       <c r="AH111" s="15"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A112" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" s="45"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="45"/>
-      <c r="J112" s="45"/>
+      <c r="A112" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="49"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="49"/>
+      <c r="I112" s="49"/>
+      <c r="J112" s="49"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
@@ -9860,18 +9732,18 @@
       <c r="AH112" s="15"/>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A113" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="43"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="43"/>
+      <c r="A113" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="47"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="47"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="47"/>
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
       <c r="M113" s="13"/>
@@ -9896,24 +9768,24 @@
       <c r="AH113" s="15"/>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A114" s="46" t="s">
+      <c r="A114" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="46" t="s">
+      <c r="B114" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D114" s="46" t="s">
+      <c r="C114" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="46"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="46"/>
-      <c r="I114" s="46"/>
-      <c r="J114" s="46"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="48"/>
+      <c r="J114" s="48"/>
       <c r="K114" s="10"/>
       <c r="L114" s="10"/>
       <c r="M114" s="10"/>
@@ -9938,9 +9810,9 @@
       <c r="AH114" s="15"/>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A115" s="46"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="48"/>
+      <c r="A115" s="48"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="46"/>
       <c r="D115" s="2">
         <v>7800</v>
       </c>
@@ -9987,7 +9859,7 @@
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>5</v>
@@ -10021,7 +9893,7 @@
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>7</v>
@@ -10055,7 +9927,7 @@
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>6</v>
@@ -10089,7 +9961,7 @@
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>8</v>
@@ -10828,10 +10700,10 @@
         <v>118</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K140" s="12"/>
       <c r="L140" s="12"/>
@@ -10883,10 +10755,10 @@
         <v>121</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
@@ -10938,10 +10810,10 @@
         <v>122</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
@@ -10993,10 +10865,10 @@
         <v>6129</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
@@ -11042,16 +10914,16 @@
         <v>119</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K144" s="12"/>
       <c r="L144" s="12"/>
@@ -11097,16 +10969,16 @@
         <v>121</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K145" s="12"/>
       <c r="L145" s="12"/>
@@ -11152,16 +11024,16 @@
         <v>122</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
@@ -11207,16 +11079,16 @@
         <v>6211</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K147" s="12"/>
       <c r="L147" s="12"/>
@@ -11245,18 +11117,18 @@
       <c r="AH148" s="15"/>
     </row>
     <row r="149" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A149" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B149" s="45"/>
-      <c r="C149" s="45"/>
-      <c r="D149" s="45"/>
-      <c r="E149" s="45"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="45"/>
-      <c r="H149" s="45"/>
-      <c r="I149" s="45"/>
-      <c r="J149" s="45"/>
+      <c r="A149" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="49"/>
+      <c r="C149" s="49"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="49"/>
+      <c r="F149" s="49"/>
+      <c r="G149" s="49"/>
+      <c r="H149" s="49"/>
+      <c r="I149" s="49"/>
+      <c r="J149" s="49"/>
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
       <c r="M149" s="9"/>
@@ -11281,18 +11153,18 @@
       <c r="AH149" s="15"/>
     </row>
     <row r="150" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A150" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B150" s="43"/>
-      <c r="C150" s="43"/>
-      <c r="D150" s="43"/>
-      <c r="E150" s="43"/>
-      <c r="F150" s="43"/>
-      <c r="G150" s="43"/>
-      <c r="H150" s="43"/>
-      <c r="I150" s="43"/>
-      <c r="J150" s="43"/>
+      <c r="A150" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="47"/>
+      <c r="C150" s="47"/>
+      <c r="D150" s="47"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="47"/>
+      <c r="G150" s="47"/>
+      <c r="H150" s="47"/>
+      <c r="I150" s="47"/>
+      <c r="J150" s="47"/>
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
@@ -11317,24 +11189,24 @@
       <c r="AH150" s="15"/>
     </row>
     <row r="151" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A151" s="46" t="s">
+      <c r="A151" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B151" s="46" t="s">
+      <c r="B151" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C151" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D151" s="46" t="s">
+      <c r="C151" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D151" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E151" s="46"/>
-      <c r="F151" s="46"/>
-      <c r="G151" s="46"/>
-      <c r="H151" s="46"/>
-      <c r="I151" s="46"/>
-      <c r="J151" s="46"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="48"/>
+      <c r="G151" s="48"/>
+      <c r="H151" s="48"/>
+      <c r="I151" s="48"/>
+      <c r="J151" s="48"/>
       <c r="K151" s="10"/>
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
@@ -11359,9 +11231,9 @@
       <c r="AH151" s="15"/>
     </row>
     <row r="152" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A152" s="46"/>
-      <c r="B152" s="46"/>
-      <c r="C152" s="48"/>
+      <c r="A152" s="48"/>
+      <c r="B152" s="48"/>
+      <c r="C152" s="46"/>
       <c r="D152" s="2">
         <v>7800</v>
       </c>
@@ -11408,7 +11280,7 @@
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>5</v>
@@ -11442,7 +11314,7 @@
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>7</v>
@@ -11476,7 +11348,7 @@
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>6</v>
@@ -11510,7 +11382,7 @@
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>8</v>
@@ -12252,7 +12124,7 @@
         <v>119</v>
       </c>
       <c r="J177" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K177" s="12"/>
       <c r="L177" s="12"/>
@@ -12307,7 +12179,7 @@
         <v>121</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K178" s="12"/>
       <c r="L178" s="12"/>
@@ -12362,7 +12234,7 @@
         <v>122</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K179" s="12"/>
       <c r="L179" s="12"/>
@@ -12417,7 +12289,7 @@
         <v>6335</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K180" s="12"/>
       <c r="L180" s="12"/>
@@ -12466,13 +12338,13 @@
         <v>119</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I181" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J181" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K181" s="12"/>
       <c r="L181" s="12"/>
@@ -12521,13 +12393,13 @@
         <v>121</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K182" s="12"/>
       <c r="L182" s="12"/>
@@ -12576,13 +12448,13 @@
         <v>122</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J183" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
@@ -12631,13 +12503,13 @@
         <v>6393</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K184" s="12"/>
       <c r="L184" s="12"/>
@@ -12666,18 +12538,18 @@
       <c r="AH185" s="15"/>
     </row>
     <row r="186" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A186" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B186" s="45"/>
-      <c r="C186" s="45"/>
-      <c r="D186" s="45"/>
-      <c r="E186" s="45"/>
-      <c r="F186" s="45"/>
-      <c r="G186" s="45"/>
-      <c r="H186" s="45"/>
-      <c r="I186" s="45"/>
-      <c r="J186" s="45"/>
+      <c r="A186" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="49"/>
+      <c r="C186" s="49"/>
+      <c r="D186" s="49"/>
+      <c r="E186" s="49"/>
+      <c r="F186" s="49"/>
+      <c r="G186" s="49"/>
+      <c r="H186" s="49"/>
+      <c r="I186" s="49"/>
+      <c r="J186" s="49"/>
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
       <c r="M186" s="9"/>
@@ -12701,18 +12573,18 @@
       <c r="AF186" s="9"/>
     </row>
     <row r="187" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A187" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B187" s="43"/>
-      <c r="C187" s="43"/>
-      <c r="D187" s="43"/>
-      <c r="E187" s="43"/>
-      <c r="F187" s="43"/>
-      <c r="G187" s="43"/>
-      <c r="H187" s="43"/>
-      <c r="I187" s="43"/>
-      <c r="J187" s="43"/>
+      <c r="A187" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="47"/>
+      <c r="C187" s="47"/>
+      <c r="D187" s="47"/>
+      <c r="E187" s="47"/>
+      <c r="F187" s="47"/>
+      <c r="G187" s="47"/>
+      <c r="H187" s="47"/>
+      <c r="I187" s="47"/>
+      <c r="J187" s="47"/>
       <c r="K187" s="13"/>
       <c r="L187" s="13"/>
       <c r="M187" s="13"/>
@@ -12736,24 +12608,24 @@
       <c r="AF187" s="13"/>
     </row>
     <row r="188" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A188" s="46" t="s">
+      <c r="A188" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B188" s="46" t="s">
+      <c r="B188" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C188" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D188" s="46" t="s">
+      <c r="C188" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D188" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E188" s="46"/>
-      <c r="F188" s="46"/>
-      <c r="G188" s="46"/>
-      <c r="H188" s="46"/>
-      <c r="I188" s="46"/>
-      <c r="J188" s="46"/>
+      <c r="E188" s="48"/>
+      <c r="F188" s="48"/>
+      <c r="G188" s="48"/>
+      <c r="H188" s="48"/>
+      <c r="I188" s="48"/>
+      <c r="J188" s="48"/>
       <c r="K188" s="10"/>
       <c r="L188" s="10"/>
       <c r="M188" s="10"/>
@@ -12777,9 +12649,9 @@
       <c r="AF188" s="10"/>
     </row>
     <row r="189" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A189" s="46"/>
-      <c r="B189" s="46"/>
-      <c r="C189" s="48"/>
+      <c r="A189" s="48"/>
+      <c r="B189" s="48"/>
+      <c r="C189" s="46"/>
       <c r="D189" s="2">
         <v>7800</v>
       </c>
@@ -12825,7 +12697,7 @@
     </row>
     <row r="190" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A190" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>5</v>
@@ -12858,7 +12730,7 @@
     </row>
     <row r="191" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A191" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>7</v>
@@ -12891,7 +12763,7 @@
     </row>
     <row r="192" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>6</v>
@@ -12924,7 +12796,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>8</v>
@@ -13513,7 +13385,7 @@
         <v>118</v>
       </c>
       <c r="J210" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K210" s="12"/>
       <c r="L210" s="12"/>
@@ -13567,7 +13439,7 @@
         <v>121</v>
       </c>
       <c r="J211" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K211" s="12"/>
       <c r="L211" s="12"/>
@@ -13621,7 +13493,7 @@
         <v>122</v>
       </c>
       <c r="J212" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K212" s="12"/>
       <c r="L212" s="12"/>
@@ -13675,7 +13547,7 @@
         <v>6325</v>
       </c>
       <c r="J213" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K213" s="12"/>
       <c r="L213" s="12"/>
@@ -13726,10 +13598,10 @@
         <v>119</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J214" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K214" s="12"/>
       <c r="L214" s="12"/>
@@ -13780,10 +13652,10 @@
         <v>122</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J215" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K215" s="12"/>
       <c r="L215" s="12"/>
@@ -13834,10 +13706,10 @@
         <v>123</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K216" s="12"/>
       <c r="L216" s="12"/>
@@ -13888,10 +13760,10 @@
         <v>6636</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K217" s="12"/>
       <c r="L217" s="12"/>
@@ -13936,16 +13808,16 @@
         <v>119</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J218" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K218" s="12"/>
       <c r="L218" s="12"/>
@@ -13990,16 +13862,16 @@
         <v>122</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J219" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K219" s="12"/>
       <c r="L219" s="12"/>
@@ -14044,16 +13916,16 @@
         <v>123</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J220" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K220" s="12"/>
       <c r="L220" s="12"/>
@@ -14098,16 +13970,16 @@
         <v>6668</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J221" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K221" s="12"/>
       <c r="L221" s="12"/>
@@ -14132,18 +14004,18 @@
       <c r="AF221" s="12"/>
     </row>
     <row r="223" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A223" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B223" s="45"/>
-      <c r="C223" s="45"/>
-      <c r="D223" s="45"/>
-      <c r="E223" s="45"/>
-      <c r="F223" s="45"/>
-      <c r="G223" s="45"/>
-      <c r="H223" s="45"/>
-      <c r="I223" s="45"/>
-      <c r="J223" s="45"/>
+      <c r="A223" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" s="49"/>
+      <c r="C223" s="49"/>
+      <c r="D223" s="49"/>
+      <c r="E223" s="49"/>
+      <c r="F223" s="49"/>
+      <c r="G223" s="49"/>
+      <c r="H223" s="49"/>
+      <c r="I223" s="49"/>
+      <c r="J223" s="49"/>
       <c r="K223" s="9"/>
       <c r="L223" s="9"/>
       <c r="M223" s="9"/>
@@ -14167,18 +14039,18 @@
       <c r="AF223" s="9"/>
     </row>
     <row r="224" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A224" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B224" s="43"/>
-      <c r="C224" s="43"/>
-      <c r="D224" s="43"/>
-      <c r="E224" s="43"/>
-      <c r="F224" s="43"/>
-      <c r="G224" s="43"/>
-      <c r="H224" s="43"/>
-      <c r="I224" s="43"/>
-      <c r="J224" s="43"/>
+      <c r="A224" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" s="47"/>
+      <c r="C224" s="47"/>
+      <c r="D224" s="47"/>
+      <c r="E224" s="47"/>
+      <c r="F224" s="47"/>
+      <c r="G224" s="47"/>
+      <c r="H224" s="47"/>
+      <c r="I224" s="47"/>
+      <c r="J224" s="47"/>
       <c r="K224" s="13"/>
       <c r="L224" s="13"/>
       <c r="M224" s="13"/>
@@ -14202,24 +14074,24 @@
       <c r="AF224" s="13"/>
     </row>
     <row r="225" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A225" s="46" t="s">
+      <c r="A225" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B225" s="46" t="s">
+      <c r="B225" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C225" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D225" s="46" t="s">
+      <c r="C225" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D225" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E225" s="46"/>
-      <c r="F225" s="46"/>
-      <c r="G225" s="46"/>
-      <c r="H225" s="46"/>
-      <c r="I225" s="46"/>
-      <c r="J225" s="46"/>
+      <c r="E225" s="48"/>
+      <c r="F225" s="48"/>
+      <c r="G225" s="48"/>
+      <c r="H225" s="48"/>
+      <c r="I225" s="48"/>
+      <c r="J225" s="48"/>
       <c r="K225" s="10"/>
       <c r="L225" s="10"/>
       <c r="M225" s="10"/>
@@ -14243,9 +14115,9 @@
       <c r="AF225" s="10"/>
     </row>
     <row r="226" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A226" s="46"/>
-      <c r="B226" s="46"/>
-      <c r="C226" s="48"/>
+      <c r="A226" s="48"/>
+      <c r="B226" s="48"/>
+      <c r="C226" s="46"/>
       <c r="D226" s="2">
         <v>7800</v>
       </c>
@@ -14291,7 +14163,7 @@
     </row>
     <row r="227" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A227" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>5</v>
@@ -14324,7 +14196,7 @@
     </row>
     <row r="228" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>7</v>
@@ -14357,7 +14229,7 @@
     </row>
     <row r="229" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A229" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>6</v>
@@ -14390,7 +14262,7 @@
     </row>
     <row r="230" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A230" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>8</v>
@@ -14976,10 +14848,10 @@
         <v>118</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J247" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K247" s="12"/>
       <c r="L247" s="12"/>
@@ -15030,10 +14902,10 @@
         <v>121</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J248" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K248" s="12"/>
       <c r="L248" s="12"/>
@@ -15084,10 +14956,10 @@
         <v>122</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J249" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K249" s="12"/>
       <c r="L249" s="12"/>
@@ -15138,10 +15010,10 @@
         <v>6622</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J250" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K250" s="12"/>
       <c r="L250" s="12"/>
@@ -15186,16 +15058,16 @@
         <v>118</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J251" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K251" s="12"/>
       <c r="L251" s="12"/>
@@ -15240,16 +15112,16 @@
         <v>121</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J252" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K252" s="12"/>
       <c r="L252" s="12"/>
@@ -15294,16 +15166,16 @@
         <v>122</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J253" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K253" s="12"/>
       <c r="L253" s="12"/>
@@ -15348,16 +15220,16 @@
         <v>6632</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J254" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K254" s="12"/>
       <c r="L254" s="12"/>
@@ -15396,22 +15268,22 @@
         <v>119</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J255" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K255" s="12"/>
       <c r="L255" s="12"/>
@@ -15450,22 +15322,22 @@
         <v>122</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K256" s="12"/>
       <c r="L256" s="12"/>
@@ -15504,22 +15376,22 @@
         <v>123</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J257" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K257" s="12"/>
       <c r="L257" s="12"/>
@@ -15558,22 +15430,22 @@
         <v>6857</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J258" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K258" s="12"/>
       <c r="L258" s="12"/>
@@ -15598,18 +15470,18 @@
       <c r="AF258" s="12"/>
     </row>
     <row r="260" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A260" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B260" s="45"/>
-      <c r="C260" s="45"/>
-      <c r="D260" s="45"/>
-      <c r="E260" s="45"/>
-      <c r="F260" s="45"/>
-      <c r="G260" s="45"/>
-      <c r="H260" s="45"/>
-      <c r="I260" s="45"/>
-      <c r="J260" s="45"/>
+      <c r="A260" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B260" s="49"/>
+      <c r="C260" s="49"/>
+      <c r="D260" s="49"/>
+      <c r="E260" s="49"/>
+      <c r="F260" s="49"/>
+      <c r="G260" s="49"/>
+      <c r="H260" s="49"/>
+      <c r="I260" s="49"/>
+      <c r="J260" s="49"/>
       <c r="K260" s="9"/>
       <c r="L260" s="9"/>
       <c r="M260" s="9"/>
@@ -15633,18 +15505,18 @@
       <c r="AF260" s="9"/>
     </row>
     <row r="261" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A261" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B261" s="43"/>
-      <c r="C261" s="43"/>
-      <c r="D261" s="43"/>
-      <c r="E261" s="43"/>
-      <c r="F261" s="43"/>
-      <c r="G261" s="43"/>
-      <c r="H261" s="43"/>
-      <c r="I261" s="43"/>
-      <c r="J261" s="43"/>
+      <c r="A261" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B261" s="47"/>
+      <c r="C261" s="47"/>
+      <c r="D261" s="47"/>
+      <c r="E261" s="47"/>
+      <c r="F261" s="47"/>
+      <c r="G261" s="47"/>
+      <c r="H261" s="47"/>
+      <c r="I261" s="47"/>
+      <c r="J261" s="47"/>
       <c r="K261" s="13"/>
       <c r="L261" s="13"/>
       <c r="M261" s="13"/>
@@ -15668,24 +15540,24 @@
       <c r="AF261" s="13"/>
     </row>
     <row r="262" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A262" s="46" t="s">
+      <c r="A262" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B262" s="46" t="s">
+      <c r="B262" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C262" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D262" s="46" t="s">
+      <c r="C262" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D262" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E262" s="46"/>
-      <c r="F262" s="46"/>
-      <c r="G262" s="46"/>
-      <c r="H262" s="46"/>
-      <c r="I262" s="46"/>
-      <c r="J262" s="46"/>
+      <c r="E262" s="48"/>
+      <c r="F262" s="48"/>
+      <c r="G262" s="48"/>
+      <c r="H262" s="48"/>
+      <c r="I262" s="48"/>
+      <c r="J262" s="48"/>
       <c r="K262" s="10"/>
       <c r="L262" s="10"/>
       <c r="M262" s="10"/>
@@ -15709,9 +15581,9 @@
       <c r="AF262" s="10"/>
     </row>
     <row r="263" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A263" s="46"/>
-      <c r="B263" s="46"/>
-      <c r="C263" s="48"/>
+      <c r="A263" s="48"/>
+      <c r="B263" s="48"/>
+      <c r="C263" s="46"/>
       <c r="D263" s="2">
         <v>7800</v>
       </c>
@@ -15757,7 +15629,7 @@
     </row>
     <row r="264" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A264" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>5</v>
@@ -15790,7 +15662,7 @@
     </row>
     <row r="265" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A265" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>7</v>
@@ -15823,7 +15695,7 @@
     </row>
     <row r="266" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A266" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>6</v>
@@ -15856,7 +15728,7 @@
     </row>
     <row r="267" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A267" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>8</v>
@@ -16445,7 +16317,7 @@
         <v>119</v>
       </c>
       <c r="J284" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K284" s="12"/>
       <c r="L284" s="12"/>
@@ -16499,7 +16371,7 @@
         <v>122</v>
       </c>
       <c r="J285" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K285" s="12"/>
       <c r="L285" s="12"/>
@@ -16553,7 +16425,7 @@
         <v>123</v>
       </c>
       <c r="J286" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K286" s="12"/>
       <c r="L286" s="12"/>
@@ -16607,7 +16479,7 @@
         <v>6959</v>
       </c>
       <c r="J287" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K287" s="12"/>
       <c r="L287" s="12"/>
@@ -16655,13 +16527,13 @@
         <v>119</v>
       </c>
       <c r="H288" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I288" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J288" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K288" s="12"/>
       <c r="L288" s="12"/>
@@ -16709,13 +16581,13 @@
         <v>122</v>
       </c>
       <c r="H289" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I289" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J289" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K289" s="12"/>
       <c r="L289" s="12"/>
@@ -16763,13 +16635,13 @@
         <v>122</v>
       </c>
       <c r="H290" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J290" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K290" s="12"/>
       <c r="L290" s="12"/>
@@ -16817,13 +16689,13 @@
         <v>6969</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J291" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K291" s="12"/>
       <c r="L291" s="12"/>
@@ -16865,19 +16737,19 @@
         <v>119</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I292" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J292" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K292" s="12"/>
       <c r="L292" s="12"/>
@@ -16919,19 +16791,19 @@
         <v>122</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J293" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K293" s="12"/>
       <c r="L293" s="12"/>
@@ -16973,19 +16845,19 @@
         <v>122</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J294" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K294" s="12"/>
       <c r="L294" s="12"/>
@@ -17027,19 +16899,19 @@
         <v>6972</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J295" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K295" s="12"/>
       <c r="L295" s="12"/>
@@ -17064,18 +16936,18 @@
       <c r="AF295" s="12"/>
     </row>
     <row r="297" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A297" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B297" s="45"/>
-      <c r="C297" s="45"/>
-      <c r="D297" s="45"/>
-      <c r="E297" s="45"/>
-      <c r="F297" s="45"/>
-      <c r="G297" s="45"/>
-      <c r="H297" s="45"/>
-      <c r="I297" s="45"/>
-      <c r="J297" s="45"/>
+      <c r="A297" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B297" s="49"/>
+      <c r="C297" s="49"/>
+      <c r="D297" s="49"/>
+      <c r="E297" s="49"/>
+      <c r="F297" s="49"/>
+      <c r="G297" s="49"/>
+      <c r="H297" s="49"/>
+      <c r="I297" s="49"/>
+      <c r="J297" s="49"/>
       <c r="K297" s="9"/>
       <c r="L297" s="9"/>
       <c r="M297" s="9"/>
@@ -17099,18 +16971,18 @@
       <c r="AF297" s="9"/>
     </row>
     <row r="298" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A298" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B298" s="43"/>
-      <c r="C298" s="43"/>
-      <c r="D298" s="43"/>
-      <c r="E298" s="43"/>
-      <c r="F298" s="43"/>
-      <c r="G298" s="43"/>
-      <c r="H298" s="43"/>
-      <c r="I298" s="43"/>
-      <c r="J298" s="43"/>
+      <c r="A298" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B298" s="47"/>
+      <c r="C298" s="47"/>
+      <c r="D298" s="47"/>
+      <c r="E298" s="47"/>
+      <c r="F298" s="47"/>
+      <c r="G298" s="47"/>
+      <c r="H298" s="47"/>
+      <c r="I298" s="47"/>
+      <c r="J298" s="47"/>
       <c r="K298" s="13"/>
       <c r="L298" s="13"/>
       <c r="M298" s="13"/>
@@ -17134,24 +17006,24 @@
       <c r="AF298" s="13"/>
     </row>
     <row r="299" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A299" s="46" t="s">
+      <c r="A299" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B299" s="46" t="s">
+      <c r="B299" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C299" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D299" s="46" t="s">
+      <c r="C299" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D299" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E299" s="46"/>
-      <c r="F299" s="46"/>
-      <c r="G299" s="46"/>
-      <c r="H299" s="46"/>
-      <c r="I299" s="46"/>
-      <c r="J299" s="46"/>
+      <c r="E299" s="48"/>
+      <c r="F299" s="48"/>
+      <c r="G299" s="48"/>
+      <c r="H299" s="48"/>
+      <c r="I299" s="48"/>
+      <c r="J299" s="48"/>
       <c r="K299" s="10"/>
       <c r="L299" s="10"/>
       <c r="M299" s="10"/>
@@ -17175,9 +17047,9 @@
       <c r="AF299" s="10"/>
     </row>
     <row r="300" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A300" s="46"/>
-      <c r="B300" s="46"/>
-      <c r="C300" s="48"/>
+      <c r="A300" s="48"/>
+      <c r="B300" s="48"/>
+      <c r="C300" s="46"/>
       <c r="D300" s="2">
         <v>7800</v>
       </c>
@@ -17223,7 +17095,7 @@
     </row>
     <row r="301" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A301" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>5</v>
@@ -17256,7 +17128,7 @@
     </row>
     <row r="302" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A302" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>7</v>
@@ -17289,7 +17161,7 @@
     </row>
     <row r="303" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A303" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>6</v>
@@ -17322,7 +17194,7 @@
     </row>
     <row r="304" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A304" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>8</v>
@@ -17911,7 +17783,7 @@
         <v>118</v>
       </c>
       <c r="J321" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K321" s="12"/>
       <c r="L321" s="12"/>
@@ -17965,7 +17837,7 @@
         <v>121</v>
       </c>
       <c r="J322" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K322" s="12"/>
       <c r="L322" s="12"/>
@@ -18019,7 +17891,7 @@
         <v>122</v>
       </c>
       <c r="J323" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K323" s="12"/>
       <c r="L323" s="12"/>
@@ -18073,7 +17945,7 @@
         <v>6956</v>
       </c>
       <c r="J324" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K324" s="12"/>
       <c r="L324" s="12"/>
@@ -18121,13 +17993,13 @@
         <v>118</v>
       </c>
       <c r="H325" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I325" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J325" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K325" s="12"/>
       <c r="L325" s="12"/>
@@ -18175,13 +18047,13 @@
         <v>121</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I326" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J326" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K326" s="12"/>
       <c r="L326" s="12"/>
@@ -18229,13 +18101,13 @@
         <v>122</v>
       </c>
       <c r="H327" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I327" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J327" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K327" s="12"/>
       <c r="L327" s="12"/>
@@ -18283,13 +18155,13 @@
         <v>6963</v>
       </c>
       <c r="H328" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I328" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J328" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K328" s="12"/>
       <c r="L328" s="12"/>
@@ -18331,19 +18203,19 @@
         <v>118</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H329" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I329" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J329" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K329" s="12"/>
       <c r="L329" s="12"/>
@@ -18385,19 +18257,19 @@
         <v>121</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G330" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H330" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I330" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J330" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K330" s="12"/>
       <c r="L330" s="12"/>
@@ -18439,19 +18311,19 @@
         <v>122</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H331" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I331" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J331" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K331" s="12"/>
       <c r="L331" s="12"/>
@@ -18493,19 +18365,19 @@
         <v>6936</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G332" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H332" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I332" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J332" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K332" s="12"/>
       <c r="L332" s="12"/>
@@ -18530,18 +18402,18 @@
       <c r="AF332" s="12"/>
     </row>
     <row r="334" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A334" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B334" s="45"/>
-      <c r="C334" s="45"/>
-      <c r="D334" s="45"/>
-      <c r="E334" s="45"/>
-      <c r="F334" s="45"/>
-      <c r="G334" s="45"/>
-      <c r="H334" s="45"/>
-      <c r="I334" s="45"/>
-      <c r="J334" s="45"/>
+      <c r="A334" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B334" s="49"/>
+      <c r="C334" s="49"/>
+      <c r="D334" s="49"/>
+      <c r="E334" s="49"/>
+      <c r="F334" s="49"/>
+      <c r="G334" s="49"/>
+      <c r="H334" s="49"/>
+      <c r="I334" s="49"/>
+      <c r="J334" s="49"/>
       <c r="K334" s="9"/>
       <c r="L334" s="9"/>
       <c r="M334" s="9"/>
@@ -18565,18 +18437,18 @@
       <c r="AF334" s="9"/>
     </row>
     <row r="335" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A335" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B335" s="43"/>
-      <c r="C335" s="43"/>
-      <c r="D335" s="43"/>
-      <c r="E335" s="43"/>
-      <c r="F335" s="43"/>
-      <c r="G335" s="43"/>
-      <c r="H335" s="43"/>
-      <c r="I335" s="43"/>
-      <c r="J335" s="43"/>
+      <c r="A335" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B335" s="47"/>
+      <c r="C335" s="47"/>
+      <c r="D335" s="47"/>
+      <c r="E335" s="47"/>
+      <c r="F335" s="47"/>
+      <c r="G335" s="47"/>
+      <c r="H335" s="47"/>
+      <c r="I335" s="47"/>
+      <c r="J335" s="47"/>
       <c r="K335" s="13"/>
       <c r="L335" s="13"/>
       <c r="M335" s="13"/>
@@ -18600,24 +18472,24 @@
       <c r="AF335" s="13"/>
     </row>
     <row r="336" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A336" s="46" t="s">
+      <c r="A336" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B336" s="46" t="s">
+      <c r="B336" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C336" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D336" s="46" t="s">
+      <c r="C336" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D336" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E336" s="46"/>
-      <c r="F336" s="46"/>
-      <c r="G336" s="46"/>
-      <c r="H336" s="46"/>
-      <c r="I336" s="46"/>
-      <c r="J336" s="46"/>
+      <c r="E336" s="48"/>
+      <c r="F336" s="48"/>
+      <c r="G336" s="48"/>
+      <c r="H336" s="48"/>
+      <c r="I336" s="48"/>
+      <c r="J336" s="48"/>
       <c r="K336" s="10"/>
       <c r="L336" s="10"/>
       <c r="M336" s="10"/>
@@ -18641,9 +18513,9 @@
       <c r="AF336" s="10"/>
     </row>
     <row r="337" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A337" s="46"/>
-      <c r="B337" s="46"/>
-      <c r="C337" s="48"/>
+      <c r="A337" s="48"/>
+      <c r="B337" s="48"/>
+      <c r="C337" s="46"/>
       <c r="D337" s="2">
         <v>7800</v>
       </c>
@@ -18689,7 +18561,7 @@
     </row>
     <row r="338" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A338" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>5</v>
@@ -18722,7 +18594,7 @@
     </row>
     <row r="339" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A339" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>7</v>
@@ -18755,7 +18627,7 @@
     </row>
     <row r="340" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A340" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>6</v>
@@ -18788,7 +18660,7 @@
     </row>
     <row r="341" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A341" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>8</v>
@@ -18821,7 +18693,7 @@
     </row>
     <row r="342" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A342" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>5</v>
@@ -18854,7 +18726,7 @@
     </row>
     <row r="343" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A343" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>7</v>
@@ -18887,7 +18759,7 @@
     </row>
     <row r="344" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A344" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>6</v>
@@ -18920,7 +18792,7 @@
     </row>
     <row r="345" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A345" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>8</v>
@@ -19377,7 +19249,7 @@
         <v>118</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K358" s="12"/>
       <c r="L358" s="12"/>
@@ -19431,7 +19303,7 @@
         <v>121</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K359" s="12"/>
       <c r="L359" s="12"/>
@@ -19485,7 +19357,7 @@
         <v>122</v>
       </c>
       <c r="J360" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K360" s="12"/>
       <c r="L360" s="12"/>
@@ -19539,7 +19411,7 @@
         <v>6950</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K361" s="12"/>
       <c r="L361" s="12"/>
@@ -19590,10 +19462,10 @@
         <v>119</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K362" s="12"/>
       <c r="L362" s="12"/>
@@ -19644,10 +19516,10 @@
         <v>122</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J363" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K363" s="12"/>
       <c r="L363" s="12"/>
@@ -19698,10 +19570,10 @@
         <v>122</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J364" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K364" s="12"/>
       <c r="L364" s="12"/>
@@ -19752,10 +19624,10 @@
         <v>7300</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J365" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K365" s="12"/>
       <c r="L365" s="12"/>
@@ -19800,16 +19672,16 @@
         <v>119</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H366" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J366" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K366" s="12"/>
       <c r="L366" s="12"/>
@@ -19854,16 +19726,16 @@
         <v>122</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H367" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J367" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K367" s="12"/>
       <c r="L367" s="12"/>
@@ -19908,16 +19780,16 @@
         <v>122</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H368" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J368" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K368" s="12"/>
       <c r="L368" s="12"/>
@@ -19962,16 +19834,16 @@
         <v>7310</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H369" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J369" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K369" s="12"/>
       <c r="L369" s="12"/>
@@ -19996,18 +19868,18 @@
       <c r="AF369" s="12"/>
     </row>
     <row r="371" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A371" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B371" s="45"/>
-      <c r="C371" s="45"/>
-      <c r="D371" s="45"/>
-      <c r="E371" s="45"/>
-      <c r="F371" s="45"/>
-      <c r="G371" s="45"/>
-      <c r="H371" s="45"/>
-      <c r="I371" s="45"/>
-      <c r="J371" s="45"/>
+      <c r="A371" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B371" s="49"/>
+      <c r="C371" s="49"/>
+      <c r="D371" s="49"/>
+      <c r="E371" s="49"/>
+      <c r="F371" s="49"/>
+      <c r="G371" s="49"/>
+      <c r="H371" s="49"/>
+      <c r="I371" s="49"/>
+      <c r="J371" s="49"/>
       <c r="K371" s="9"/>
       <c r="L371" s="9"/>
       <c r="M371" s="9"/>
@@ -20031,18 +19903,18 @@
       <c r="AF371" s="9"/>
     </row>
     <row r="372" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A372" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B372" s="43"/>
-      <c r="C372" s="43"/>
-      <c r="D372" s="43"/>
-      <c r="E372" s="43"/>
-      <c r="F372" s="43"/>
-      <c r="G372" s="43"/>
-      <c r="H372" s="43"/>
-      <c r="I372" s="43"/>
-      <c r="J372" s="43"/>
+      <c r="A372" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B372" s="47"/>
+      <c r="C372" s="47"/>
+      <c r="D372" s="47"/>
+      <c r="E372" s="47"/>
+      <c r="F372" s="47"/>
+      <c r="G372" s="47"/>
+      <c r="H372" s="47"/>
+      <c r="I372" s="47"/>
+      <c r="J372" s="47"/>
       <c r="K372" s="13"/>
       <c r="L372" s="13"/>
       <c r="M372" s="13"/>
@@ -20066,24 +19938,24 @@
       <c r="AF372" s="13"/>
     </row>
     <row r="373" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A373" s="46" t="s">
+      <c r="A373" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B373" s="46" t="s">
+      <c r="B373" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C373" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D373" s="46" t="s">
+      <c r="C373" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D373" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E373" s="46"/>
-      <c r="F373" s="46"/>
-      <c r="G373" s="46"/>
-      <c r="H373" s="46"/>
-      <c r="I373" s="46"/>
-      <c r="J373" s="46"/>
+      <c r="E373" s="48"/>
+      <c r="F373" s="48"/>
+      <c r="G373" s="48"/>
+      <c r="H373" s="48"/>
+      <c r="I373" s="48"/>
+      <c r="J373" s="48"/>
       <c r="K373" s="10"/>
       <c r="L373" s="10"/>
       <c r="M373" s="10"/>
@@ -20107,9 +19979,9 @@
       <c r="AF373" s="10"/>
     </row>
     <row r="374" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A374" s="46"/>
-      <c r="B374" s="46"/>
-      <c r="C374" s="48"/>
+      <c r="A374" s="48"/>
+      <c r="B374" s="48"/>
+      <c r="C374" s="46"/>
       <c r="D374" s="2">
         <v>7800</v>
       </c>
@@ -20155,7 +20027,7 @@
     </row>
     <row r="375" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A375" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>5</v>
@@ -20188,7 +20060,7 @@
     </row>
     <row r="376" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A376" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>7</v>
@@ -20221,7 +20093,7 @@
     </row>
     <row r="377" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A377" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>6</v>
@@ -20254,7 +20126,7 @@
     </row>
     <row r="378" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A378" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>8</v>
@@ -20287,7 +20159,7 @@
     </row>
     <row r="379" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A379" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>5</v>
@@ -20320,7 +20192,7 @@
     </row>
     <row r="380" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A380" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>7</v>
@@ -20353,7 +20225,7 @@
     </row>
     <row r="381" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A381" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>6</v>
@@ -20386,7 +20258,7 @@
     </row>
     <row r="382" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A382" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>8</v>
@@ -20711,7 +20583,7 @@
         <v>117</v>
       </c>
       <c r="J391" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K391" s="12"/>
       <c r="L391" s="12"/>
@@ -20765,7 +20637,7 @@
         <v>121</v>
       </c>
       <c r="J392" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K392" s="12"/>
       <c r="L392" s="12"/>
@@ -20819,7 +20691,7 @@
         <v>122</v>
       </c>
       <c r="J393" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K393" s="12"/>
       <c r="L393" s="12"/>
@@ -20873,7 +20745,7 @@
         <v>6974</v>
       </c>
       <c r="J394" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K394" s="12"/>
       <c r="L394" s="12"/>
@@ -20924,10 +20796,10 @@
         <v>118</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J395" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K395" s="12"/>
       <c r="L395" s="12"/>
@@ -20978,10 +20850,10 @@
         <v>121</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J396" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K396" s="12"/>
       <c r="L396" s="12"/>
@@ -21032,10 +20904,10 @@
         <v>122</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J397" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K397" s="12"/>
       <c r="L397" s="12"/>
@@ -21086,10 +20958,10 @@
         <v>7297</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J398" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K398" s="12"/>
       <c r="L398" s="12"/>
@@ -21134,16 +21006,16 @@
         <v>118</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H399" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J399" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K399" s="12"/>
       <c r="L399" s="12"/>
@@ -21188,16 +21060,16 @@
         <v>121</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H400" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J400" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K400" s="12"/>
       <c r="L400" s="12"/>
@@ -21242,16 +21114,16 @@
         <v>122</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H401" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J401" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K401" s="12"/>
       <c r="L401" s="12"/>
@@ -21296,16 +21168,16 @@
         <v>7300</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H402" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J402" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K402" s="12"/>
       <c r="L402" s="12"/>
@@ -21344,22 +21216,22 @@
         <v>119</v>
       </c>
       <c r="E403" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H403" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J403" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K403" s="12"/>
       <c r="L403" s="12"/>
@@ -21398,22 +21270,22 @@
         <v>122</v>
       </c>
       <c r="E404" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H404" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J404" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K404" s="12"/>
       <c r="L404" s="12"/>
@@ -21452,22 +21324,22 @@
         <v>122</v>
       </c>
       <c r="E405" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H405" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J405" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K405" s="12"/>
       <c r="L405" s="12"/>
@@ -21506,22 +21378,22 @@
         <v>7517</v>
       </c>
       <c r="E406" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H406" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J406" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K406" s="12"/>
       <c r="L406" s="12"/>
@@ -21546,18 +21418,18 @@
       <c r="AF406" s="12"/>
     </row>
     <row r="408" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A408" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B408" s="45"/>
-      <c r="C408" s="45"/>
-      <c r="D408" s="45"/>
-      <c r="E408" s="45"/>
-      <c r="F408" s="45"/>
-      <c r="G408" s="45"/>
-      <c r="H408" s="45"/>
-      <c r="I408" s="45"/>
-      <c r="J408" s="45"/>
+      <c r="A408" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B408" s="49"/>
+      <c r="C408" s="49"/>
+      <c r="D408" s="49"/>
+      <c r="E408" s="49"/>
+      <c r="F408" s="49"/>
+      <c r="G408" s="49"/>
+      <c r="H408" s="49"/>
+      <c r="I408" s="49"/>
+      <c r="J408" s="49"/>
       <c r="K408" s="9"/>
       <c r="L408" s="9"/>
       <c r="M408" s="9"/>
@@ -21581,18 +21453,18 @@
       <c r="AF408" s="9"/>
     </row>
     <row r="409" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A409" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B409" s="43"/>
-      <c r="C409" s="43"/>
-      <c r="D409" s="43"/>
-      <c r="E409" s="43"/>
-      <c r="F409" s="43"/>
-      <c r="G409" s="43"/>
-      <c r="H409" s="43"/>
-      <c r="I409" s="43"/>
-      <c r="J409" s="43"/>
+      <c r="A409" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B409" s="47"/>
+      <c r="C409" s="47"/>
+      <c r="D409" s="47"/>
+      <c r="E409" s="47"/>
+      <c r="F409" s="47"/>
+      <c r="G409" s="47"/>
+      <c r="H409" s="47"/>
+      <c r="I409" s="47"/>
+      <c r="J409" s="47"/>
       <c r="K409" s="13"/>
       <c r="L409" s="13"/>
       <c r="M409" s="13"/>
@@ -21616,24 +21488,24 @@
       <c r="AF409" s="13"/>
     </row>
     <row r="410" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A410" s="46" t="s">
+      <c r="A410" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B410" s="46" t="s">
+      <c r="B410" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C410" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D410" s="46" t="s">
+      <c r="C410" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D410" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E410" s="46"/>
-      <c r="F410" s="46"/>
-      <c r="G410" s="46"/>
-      <c r="H410" s="46"/>
-      <c r="I410" s="46"/>
-      <c r="J410" s="46"/>
+      <c r="E410" s="48"/>
+      <c r="F410" s="48"/>
+      <c r="G410" s="48"/>
+      <c r="H410" s="48"/>
+      <c r="I410" s="48"/>
+      <c r="J410" s="48"/>
       <c r="K410" s="10"/>
       <c r="L410" s="10"/>
       <c r="M410" s="10"/>
@@ -21657,9 +21529,9 @@
       <c r="AF410" s="10"/>
     </row>
     <row r="411" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A411" s="46"/>
-      <c r="B411" s="46"/>
-      <c r="C411" s="48"/>
+      <c r="A411" s="48"/>
+      <c r="B411" s="48"/>
+      <c r="C411" s="46"/>
       <c r="D411" s="2">
         <v>7800</v>
       </c>
@@ -21705,7 +21577,7 @@
     </row>
     <row r="412" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A412" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>5</v>
@@ -21738,7 +21610,7 @@
     </row>
     <row r="413" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A413" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>7</v>
@@ -21771,7 +21643,7 @@
     </row>
     <row r="414" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A414" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>6</v>
@@ -21804,7 +21676,7 @@
     </row>
     <row r="415" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A415" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B415" s="4" t="s">
         <v>8</v>
@@ -21837,7 +21709,7 @@
     </row>
     <row r="416" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A416" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>5</v>
@@ -21870,7 +21742,7 @@
     </row>
     <row r="417" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A417" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>7</v>
@@ -21903,7 +21775,7 @@
     </row>
     <row r="418" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A418" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>6</v>
@@ -21936,7 +21808,7 @@
     </row>
     <row r="419" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A419" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>8</v>
@@ -21969,7 +21841,7 @@
     </row>
     <row r="420" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A420" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>5</v>
@@ -22002,7 +21874,7 @@
     </row>
     <row r="421" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A421" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>7</v>
@@ -22035,7 +21907,7 @@
     </row>
     <row r="422" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A422" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>6</v>
@@ -22068,7 +21940,7 @@
     </row>
     <row r="423" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A423" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B423" s="4" t="s">
         <v>8</v>
@@ -22393,7 +22265,7 @@
         <v>119</v>
       </c>
       <c r="J432" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K432" s="12"/>
       <c r="L432" s="12"/>
@@ -22447,7 +22319,7 @@
         <v>122</v>
       </c>
       <c r="J433" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K433" s="12"/>
       <c r="L433" s="12"/>
@@ -22501,7 +22373,7 @@
         <v>123</v>
       </c>
       <c r="J434" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K434" s="12"/>
       <c r="L434" s="12"/>
@@ -22555,7 +22427,7 @@
         <v>7687</v>
       </c>
       <c r="J435" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K435" s="12"/>
       <c r="L435" s="12"/>
@@ -22603,13 +22475,13 @@
         <v>119</v>
       </c>
       <c r="H436" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I436" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J436" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K436" s="12"/>
       <c r="L436" s="12"/>
@@ -22657,13 +22529,13 @@
         <v>122</v>
       </c>
       <c r="H437" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J437" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K437" s="12"/>
       <c r="L437" s="12"/>
@@ -22711,13 +22583,13 @@
         <v>122</v>
       </c>
       <c r="H438" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J438" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K438" s="12"/>
       <c r="L438" s="12"/>
@@ -22765,13 +22637,13 @@
         <v>7684</v>
       </c>
       <c r="H439" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J439" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K439" s="12"/>
       <c r="L439" s="12"/>
@@ -22813,19 +22685,19 @@
         <v>119</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G440" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H440" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J440" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K440" s="12"/>
       <c r="L440" s="12"/>
@@ -22867,19 +22739,19 @@
         <v>122</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G441" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H441" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I441" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J441" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K441" s="12"/>
       <c r="L441" s="12"/>
@@ -22921,19 +22793,19 @@
         <v>122</v>
       </c>
       <c r="F442" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H442" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J442" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K442" s="12"/>
       <c r="L442" s="12"/>
@@ -22975,19 +22847,19 @@
         <v>7691</v>
       </c>
       <c r="F443" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H443" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I443" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J443" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K443" s="12"/>
       <c r="L443" s="12"/>
@@ -23013,32 +22885,53 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="A261:J261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:J262"/>
-    <mergeCell ref="A223:J223"/>
-    <mergeCell ref="A224:J224"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="D225:J225"/>
-    <mergeCell ref="A112:J112"/>
-    <mergeCell ref="A113:J113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:J114"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="D77:J77"/>
-    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="A408:J408"/>
+    <mergeCell ref="A409:J409"/>
+    <mergeCell ref="A334:J334"/>
+    <mergeCell ref="A335:J335"/>
+    <mergeCell ref="A336:A337"/>
+    <mergeCell ref="B336:B337"/>
+    <mergeCell ref="D336:J336"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="D299:J299"/>
+    <mergeCell ref="A297:J297"/>
+    <mergeCell ref="A298:J298"/>
+    <mergeCell ref="A260:J260"/>
+    <mergeCell ref="A410:A411"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="D410:J410"/>
+    <mergeCell ref="A371:J371"/>
+    <mergeCell ref="A372:J372"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:J373"/>
+    <mergeCell ref="C410:C411"/>
+    <mergeCell ref="C373:C374"/>
+    <mergeCell ref="A186:J186"/>
+    <mergeCell ref="A187:J187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="D188:J188"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A150:J150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:J151"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C40:C41"/>
     <mergeCell ref="AN1:AR1"/>
     <mergeCell ref="AN2:AR2"/>
     <mergeCell ref="AN3:AR3"/>
@@ -23055,53 +22948,32 @@
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AB2:AF2"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="A150:J150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:J151"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="A186:J186"/>
-    <mergeCell ref="A187:J187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="D188:J188"/>
-    <mergeCell ref="A410:A411"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="D410:J410"/>
-    <mergeCell ref="A371:J371"/>
-    <mergeCell ref="A372:J372"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:J373"/>
-    <mergeCell ref="C410:C411"/>
-    <mergeCell ref="C373:C374"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="A408:J408"/>
-    <mergeCell ref="A409:J409"/>
-    <mergeCell ref="A334:J334"/>
-    <mergeCell ref="A335:J335"/>
-    <mergeCell ref="A336:A337"/>
-    <mergeCell ref="B336:B337"/>
-    <mergeCell ref="D336:J336"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="D299:J299"/>
-    <mergeCell ref="A297:J297"/>
-    <mergeCell ref="A298:J298"/>
-    <mergeCell ref="A260:J260"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="D77:J77"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A112:J112"/>
+    <mergeCell ref="A113:J113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:J114"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="A261:J261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:J262"/>
+    <mergeCell ref="A223:J223"/>
+    <mergeCell ref="A224:J224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="D225:J225"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23111,10 +22983,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1973C0C5-A2BC-4857-979E-2653A9079FAB}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:H284"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23127,29 +23002,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
+      <c r="A1" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
+      <c r="A2" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
+      <c r="A3" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B4" s="41">
         <v>48</v>
@@ -23267,29 +23142,29 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
+      <c r="A16" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
+      <c r="A17" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B18" s="41">
         <v>46</v>
@@ -23412,29 +23287,29 @@
       <c r="C28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
+      <c r="A31" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
     </row>
     <row r="32" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B32" s="40">
         <v>43</v>
@@ -23572,29 +23447,29 @@
       <c r="C43"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
+      <c r="A44" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
+      <c r="A45" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
+      <c r="A46" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="59"/>
+      <c r="C46" s="60"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B47" s="40">
         <v>40</v>
@@ -23741,29 +23616,29 @@
       <c r="C59"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
+      <c r="A60" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
+      <c r="A61" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
+      <c r="A62" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="59"/>
+      <c r="C62" s="60"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B63" s="40">
         <v>38</v>
@@ -23910,29 +23785,29 @@
       <c r="C75"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
+      <c r="A76" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
+      <c r="A77" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="54"/>
-      <c r="C78" s="55"/>
+      <c r="A78" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="59"/>
+      <c r="C78" s="60"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B79" s="40">
         <v>33</v>
@@ -24115,29 +23990,29 @@
       <c r="C94"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
+      <c r="A95" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
+      <c r="A96" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B97" s="54"/>
-      <c r="C97" s="55"/>
+      <c r="A97" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" s="59"/>
+      <c r="C97" s="60"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B98" s="40">
         <v>30</v>
@@ -24344,29 +24219,29 @@
       <c r="C115"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B116" s="45"/>
-      <c r="C116" s="45"/>
+      <c r="A116" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" s="49"/>
+      <c r="C116" s="49"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
+      <c r="A117" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" s="47"/>
+      <c r="C117" s="47"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B118" s="54"/>
-      <c r="C118" s="55"/>
+      <c r="A118" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118" s="59"/>
+      <c r="C118" s="60"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B119" s="40">
         <v>25</v>
@@ -24597,29 +24472,29 @@
       <c r="C138"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B139" s="45"/>
-      <c r="C139" s="45"/>
+      <c r="A139" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B139" s="49"/>
+      <c r="C139" s="49"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="43" t="s">
+      <c r="A140" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B140" s="47"/>
+      <c r="C140" s="47"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B140" s="43"/>
-      <c r="C140" s="43"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B141" s="54"/>
-      <c r="C141" s="55"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="60"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B142" s="40">
         <v>21</v>
@@ -24850,29 +24725,29 @@
       <c r="C161"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B162" s="45"/>
-      <c r="C162" s="45"/>
+      <c r="A162" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B162" s="49"/>
+      <c r="C162" s="49"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="43" t="s">
+      <c r="A163" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B163" s="47"/>
+      <c r="C163" s="47"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B163" s="43"/>
-      <c r="C163" s="43"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B164" s="54"/>
-      <c r="C164" s="55"/>
+      <c r="B164" s="59"/>
+      <c r="C164" s="60"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B165" s="40">
         <v>18</v>
@@ -25092,29 +24967,29 @@
       <c r="H183" s="32"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B184" s="45"/>
-      <c r="C184" s="45"/>
+      <c r="A184" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B184" s="49"/>
+      <c r="C184" s="49"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B185" s="43"/>
-      <c r="C185" s="43"/>
+      <c r="A185" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B185" s="47"/>
+      <c r="C185" s="47"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B186" s="54"/>
-      <c r="C186" s="55"/>
+      <c r="A186" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B186" s="59"/>
+      <c r="C186" s="60"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B187" s="40">
         <v>15</v>
@@ -25345,29 +25220,29 @@
       <c r="C206"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B207" s="45"/>
-      <c r="C207" s="45"/>
+      <c r="A207" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B207" s="49"/>
+      <c r="C207" s="49"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B208" s="43"/>
-      <c r="C208" s="43"/>
+      <c r="A208" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B208" s="47"/>
+      <c r="C208" s="47"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B209" s="54"/>
-      <c r="C209" s="55"/>
+      <c r="A209" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B209" s="59"/>
+      <c r="C209" s="60"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B210" s="40">
         <v>10</v>
@@ -25617,26 +25492,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="A209:C209"/>
     <mergeCell ref="A185:C185"/>
@@ -25653,6 +25508,26 @@
     <mergeCell ref="A118:C118"/>
     <mergeCell ref="A141:C141"/>
     <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -25661,10 +25536,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A3DAA3-71A4-4B3E-A397-EFF1010FA44F}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:C319"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25673,35 +25551,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="A1" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -25756,35 +25634,35 @@
       <c r="C9" s="34"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
+      <c r="A12" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -25895,35 +25773,35 @@
       <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="A23" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
+      <c r="A25" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -26085,35 +25963,35 @@
       <c r="C39" s="34"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="A40" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="55"/>
+      <c r="A42" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -26341,35 +26219,35 @@
       <c r="C61" s="34"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
+      <c r="A62" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
+      <c r="A63" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
+      <c r="A64" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="59"/>
+      <c r="C64" s="60"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -26661,35 +26539,35 @@
       <c r="C88" s="34"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
+      <c r="A89" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
+      <c r="A90" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B91" s="54"/>
-      <c r="C91" s="55"/>
+      <c r="A91" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="59"/>
+      <c r="C91" s="60"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -27033,25 +26911,25 @@
       <c r="C119" s="34"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B120" s="45"/>
-      <c r="C120" s="45"/>
+      <c r="A120" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B120" s="49"/>
+      <c r="C120" s="49"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
+      <c r="A121" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" s="47"/>
+      <c r="C121" s="47"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B122" s="54"/>
-      <c r="C122" s="55"/>
+      <c r="A122" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B122" s="59"/>
+      <c r="C122" s="60"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
@@ -27459,25 +27337,25 @@
       <c r="C154" s="34"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B155" s="45"/>
-      <c r="C155" s="45"/>
+      <c r="A155" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B155" s="49"/>
+      <c r="C155" s="49"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B156" s="43"/>
-      <c r="C156" s="43"/>
+      <c r="A156" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B156" s="47"/>
+      <c r="C156" s="47"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B157" s="54"/>
-      <c r="C157" s="55"/>
+      <c r="A157" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B157" s="59"/>
+      <c r="C157" s="60"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="19">
@@ -28028,25 +27906,25 @@
       <c r="C200" s="34"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B201" s="45"/>
-      <c r="C201" s="45"/>
+      <c r="A201" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B201" s="49"/>
+      <c r="C201" s="49"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="B202" s="43"/>
-      <c r="C202" s="43"/>
+      <c r="A202" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B202" s="47"/>
+      <c r="C202" s="47"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B203" s="54"/>
-      <c r="C203" s="55"/>
+      <c r="A203" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B203" s="59"/>
+      <c r="C203" s="60"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
@@ -28727,25 +28605,25 @@
       <c r="C256" s="34"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B257" s="45"/>
-      <c r="C257" s="45"/>
+      <c r="A257" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B257" s="49"/>
+      <c r="C257" s="49"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B258" s="43"/>
-      <c r="C258" s="43"/>
+      <c r="A258" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B258" s="47"/>
+      <c r="C258" s="47"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="B259" s="54"/>
-      <c r="C259" s="55"/>
+      <c r="A259" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B259" s="59"/>
+      <c r="C259" s="60"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
@@ -29528,6 +29406,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="A120:C120"/>
     <mergeCell ref="A121:C121"/>
@@ -29540,24 +29436,6 @@
     <mergeCell ref="A203:C203"/>
     <mergeCell ref="A257:C257"/>
     <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29565,481 +29443,293 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0EAF98-B25F-4CBB-BB85-B3FF6903A1D6}">
-  <dimension ref="A1:H37"/>
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="62"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>465</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>466</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>467</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>468</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>469</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>470</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>471</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>472</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>473</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="35" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="D1" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10400</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="3">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="G10" s="11" t="s">
+      <c r="E4">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10350</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5">
+        <f>E3-E4</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6">
+        <f>E5/2</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="3">
+        <f>(B5-B3)/(B4-B2)</f>
+        <v>-50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7">
+        <f>E3-E6</f>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="3">
+        <f xml:space="preserve"> B7 * B2</f>
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="3">
+        <f xml:space="preserve"> B3 - B9</f>
+        <v>12800</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="D11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>474</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>475</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10400</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E11">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>CONCATENATE("=" &amp; "INSERT TEMP CELL" &amp; " *" &amp; B7  &amp; "+" &amp; B10)</f>
+        <v>=INSERT TEMP CELL *-50+12800</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13">
+        <f>E11-E12</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14">
+        <f>E13/2</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>126</v>
       </c>
-      <c r="H12">
+      <c r="E15">
+        <f>E11-E14</f>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17">
+        <f>E11</f>
         <v>9900</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>476</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="3">
-        <v>49</v>
-      </c>
-      <c r="G13" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18">
+        <f>E15</f>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19">
+        <f>E17-E18</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>125</v>
       </c>
-      <c r="H13">
+      <c r="E20">
+        <f>E19 / 2</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21">
+        <f>E18+E20</f>
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24">
+        <f>E15</f>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25">
+        <f>E12</f>
         <v>9100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>477</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10350</v>
-      </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14">
-        <f>H12-H13</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>478</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15">
-        <f>H14/2</f>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26">
+        <f>E24-E25</f>
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>479</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="3">
-        <f>(E14-E12)/(E13-E11)</f>
-        <v>-50</v>
-      </c>
-      <c r="G16" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27">
+        <f>E26/2</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>129</v>
       </c>
-      <c r="H16">
-        <f>H12-H15</f>
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>480</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>481</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="3">
-        <f xml:space="preserve"> E16 * E11</f>
-        <v>-2400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>482</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="3">
-        <f xml:space="preserve"> E12 - E18</f>
-        <v>12800</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>483</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="G20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>484</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="3" t="str">
-        <f>CONCATENATE("=" &amp; "INSERT TEMP CELL" &amp; " *" &amp; E16  &amp; "+" &amp; E19)</f>
-        <v>=INSERT TEMP CELL *-50+12800</v>
-      </c>
-      <c r="G21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21">
-        <v>9100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>485</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22">
-        <f>H20-H21</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23">
-        <f>H22/2</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="63"/>
-      <c r="G24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24">
-        <f>H20-H23</f>
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>459</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>460</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="G26" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26">
-        <f>H20</f>
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>461</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27">
-        <f>H24</f>
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>462</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28">
-        <f>H26-H27</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>463</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29">
-        <f>H28 / 2</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>464</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30">
-        <f>H27+H29</f>
-        <v>9700</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G32" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G33" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33">
-        <f>H24</f>
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
-        <v>125</v>
-      </c>
-      <c r="H34">
-        <f>H21</f>
-        <v>9100</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>127</v>
-      </c>
-      <c r="H35">
-        <f>H33-H34</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>128</v>
-      </c>
-      <c r="H36">
-        <f>H35/2</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37">
-        <f>H33-H36</f>
+      <c r="E28">
+        <f>E24-E27</f>
         <v>9300</v>
       </c>
     </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:B24"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HondaJet Perf Calc.xlsx
+++ b/HondaJet Perf Calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\HondaJet Perf Calc\hjet-performance-calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DE1284-C9CF-485E-B1EB-69B653405C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1924A7-3C28-428A-9E36-B936769700BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{63ACE541-7DEF-4A6E-868E-15DE9EBE8715}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63ACE541-7DEF-4A6E-868E-15DE9EBE8715}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="3" r:id="rId1"/>
@@ -20,37 +20,36 @@
     <sheet name="AdminTools" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="Base0">Takeoff!$C$42:$J$73</definedName>
-    <definedName name="Base1000">Takeoff!$C$79:$J$110</definedName>
-    <definedName name="Base10000">Takeoff!$C$412:$J$443</definedName>
-    <definedName name="Base2000">Takeoff!$C$116:$J$147</definedName>
-    <definedName name="Base3000">Takeoff!$C$153:$J$184</definedName>
-    <definedName name="Base4000">Takeoff!$C$190:$J$221</definedName>
-    <definedName name="Base5000">Takeoff!$C$227:$J$258</definedName>
-    <definedName name="Base6000">Takeoff!$C$264:$J$295</definedName>
-    <definedName name="Base7000">Takeoff!$C$301:$J$332</definedName>
-    <definedName name="Base8000">Takeoff!$C$338:$J$369</definedName>
-    <definedName name="Base9000">Takeoff!$C$375:$J$406</definedName>
-    <definedName name="BaseM1000">Takeoff!$C$5:$J$36</definedName>
-    <definedName name="MTOW_SlopeCorr_FlapsTO_NoIce">Takeoff!$AN$1:$AR$33</definedName>
-    <definedName name="MTOWBaseM01000">'MTOW Climb Requirements'!$A$4:$C$13</definedName>
-    <definedName name="MTOWBaseP00000">'MTOW Climb Requirements'!$A$18:$C$27</definedName>
-    <definedName name="MTOWBaseP01000">'MTOW Climb Requirements'!$A$32:$C$42</definedName>
-    <definedName name="MTOWBaseP02000">'MTOW Climb Requirements'!$A$47:$C$58</definedName>
-    <definedName name="MTOWBaseP03000">'MTOW Climb Requirements'!$A$63:$C$74</definedName>
-    <definedName name="MTOWBaseP04000">'MTOW Climb Requirements'!$A$79:$C$93</definedName>
-    <definedName name="MTOWBaseP05000">'MTOW Climb Requirements'!$A$98:$C$114</definedName>
-    <definedName name="MTOWBaseP06000">'MTOW Climb Requirements'!$A$119:$C$137</definedName>
-    <definedName name="MTOWBaseP07000">'MTOW Climb Requirements'!$A$143:$C$160</definedName>
-    <definedName name="MTOWBaseP08000">'MTOW Climb Requirements'!$A$165:$C$182</definedName>
-    <definedName name="MTOWBaseP09000">'MTOW Climb Requirements'!$A$187:$C$205</definedName>
-    <definedName name="MTOWBaseP10000">'MTOW Climb Requirements'!$A$210:$C$229</definedName>
-    <definedName name="SlopeMTOW">Takeoff!$AN$5:$AR$33</definedName>
-    <definedName name="SlopeTOFL">Takeoff!$AH$5:$AL$91</definedName>
-    <definedName name="SlopeV1">Takeoff!$P$5:$T$26</definedName>
-    <definedName name="SlopeV2">Takeoff!$V$5:$Z$11</definedName>
-    <definedName name="TOFLWinds">Takeoff!$AB$5:$AF$73</definedName>
-    <definedName name="V1Winds">Takeoff!$L$6:$N$25</definedName>
+    <definedName name="TO_MTOWClimb_TO_NoAI_0">'MTOW Climb Requirements'!$A$18:$C$27</definedName>
+    <definedName name="TO_MTOWClimb_TO_NoAI_1000">'MTOW Climb Requirements'!$A$32:$C$42</definedName>
+    <definedName name="TO_MTOWClimb_TO_NoAI_10000">'MTOW Climb Requirements'!$A$210:$C$229</definedName>
+    <definedName name="TO_MTOWClimb_TO_NoAI_2000">'MTOW Climb Requirements'!$A$47:$C$58</definedName>
+    <definedName name="TO_MTOWClimb_TO_NoAI_3000">'MTOW Climb Requirements'!$A$63:$C$74</definedName>
+    <definedName name="TO_MTOWClimb_TO_NoAI_4000">'MTOW Climb Requirements'!$A$79:$C$93</definedName>
+    <definedName name="TO_MTOWClimb_TO_NoAI_5000">'MTOW Climb Requirements'!$A$98:$C$114</definedName>
+    <definedName name="TO_MTOWClimb_TO_NoAI_6000">'MTOW Climb Requirements'!$A$119:$C$137</definedName>
+    <definedName name="TO_MTOWClimb_TO_NoAI_7000">'MTOW Climb Requirements'!$A$143:$C$160</definedName>
+    <definedName name="TO_MTOWClimb_TO_NoAI_8000">'MTOW Climb Requirements'!$A$165:$C$182</definedName>
+    <definedName name="TO_MTOWClimb_TO_NoAI_9000">'MTOW Climb Requirements'!$A$187:$C$205</definedName>
+    <definedName name="TO_MTOWClimb_TO_NoAI_M1000">'MTOW Climb Requirements'!$A$4:$C$13</definedName>
+    <definedName name="TO_MTOWSlope_TO_NoAI">Takeoff!$AN$5:$AR$33</definedName>
+    <definedName name="TO_TOFLSlope_TO_NoAI">Takeoff!$AH$5:$AL$91</definedName>
+    <definedName name="TO_TOFLWinds_TO_NoAI">Takeoff!$AB$5:$AF$73</definedName>
+    <definedName name="TO_V1Slope_TO_NoAI">Takeoff!$P$5:$T$26</definedName>
+    <definedName name="TO_V1Winds_TO_NoAI">Takeoff!$L$6:$N$25</definedName>
+    <definedName name="TO_V2Slope_TO_NoAI">Takeoff!$V$5:$Z$11</definedName>
+    <definedName name="TO_VSpeeds_TO_NoAI_0">Takeoff!$C$42:$J$73</definedName>
+    <definedName name="TO_VSpeeds_TO_NoAI_1000">Takeoff!$C$79:$J$110</definedName>
+    <definedName name="TO_VSpeeds_TO_NoAI_10000">Takeoff!$C$412:$J$443</definedName>
+    <definedName name="TO_VSpeeds_TO_NoAI_2000">Takeoff!$C$116:$J$147</definedName>
+    <definedName name="TO_VSpeeds_TO_NoAI_3000">Takeoff!$C$153:$J$184</definedName>
+    <definedName name="TO_VSpeeds_TO_NoAI_4000">Takeoff!$C$190:$J$221</definedName>
+    <definedName name="TO_VSpeeds_TO_NoAI_5000">Takeoff!$C$227:$J$258</definedName>
+    <definedName name="TO_VSpeeds_TO_NoAI_6000">Takeoff!$C$264:$J$295</definedName>
+    <definedName name="TO_VSpeeds_TO_NoAI_7000">Takeoff!$C$301:$J$332</definedName>
+    <definedName name="TO_VSpeeds_TO_NoAI_8000">Takeoff!$C$338:$J$369</definedName>
+    <definedName name="TO_VSpeeds_TO_NoAI_9000">Takeoff!$C$375:$J$406</definedName>
+    <definedName name="TO_VSpeeds_TO_NoAI_M1000">Takeoff!$C$5:$J$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="152">
   <si>
     <t>Uncorrected Takeoff Field Length [ft] and Speeds [KIAS], Dry Runway, Zero Slope, No Wind</t>
   </si>
@@ -267,9 +266,6 @@
   </si>
   <si>
     <t>V1 [Winds Corrected]</t>
-  </si>
-  <si>
-    <t>Tailwind / Crosswind Bracket [TOFL]</t>
   </si>
   <si>
     <t>Tailwind / Crosswind Bracket [V1]</t>
@@ -512,55 +508,49 @@
     <t>Elevation Rounded to nearest 125</t>
   </si>
   <si>
-    <t>Upper Bracket Table</t>
-  </si>
-  <si>
-    <t>Lower Bracket Table</t>
-  </si>
-  <si>
-    <t>P00000MINSL</t>
-  </si>
-  <si>
-    <t>M01000MINSL</t>
-  </si>
-  <si>
-    <t>P01000MINSL</t>
-  </si>
-  <si>
-    <t>P02000MINSL</t>
-  </si>
-  <si>
-    <t>P03000MINSL</t>
-  </si>
-  <si>
-    <t>P04000MINSL</t>
-  </si>
-  <si>
-    <t>P05000MINSL</t>
-  </si>
-  <si>
-    <t>P06000MINSL</t>
-  </si>
-  <si>
-    <t>P07000MINSL</t>
-  </si>
-  <si>
-    <t>P08000MINSL</t>
-  </si>
-  <si>
-    <t>P09000MINSL</t>
-  </si>
-  <si>
-    <t>P10000MINSL</t>
-  </si>
-  <si>
-    <t>Rounded Table</t>
-  </si>
-  <si>
     <t>MTOW Limitation (Climb)</t>
   </si>
   <si>
     <t>Calculated Bracket MTOWs (Climb)</t>
+  </si>
+  <si>
+    <t>6000MINSL</t>
+  </si>
+  <si>
+    <t>5000MINSL</t>
+  </si>
+  <si>
+    <t>4000MINSL</t>
+  </si>
+  <si>
+    <t>3000MINSL</t>
+  </si>
+  <si>
+    <t>2000MINSL</t>
+  </si>
+  <si>
+    <t>1000MINSL</t>
+  </si>
+  <si>
+    <t>0MINSL</t>
+  </si>
+  <si>
+    <t>M1000MINSL</t>
+  </si>
+  <si>
+    <t>7000MINSL</t>
+  </si>
+  <si>
+    <t>8000MINSL</t>
+  </si>
+  <si>
+    <t>9000MINSL</t>
+  </si>
+  <si>
+    <t>10000MINSL</t>
+  </si>
+  <si>
+    <t>TW / CW Bracket [TOFL]</t>
   </si>
 </sst>
 </file>
@@ -809,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -889,10 +879,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -901,28 +903,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -934,15 +930,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,6 +937,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1356,8 +1347,8 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,11 +1357,11 @@
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
     <col min="11" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1379,7 +1370,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="21">
-        <v>10025</v>
+        <v>10550</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>40</v>
@@ -1393,28 +1384,28 @@
 B1&lt;= 10300, 10000,
 B1 &lt;= 10600, 10600,
 B1 &gt; 10600, "ABOVE MTOW")</f>
-        <v>10000</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="43"/>
+        <v>10600</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="D2" s="20"/>
       <c r="E2" s="38"/>
-      <c r="J2">
+      <c r="H2" s="3">
         <f>$E$4</f>
         <v>6000</v>
       </c>
-      <c r="K2">
+      <c r="I2" s="3">
         <f ca="1">IFERROR(
 IF(
-B10&lt;=VLOOKUP(CONCATENATE(RIGHT(H4,6)&amp;"MINSL"),INDIRECT(H4),2,FALSE),
-VLOOKUP(CONCATENATE(RIGHT(H4,6)&amp;"MINSL"),INDIRECT(H4),3,FALSE),
-VLOOKUP(B10,INDIRECT(H4),3,FALSE)), "Not within documented limits")</f>
-        <v>9650</v>
+B10&lt;=VLOOKUP(CONCATENATE(_xlfn.TEXTAFTER(F4, "_", 4) &amp;"MINSL"),INDIRECT(F4),2,FALSE),
+VLOOKUP(CONCATENATE(_xlfn.TEXTAFTER(F4, "_", 4)&amp;"MINSL"),INDIRECT(F4),3,FALSE),
+VLOOKUP(B10,INDIRECT(F4),3,FALSE)), "Not within documented limits")</f>
+        <v>9500</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1422,183 +1413,174 @@
         <v>42</v>
       </c>
       <c r="B3" s="21">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="22">
         <f>IFERROR(MROUND(B3, 1000), VALUE(CONCATENATE("-" &amp; MROUND(ABS(B3), 1000))))</f>
-        <v>6000</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="24" t="str" cm="1">
-        <f t="array" ref="H3">IFERROR(_xlfn.IFS(E3 = -1000, "MTOWBaseM01000",
-E3 = 0, "MTOWBaseP00000",
-E3 = 1000, "MTOWBaseP01000",
-E3 = 2000, "MTOWBaseP02000",
-E3= 3000, "MTOWBaseP03000",
-E3=4000, "MTOWBaseP04000",
-E3=5000, "MTOWBaseP05000",
-E3=6000, "MTOWBaseP06000",
-E3=7000, "MTOWBaseP07000",
-E3=8000, "MTOWBaseP08000",
-E3=9000, "MTOWBaseP09000",
-E3=10000, "MTOWBaseP10000"), "No Table Available")</f>
-        <v>MTOWBaseP06000</v>
-      </c>
-      <c r="J3">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="24" t="str" cm="1">
+        <f t="array" ref="F3">IFERROR(_xlfn.IFS(E3 = -1000, "TO_MTOWClimb_TO_NoAI_M1000",
+E3 = 0, "TO_MTOWClimb_TO_NoAI_0",
+E3 = 1000, "TO_MTOWClimb_TO_NoAI_1000",
+E3 = 2000, "TO_MTOWClimb_TO_NoAI_2000",
+E3= 3000, "TO_MTOWClimb_TO_NoAI_3000",
+E3=4000, "TO_MTOWClimb_TO_NoAI_4000",
+E3=5000, "TO_MTOWClimb_TO_NoAI_5000",
+E3=6000, "TO_MTOWClimb_TO_NoAI_6000",
+E3=7000, "TO_MTOWClimb_TO_NoAI_7000",
+E3=8000, "TO_MTOWClimb_TO_NoAI_8000",
+E3=9000, "TO_MTOWClimb_TO_NoAI_9000",
+E3=10000, "TO_MTOWClimb_TO_NoAI_10000"), "No Table Available")</f>
+        <v>TO_MTOWClimb_TO_NoAI_5000</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="3">
         <f>($E$4-(125*1))</f>
         <v>5875</v>
       </c>
-      <c r="K3">
-        <f ca="1">((K2-K4) / 2) + K4</f>
-        <v>9743.75</v>
+      <c r="I3" s="3">
+        <f ca="1">((I2-I4) / 2) + I4</f>
+        <v>9587.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="23" cm="1">
         <f t="array" ref="E4">IFERROR(_xlfn.IFS(E3&gt;B3,E3,E3&lt;=B3,E3+1000),0)</f>
         <v>6000</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="24" t="str" cm="1">
-        <f t="array" ref="H4">IFERROR(_xlfn.IFS(E4 = -1000, "MTOWBaseM01000",
-E4 = 0, "MTOWBaseP00000",
-E4 = 1000, "MTOWBaseP01000",
-E4 = 2000, "MTOWBaseP02000",
-E4= 3000, "MTOWBaseP03000",
-E4=4000, "MTOWBaseP04000",
-E4=5000, "MTOWBaseP05000",
-E4=6000, "MTOWBaseP06000",
-E4=7000, "MTOWBaseP07000",
-E4=8000, "MTOWBaseP08000",
-E4=9000, "MTOWBaseP09000",
-E4=10000, "MTOWBaseP10000"), "No Table Available")</f>
-        <v>MTOWBaseP06000</v>
-      </c>
-      <c r="J4">
+      <c r="F4" s="24" t="str" cm="1">
+        <f t="array" ref="F4">IFERROR(_xlfn.IFS(E4 = -1000, "TO_MTOWClimb_TO_NoAI_M1000",
+E4 = 0, "TO_MTOWClimb_TO_NoAI_0",
+E4 = 1000, "TO_MTOWClimb_TO_NoAI_1000",
+E4 = 2000, "TO_MTOWClimb_TO_NoAI_2000",
+E4= 3000, "TO_MTOWClimb_TO_NoAI_3000",
+E4=4000, "TO_MTOWClimb_TO_NoAI_4000",
+E4=5000, "TO_MTOWClimb_TO_NoAI_5000",
+E4=6000, "TO_MTOWClimb_TO_NoAI_6000",
+E4=7000, "TO_MTOWClimb_TO_NoAI_7000",
+E4=8000, "TO_MTOWClimb_TO_NoAI_8000",
+E4=9000, "TO_MTOWClimb_TO_NoAI_9000",
+E4=10000, "TO_MTOWClimb_TO_NoAI_10000"), "No Table Available")</f>
+        <v>TO_MTOWClimb_TO_NoAI_6000</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="3">
         <f>($E$4-(125*2))</f>
         <v>5750</v>
       </c>
-      <c r="K4">
-        <f ca="1">((K2-K6) / 2) + K6</f>
-        <v>9837.5</v>
+      <c r="I4" s="3">
+        <f ca="1">((I2-I6) / 2) + I6</f>
+        <v>9675</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B5" s="42">
-        <f ca="1">VLOOKUP(E8, J2:K10, 2, FALSE)</f>
-        <v>10025</v>
+        <f ca="1">VLOOKUP(E8, H2:I10, 2, FALSE)</f>
+        <v>10200</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="23" cm="1">
         <f t="array" ref="E5">IFERROR(_xlfn.IFS(E3&gt;B3,E3-1000,E3&lt;=B3,E3),0)</f>
         <v>5000</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="24" t="str" cm="1">
-        <f t="array" ref="H5">IFERROR(_xlfn.IFS(E5=-1000,"MTOWBaseM01000",
-E5=0,"MTOWBaseP00000",
-E5=1000,"MTOWBaseP01000",
-E5=2000,"MTOWBaseP02000",
-E5=3000,"MTOWBaseP03000",
-E5=4000,"MTOWBaseP04000",
-E5=5000,"MTOWBaseP05000",
-E5=6000,"MTOWBaseP06000",
-E5=7000,"MTOWBaseP07000",
-E5=8000,"MTOWBaseP08000",
-E5=9000,"MTOWBaseP09000",
-E5=10000,"MTOWBaseP10000"),"No Table Available")</f>
-        <v>MTOWBaseP05000</v>
-      </c>
-      <c r="J5">
+      <c r="F5" s="24" t="str" cm="1">
+        <f t="array" ref="F5">IFERROR(_xlfn.IFS(E5 = -1000, "TO_MTOWClimb_TO_NoAI_M1000",
+E5 = 0, "TO_MTOWClimb_TO_NoAI_0",
+E5 = 1000, "TO_MTOWClimb_TO_NoAI_1000",
+E5 = 2000, "TO_MTOWClimb_TO_NoAI_2000",
+E5= 3000, "TO_MTOWClimb_TO_NoAI_3000",
+E5=4000, "TO_MTOWClimb_TO_NoAI_4000",
+E5=5000, "TO_MTOWClimb_TO_NoAI_5000",
+E5=6000, "TO_MTOWClimb_TO_NoAI_6000",
+E5=7000, "TO_MTOWClimb_TO_NoAI_7000",
+E5=8000, "TO_MTOWClimb_TO_NoAI_8000",
+E5=9000, "TO_MTOWClimb_TO_NoAI_9000",
+E5=10000, "TO_MTOWClimb_TO_NoAI_10000"), "No Table Available")</f>
+        <v>TO_MTOWClimb_TO_NoAI_5000</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="3">
         <f>($E$4-(125*3))</f>
         <v>5625</v>
       </c>
-      <c r="K5">
-        <f ca="1">((K4-K6) / 2) + K6</f>
-        <v>9931.25</v>
+      <c r="I5" s="3">
+        <f ca="1">((I4-I6) / 2) + I6</f>
+        <v>9762.5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="str" cm="1">
+      <c r="A6" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_xlfn.IFS(B5 &gt; B1, "TOW VALID FOR CONDITIONS", B5 &lt; B1, "TOW INVALID FOR CONDITIONS", B5 = B1, "TOW WARNING FOR CONDITIONS")</f>
-        <v>TOW WARNING FOR CONDITIONS</v>
-      </c>
-      <c r="B6" s="44"/>
+        <v>TOW INVALID FOR CONDITIONS</v>
+      </c>
+      <c r="B6" s="43"/>
       <c r="D6" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" s="23">
         <f>IFERROR(MROUND(B3, 500), VALUE(CONCATENATE("-" &amp; MROUND(ABS(B3), 500))))</f>
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="29"/>
-      <c r="J6">
+      <c r="H6" s="3">
         <f>($E$4-(125*4))</f>
         <v>5500</v>
       </c>
-      <c r="K6">
-        <f ca="1">((K10-K2) / 2) + K2</f>
-        <v>10025</v>
+      <c r="I6" s="3">
+        <f ca="1">((I10-I2) / 2) + I2</f>
+        <v>9850</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="28"/>
       <c r="D7" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="23">
         <f>IFERROR(MROUND(B3, 250), VALUE(CONCATENATE("-" &amp; MROUND(ABS(B3), 250))))</f>
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="29"/>
-      <c r="J7">
+      <c r="H7" s="3">
         <f>($E$4-(125*5))</f>
         <v>5375</v>
       </c>
-      <c r="K7">
-        <f ca="1" xml:space="preserve"> ((K6-K8) / 2) + K8</f>
-        <v>10118.75</v>
+      <c r="I7" s="3">
+        <f ca="1" xml:space="preserve"> ((I6-I8) / 2) + I8</f>
+        <v>9937.5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="28"/>
       <c r="D8" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="23">
         <f>IFERROR(MROUND(B3, 125), VALUE(CONCATENATE("-" &amp; MROUND(ABS(B3), 125))))</f>
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="G8" s="20"/>
-      <c r="H8" s="29"/>
-      <c r="J8">
+      <c r="H8" s="3">
         <f>($E$4-(125*6))</f>
         <v>5250</v>
       </c>
-      <c r="K8">
-        <f ca="1">((K6-K10) / 2) + K10</f>
-        <v>10212.5</v>
+      <c r="I8" s="3">
+        <f ca="1">((I6-I10) / 2) + I10</f>
+        <v>10025</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1606,14 +1588,13 @@
       <c r="B9" s="28"/>
       <c r="D9" s="20"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="29"/>
-      <c r="J9">
+      <c r="H9" s="3">
         <f>($E$4-(125*7))</f>
         <v>5125</v>
       </c>
-      <c r="K9">
-        <f ca="1">((K8-K10) / 2) + K10</f>
-        <v>10306.25</v>
+      <c r="I9" s="3">
+        <f ca="1">((I8-I10) / 2) + I10</f>
+        <v>10112.5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1621,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>44</v>
@@ -1639,20 +1620,19 @@
 E4=8000,_xlfn.IFS(B10&lt;=-25, "M40", B10&lt;=-5, "M10", B10&lt;=5, 0, B10&lt;=12.5, 10, B10&lt;=17.5, 15,  B10&lt;=22.5, 20, B10&lt;=27.5, 25, B10&gt;27.5, 30),
 E4=9000, _xlfn.IFS(B10&lt;=-25, "M40", B10&lt;=-5, "M10", B10&lt;=5, 0, B10&lt;=12.5, 10, B10&lt;=17.5, 15,  B10&lt;=22.5, 20, B10&lt;=27.5, 25, B10&gt;27.5, 30),
 E4=10000, _xlfn.IFS(B10&lt;=-27.5, "M40", B10&lt;=-10, "M15", B10&lt;= 0, "M5", B10&lt;=7.5, 5, B10&lt;= 12.5, 10, B10&lt;=17.5, 15, B10&lt;=22.5, 20, B10&gt;22.5, 25))</f>
-        <v>30</v>
-      </c>
-      <c r="J10">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3">
         <f>($E$4-(125*8))</f>
         <v>5000</v>
       </c>
-      <c r="K10">
+      <c r="I10" s="3">
         <f ca="1">IFERROR(
 IF(
-B10&lt;=VLOOKUP(CONCATENATE(RIGHT(H5,6)&amp;"MINSL"),INDIRECT(H5),2,FALSE),
-VLOOKUP(CONCATENATE(RIGHT(H5,6)&amp;"MINSL"),INDIRECT(H5),3,FALSE),
-VLOOKUP(B10,INDIRECT(H5),3,FALSE)),
-"Not within documented limits")</f>
-        <v>10400</v>
+B10&lt;=VLOOKUP(CONCATENATE(_xlfn.TEXTAFTER(F5, "_", 4) &amp;"MINSL"),INDIRECT(F5),2,FALSE),
+VLOOKUP(CONCATENATE(_xlfn.TEXTAFTER(F5, "_", 4)&amp;"MINSL"),INDIRECT(F5),3,FALSE),
+VLOOKUP(B10,INDIRECT(F5),3,FALSE)), "Not within documented limits")</f>
+        <v>10200</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1693,7 +1673,7 @@
         <v>24.620193825305201</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="H13" s="23" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(
@@ -1705,7 +1685,7 @@
         <v>HW20</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" s="30" t="str" cm="1">
         <f t="array" ref="J13">_xlfn.IFS(
@@ -1738,32 +1718,32 @@
       <c r="A16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="26" cm="1">
+      <c r="B16" s="26" t="str" cm="1">
         <f t="array" ref="B16">_xlfn.IFS(E4=-1000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),BaseM1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),BaseM1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),BaseM1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),BaseM1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),BaseM1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),BaseM1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),BaseM1000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_M1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_M1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_M1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_M1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_M1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_M1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_M1000,8,FALSE)),
 E4 = 0,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),Base0,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),Base0,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),Base0,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),Base0,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),Base0,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),Base0,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),Base0,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_0,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_0,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_0,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_0,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_0,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_0,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_0,8,FALSE)),
 E4 = 1000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),Base1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),Base1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),Base1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),Base1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),Base1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),Base1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),Base1000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_1000,8,FALSE)),
 E4 = 2000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),Base2000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),Base2000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),Base2000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),Base2000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),Base2000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),Base2000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),Base2000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_2000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_2000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_2000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_2000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_2000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_2000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_2000,8,FALSE)),
 E4 = 3000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),Base3000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),Base3000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),Base3000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),Base3000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),Base3000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),Base3000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),Base3000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_3000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_3000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_3000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_3000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_3000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_3000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_3000,8,FALSE)),
 E4= 4000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),Base4000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),Base4000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),Base4000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),Base4000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),Base4000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),Base4000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),Base4000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_4000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_4000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_4000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_4000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_4000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_4000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_4000,8,FALSE)),
 E4 = 5000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),Base5000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),Base5000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),Base5000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),Base5000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),Base5000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),Base5000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),Base5000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_5000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_5000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_5000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_5000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_5000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_5000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_5000,8,FALSE)),
 E4= 6000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),Base6000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),Base6000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),Base6000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),Base6000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),Base6000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),Base6000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),Base6000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_6000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_6000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_6000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_6000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_6000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_6000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_6000,8,FALSE)),
 E4=7000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),Base7000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),Base7000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),Base7000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),Base7000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),Base7000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),Base7000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),Base7000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_7000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_7000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_7000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_7000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_7000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_7000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_7000,8,FALSE)),
 E4=8000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),Base8000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),Base8000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),Base8000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),Base8000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),Base8000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),Base8000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),Base8000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_8000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_8000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_8000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_8000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_8000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_8000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_8000,8,FALSE)),
 E4=9000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),Base9000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),Base9000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),Base9000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),Base9000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),Base9000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),Base9000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),Base9000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_9000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_9000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_9000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_9000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_9000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_9000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_9000,8,FALSE)),
 E=10000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),Base10000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),Base10000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),Base10000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),Base10000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),Base10000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),Base10000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),Base10000,8,FALSE)))</f>
-        <v>119</v>
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_10000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_10000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_10000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_10000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_10000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_10000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V1"),TO_VSpeeds_TO_NoAI_10000,8,FALSE)))</f>
+        <v>X</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>45</v>
@@ -1773,32 +1753,32 @@
       <c r="A17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="26" cm="1">
+      <c r="B17" s="26" t="str" cm="1">
         <f t="array" ref="B17">_xlfn.IFS(E4=-1000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),BaseM1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),BaseM1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),BaseM1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),BaseM1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),BaseM1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),BaseM1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),BaseM1000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_M1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_M1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_M1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_M1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_M1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_M1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_M1000,8,FALSE)),
 E4 = 0,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),Base0,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),Base0,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),Base0,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),Base0,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),Base0,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),Base0,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),Base0,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_0,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_0,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_0,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_0,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_0,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_0,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_0,8,FALSE)),
 E4 = 1000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),Base1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),Base1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),Base1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),Base1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),Base1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),Base1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),Base1000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_1000,8,FALSE)),
 E4 = 2000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),Base2000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),Base2000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),Base2000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),Base2000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),Base2000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),Base2000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),Base2000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_2000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_2000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_2000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_2000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_2000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_2000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_2000,8,FALSE)),
 E4 = 3000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),Base3000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),Base3000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),Base3000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),Base3000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),Base3000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),Base3000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),Base3000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_3000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_3000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_3000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_3000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_3000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_3000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_3000,8,FALSE)),
 E4= 4000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),Base4000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),Base4000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),Base4000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),Base4000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),Base4000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),Base4000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),Base4000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_4000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_4000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_4000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_4000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_4000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_4000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_4000,8,FALSE)),
 E4 = 5000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),Base5000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),Base5000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),Base5000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),Base5000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),Base5000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),Base5000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),Base5000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_5000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_5000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_5000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_5000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_5000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_5000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_5000,8,FALSE)),
 E4= 6000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),Base6000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),Base6000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),Base6000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),Base6000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),Base6000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),Base6000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),Base6000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_6000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_6000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_6000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_6000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_6000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_6000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_6000,8,FALSE)),
 E4=7000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),Base7000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),Base7000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),Base7000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),Base7000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),Base7000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),Base7000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),Base7000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_7000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_7000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_7000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_7000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_7000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_7000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_7000,8,FALSE)),
 E4=8000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),Base8000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),Base8000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),Base8000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),Base8000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),Base8000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),Base8000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),Base8000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_8000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_8000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_8000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_8000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_8000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_8000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_8000,8,FALSE)),
 E4=9000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),Base9000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),Base9000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),Base9000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),Base9000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),Base9000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),Base9000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),Base9000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_9000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_9000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_9000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_9000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_9000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_9000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_9000,8,FALSE)),
 E=10000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),Base10000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),Base10000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),Base10000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),Base10000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),Base10000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),Base10000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),Base10000,8,FALSE)))</f>
-        <v>122</v>
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_10000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_10000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_10000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_10000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_10000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_10000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"VR"),TO_VSpeeds_TO_NoAI_10000,8,FALSE)))</f>
+        <v>X</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>45</v>
@@ -1808,32 +1788,32 @@
       <c r="A18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="26" cm="1">
+      <c r="B18" s="26" t="str" cm="1">
         <f t="array" ref="B18">_xlfn.IFS(E4=-1000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),BaseM1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),BaseM1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),BaseM1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),BaseM1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),BaseM1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),BaseM1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),BaseM1000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_M1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_M1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_M1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_M1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_M1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_M1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_M1000,8,FALSE)),
 E4 = 0,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),Base0,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),Base0,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),Base0,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),Base0,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),Base0,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),Base0,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),Base0,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_0,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_0,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_0,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_0,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_0,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_0,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_0,8,FALSE)),
 E4 = 1000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),Base1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),Base1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),Base1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),Base1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),Base1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),Base1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),Base1000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_1000,8,FALSE)),
 E4 = 2000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),Base2000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),Base2000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),Base2000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),Base2000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),Base2000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),Base2000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),Base2000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_2000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_2000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_2000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_2000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_2000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_2000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_2000,8,FALSE)),
 E4 = 3000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),Base3000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),Base3000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),Base3000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),Base3000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),Base3000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),Base3000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),Base3000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_3000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_3000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_3000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_3000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_3000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_3000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_3000,8,FALSE)),
 E4= 4000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),Base4000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),Base4000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),Base4000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),Base4000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),Base4000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),Base4000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),Base4000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_4000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_4000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_4000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_4000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_4000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_4000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_4000,8,FALSE)),
 E4 = 5000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),Base5000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),Base5000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),Base5000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),Base5000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),Base5000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),Base5000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),Base5000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_5000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_5000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_5000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_5000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_5000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_5000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_5000,8,FALSE)),
 E4= 6000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),Base6000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),Base6000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),Base6000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),Base6000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),Base6000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),Base6000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),Base6000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_6000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_6000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_6000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_6000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_6000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_6000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_6000,8,FALSE)),
 E4=7000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),Base7000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),Base7000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),Base7000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),Base7000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),Base7000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),Base7000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),Base7000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_7000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_7000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_7000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_7000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_7000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_7000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_7000,8,FALSE)),
 E4=8000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),Base8000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),Base8000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),Base8000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),Base8000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),Base8000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),Base8000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),Base8000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_8000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_8000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_8000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_8000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_8000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_8000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_8000,8,FALSE)),
 E4=9000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),Base9000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),Base9000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),Base9000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),Base9000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),Base9000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),Base9000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),Base9000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_9000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_9000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_9000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_9000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_9000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_9000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_9000,8,FALSE)),
 E=10000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),Base10000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),Base10000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),Base10000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),Base10000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),Base10000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),Base10000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),Base10000,8,FALSE)))</f>
-        <v>123</v>
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_10000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_10000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_10000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_10000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_10000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_10000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"V2"),TO_VSpeeds_TO_NoAI_10000,8,FALSE)))</f>
+        <v>X</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>45</v>
@@ -1843,32 +1823,32 @@
       <c r="A19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="26" cm="1">
+      <c r="B19" s="26" t="str" cm="1">
         <f t="array" ref="B19">_xlfn.IFS(E4=-1000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),BaseM1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),BaseM1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),BaseM1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),BaseM1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),BaseM1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),BaseM1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),BaseM1000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_M1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_M1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_M1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_M1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_M1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_M1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_M1000,8,FALSE)),
 E4 = 0,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),Base0,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base0,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base0,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base0,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base0,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base0,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),Base0,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_0,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_0,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_0,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_0,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_0,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_0,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_0,8,FALSE)),
 E4 = 1000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),Base1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),Base1000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_1000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_1000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_1000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_1000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_1000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_1000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_1000,8,FALSE)),
 E4 = 2000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),Base2000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base2000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base2000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base2000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base2000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base2000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),Base2000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_2000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_2000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_2000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_2000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_2000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_2000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_2000,8,FALSE)),
 E4 = 3000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),Base3000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base3000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base3000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base3000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base3000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base3000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),Base3000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_3000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_3000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_3000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_3000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_3000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_3000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_3000,8,FALSE)),
 E4= 4000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),Base4000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base4000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base4000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base4000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base4000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base4000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),Base4000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_4000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_4000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_4000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_4000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_4000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_4000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_4000,8,FALSE)),
 E4 = 5000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),Base5000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base5000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base5000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base5000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base5000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base5000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),Base5000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_5000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_5000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_5000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_5000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_5000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_5000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_5000,8,FALSE)),
 E4= 6000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),Base6000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base6000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base6000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base6000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base6000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base6000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),Base6000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_6000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_6000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_6000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_6000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_6000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_6000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_6000,8,FALSE)),
 E4=7000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),Base7000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base7000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base7000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base7000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base7000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base7000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),Base7000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_7000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_7000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_7000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_7000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_7000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_7000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_7000,8,FALSE)),
 E4=8000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),Base8000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base8000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base8000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base8000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base8000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base8000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),Base8000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_8000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_8000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_8000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_8000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_8000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_8000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_8000,8,FALSE)),
 E4=9000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),Base9000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base9000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base9000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base9000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base9000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base9000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),Base9000,8,FALSE)),
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_9000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_9000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_9000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_9000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_9000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_9000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_9000,8,FALSE)),
 E=10000,
-_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),Base10000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base10000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base10000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base10000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),Base10000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),Base10000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),Base10000,8,FALSE)))</f>
-        <v>6959</v>
+_xlfn.IFS(E1=7800,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_10000,2,FALSE),E1=8000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_10000,3,FALSE),E1=8500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_10000,4,FALSE),E1=9000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_10000,5,FALSE),E1=9500,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_10000,6,FALSE),E1=10000,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_10000,7,FALSE),E1=10600,VLOOKUP(CONCATENATE(E10,"TOFL"),TO_VSpeeds_TO_NoAI_10000,8,FALSE)))</f>
+        <v>X</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>45</v>
@@ -1878,24 +1858,24 @@
       <c r="A21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="26" cm="1">
-        <f t="array" ref="B21">_xlfn.IFS(J13="TW10",VLOOKUP(B16,V1Winds,2,FALSE),
+      <c r="B21" s="26" t="e" cm="1">
+        <f t="array" ref="B21">_xlfn.IFS(J13="TW10",VLOOKUP(B16,TO_V1Winds_TO_NoAI,2,FALSE),
 J13 = "0", B16,
-J13 = "HW30", VLOOKUP(B16, V1Winds, 3, FALSE))</f>
-        <v>119</v>
+J13 = "HW30", VLOOKUP(B16, TO_V1Winds_TO_NoAI, 3, FALSE))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="26" cm="1">
-        <f t="array" ref="B22">_xlfn.IFS(H13="TW10",VLOOKUP(ROUND(B19,-2),TOFLWinds,2,FALSE),
-H13="0", VLOOKUP(ROUND(B19,-2),TOFLWinds,1,FALSE),
-H13="HW10", VLOOKUP(ROUND(B19,-2),TOFLWinds,3,FALSE),
-H13="HW20", VLOOKUP(ROUND(B19,-2),TOFLWinds,4,FALSE),
-H13="HW30", VLOOKUP(ROUND(B19,-2),TOFLWinds,5,FALSE))</f>
-        <v>6374</v>
+        <v>58</v>
+      </c>
+      <c r="B22" s="26" t="e" cm="1">
+        <f t="array" ref="B22">_xlfn.IFS(H13="TW10",VLOOKUP(ROUND(B19,-2),TO_TOFLWinds_TO_NoAI,2,FALSE),
+H13="0", VLOOKUP(ROUND(B19,-2),TO_TOFLWinds_TO_NoAI,1,FALSE),
+H13="HW10", VLOOKUP(ROUND(B19,-2),TO_TOFLWinds_TO_NoAI,3,FALSE),
+H13="HW20", VLOOKUP(ROUND(B19,-2),TO_TOFLWinds_TO_NoAI,4,FALSE),
+H13="HW30", VLOOKUP(ROUND(B19,-2),TO_TOFLWinds_TO_NoAI,5,FALSE))</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1903,50 +1883,50 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="27" cm="1">
-        <f t="array" ref="B24">_xlfn.IFS(E14 = -2, VLOOKUP(B21, SlopeV1, 2, FALSE),
-E14 = -1, VLOOKUP(B21, SlopeV1, 3, FALSE),
+        <v>59</v>
+      </c>
+      <c r="B24" s="27" t="e" cm="1">
+        <f t="array" ref="B24">_xlfn.IFS(E14 = -2, VLOOKUP(B21, TO_V1Slope_TO_NoAI, 2, FALSE),
+E14 = -1, VLOOKUP(B21, TO_V1Slope_TO_NoAI, 3, FALSE),
 E14 = 0,  B21,
-E14 = 1, VLOOKUP(B21, SlopeV1, 4, FALSE),
-E14 = 2, VLOOKUP(B21, SlopeV1, 5, FALSE))</f>
-        <v>120</v>
+E14 = 1, VLOOKUP(B21, TO_V1Slope_TO_NoAI, 4, FALSE),
+E14 = 2, VLOOKUP(B21, TO_V1Slope_TO_NoAI, 5, FALSE))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="27">
+        <v>60</v>
+      </c>
+      <c r="B25" s="27" t="str">
         <f>B17</f>
-        <v>122</v>
+        <v>X</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="27" cm="1">
-        <f t="array" ref="B26">_xlfn.IFS(E14 = -2, VLOOKUP(B18, SlopeV2, 2, FALSE),
-E14 = -1, VLOOKUP(B18, SlopeV2, 3, FALSE),
+        <v>61</v>
+      </c>
+      <c r="B26" s="27" t="e" cm="1">
+        <f t="array" ref="B26">_xlfn.IFS(E14 = -2, VLOOKUP(B18, TO_V2Slope_TO_NoAI, 2, FALSE),
+E14 = -1, VLOOKUP(B18, TO_V2Slope_TO_NoAI, 3, FALSE),
 E14 = 0,  B18,
-E14 = 1, VLOOKUP(B18, SlopeV2, 4, FALSE),
-E14 = 2, VLOOKUP(B18, SlopeV2, 5, FALSE))</f>
-        <v>122</v>
+E14 = 1, VLOOKUP(B18, TO_V2Slope_TO_NoAI, 4, FALSE),
+E14 = 2, VLOOKUP(B18, TO_V2Slope_TO_NoAI, 5, FALSE))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="27" cm="1">
-        <f t="array" ref="B27">_xlfn.IFS(E14 = -2, VLOOKUP(ROUND(B22, -2), SlopeTOFL, 2, FALSE),
-E14 = -1, VLOOKUP(ROUND(B22, -2), SlopeTOFL, 3, FALSE),
+        <v>62</v>
+      </c>
+      <c r="B27" s="27" t="e" cm="1">
+        <f t="array" ref="B27">_xlfn.IFS(E14 = -2, VLOOKUP(ROUND(B22, -2), TO_TOFLSlope_TO_NoAI, 2, FALSE),
+E14 = -1, VLOOKUP(ROUND(B22, -2), TO_TOFLSlope_TO_NoAI, 3, FALSE),
 E14 = 0,  B22,
-E14 = 1, VLOOKUP(ROUND(B22, -2), SlopeTOFL, 4, FALSE),
-E14 = 2, VLOOKUP(ROUND(B22, -2), SlopeTOFL, 5, FALSE))</f>
-        <v>6553</v>
+E14 = 1, VLOOKUP(ROUND(B22, -2), TO_TOFLSlope_TO_NoAI, 4, FALSE),
+E14 = 2, VLOOKUP(ROUND(B22, -2), TO_TOFLSlope_TO_NoAI, 5, FALSE))</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1954,7 +1934,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="D16">
@@ -1990,9 +1970,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="K4" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2003,7 +1980,7 @@
   </sheetPr>
   <dimension ref="A1:AR443"/>
   <sheetViews>
-    <sheetView topLeftCell="L16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -2015,120 +1992,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
       <c r="O1" s="9"/>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
       <c r="U1" s="9"/>
-      <c r="V1" s="49" t="s">
+      <c r="V1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
       <c r="AA1" s="9"/>
-      <c r="AB1" s="49" t="s">
+      <c r="AB1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AH1" s="54" t="s">
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AH1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AN1" s="49" t="s">
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AN1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
       <c r="U2" s="13"/>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
       <c r="AA2" s="13"/>
-      <c r="AB2" s="47" t="s">
+      <c r="AB2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AH2" s="47" t="s">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AH2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AN2" s="47" t="s">
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AN2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
@@ -2137,7 +2114,7 @@
       <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="48" t="s">
@@ -2150,25 +2127,25 @@
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
       <c r="O3" s="13"/>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
       <c r="U3" s="13"/>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="1" t="s">
         <v>29</v>
@@ -2176,18 +2153,18 @@
       <c r="AC3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="51" t="s">
+      <c r="AD3" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AH3" s="51" t="s">
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AH3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
       <c r="AN3" s="48" t="s">
         <v>11</v>
       </c>
@@ -2199,7 +2176,7 @@
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="46"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="2">
         <v>7800</v>
       </c>
@@ -5679,18 +5656,18 @@
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="N38" s="9"/>
@@ -5737,18 +5714,18 @@
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="N39" s="13"/>
@@ -5801,7 +5778,7 @@
       <c r="B40" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D40" s="48" t="s">
@@ -5861,7 +5838,7 @@
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="48"/>
       <c r="B41" s="48"/>
-      <c r="C41" s="46"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="2">
         <v>7800</v>
       </c>
@@ -8090,18 +8067,18 @@
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A75" s="49" t="s">
+      <c r="A75" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -8139,18 +8116,18 @@
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
@@ -8194,7 +8171,7 @@
       <c r="B77" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="45" t="s">
+      <c r="C77" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D77" s="48" t="s">
@@ -8245,7 +8222,7 @@
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="48"/>
       <c r="B78" s="48"/>
-      <c r="C78" s="46"/>
+      <c r="C78" s="50"/>
       <c r="D78" s="2">
         <v>7800</v>
       </c>
@@ -9696,18 +9673,18 @@
       <c r="AH111" s="15"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A112" s="49" t="s">
+      <c r="A112" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="49"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="49"/>
-      <c r="I112" s="49"/>
-      <c r="J112" s="49"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
@@ -9732,18 +9709,18 @@
       <c r="AH112" s="15"/>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A113" s="47" t="s">
+      <c r="A113" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="47"/>
-      <c r="C113" s="47"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="47"/>
-      <c r="I113" s="47"/>
-      <c r="J113" s="47"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="45"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="45"/>
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
       <c r="M113" s="13"/>
@@ -9774,7 +9751,7 @@
       <c r="B114" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="45" t="s">
+      <c r="C114" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D114" s="48" t="s">
@@ -9812,7 +9789,7 @@
     <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" s="48"/>
       <c r="B115" s="48"/>
-      <c r="C115" s="46"/>
+      <c r="C115" s="50"/>
       <c r="D115" s="2">
         <v>7800</v>
       </c>
@@ -11117,18 +11094,18 @@
       <c r="AH148" s="15"/>
     </row>
     <row r="149" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A149" s="49" t="s">
+      <c r="A149" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B149" s="49"/>
-      <c r="C149" s="49"/>
-      <c r="D149" s="49"/>
-      <c r="E149" s="49"/>
-      <c r="F149" s="49"/>
-      <c r="G149" s="49"/>
-      <c r="H149" s="49"/>
-      <c r="I149" s="49"/>
-      <c r="J149" s="49"/>
+      <c r="B149" s="47"/>
+      <c r="C149" s="47"/>
+      <c r="D149" s="47"/>
+      <c r="E149" s="47"/>
+      <c r="F149" s="47"/>
+      <c r="G149" s="47"/>
+      <c r="H149" s="47"/>
+      <c r="I149" s="47"/>
+      <c r="J149" s="47"/>
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
       <c r="M149" s="9"/>
@@ -11153,18 +11130,18 @@
       <c r="AH149" s="15"/>
     </row>
     <row r="150" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A150" s="47" t="s">
+      <c r="A150" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B150" s="47"/>
-      <c r="C150" s="47"/>
-      <c r="D150" s="47"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="47"/>
-      <c r="G150" s="47"/>
-      <c r="H150" s="47"/>
-      <c r="I150" s="47"/>
-      <c r="J150" s="47"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="45"/>
+      <c r="I150" s="45"/>
+      <c r="J150" s="45"/>
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
@@ -11195,7 +11172,7 @@
       <c r="B151" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C151" s="45" t="s">
+      <c r="C151" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D151" s="48" t="s">
@@ -11233,7 +11210,7 @@
     <row r="152" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A152" s="48"/>
       <c r="B152" s="48"/>
-      <c r="C152" s="46"/>
+      <c r="C152" s="50"/>
       <c r="D152" s="2">
         <v>7800</v>
       </c>
@@ -12538,18 +12515,18 @@
       <c r="AH185" s="15"/>
     </row>
     <row r="186" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A186" s="49" t="s">
+      <c r="A186" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B186" s="49"/>
-      <c r="C186" s="49"/>
-      <c r="D186" s="49"/>
-      <c r="E186" s="49"/>
-      <c r="F186" s="49"/>
-      <c r="G186" s="49"/>
-      <c r="H186" s="49"/>
-      <c r="I186" s="49"/>
-      <c r="J186" s="49"/>
+      <c r="B186" s="47"/>
+      <c r="C186" s="47"/>
+      <c r="D186" s="47"/>
+      <c r="E186" s="47"/>
+      <c r="F186" s="47"/>
+      <c r="G186" s="47"/>
+      <c r="H186" s="47"/>
+      <c r="I186" s="47"/>
+      <c r="J186" s="47"/>
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
       <c r="M186" s="9"/>
@@ -12573,18 +12550,18 @@
       <c r="AF186" s="9"/>
     </row>
     <row r="187" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A187" s="47" t="s">
+      <c r="A187" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B187" s="47"/>
-      <c r="C187" s="47"/>
-      <c r="D187" s="47"/>
-      <c r="E187" s="47"/>
-      <c r="F187" s="47"/>
-      <c r="G187" s="47"/>
-      <c r="H187" s="47"/>
-      <c r="I187" s="47"/>
-      <c r="J187" s="47"/>
+      <c r="B187" s="45"/>
+      <c r="C187" s="45"/>
+      <c r="D187" s="45"/>
+      <c r="E187" s="45"/>
+      <c r="F187" s="45"/>
+      <c r="G187" s="45"/>
+      <c r="H187" s="45"/>
+      <c r="I187" s="45"/>
+      <c r="J187" s="45"/>
       <c r="K187" s="13"/>
       <c r="L187" s="13"/>
       <c r="M187" s="13"/>
@@ -12614,7 +12591,7 @@
       <c r="B188" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C188" s="45" t="s">
+      <c r="C188" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D188" s="48" t="s">
@@ -12651,7 +12628,7 @@
     <row r="189" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A189" s="48"/>
       <c r="B189" s="48"/>
-      <c r="C189" s="46"/>
+      <c r="C189" s="50"/>
       <c r="D189" s="2">
         <v>7800</v>
       </c>
@@ -14004,18 +13981,18 @@
       <c r="AF221" s="12"/>
     </row>
     <row r="223" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A223" s="49" t="s">
+      <c r="A223" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B223" s="49"/>
-      <c r="C223" s="49"/>
-      <c r="D223" s="49"/>
-      <c r="E223" s="49"/>
-      <c r="F223" s="49"/>
-      <c r="G223" s="49"/>
-      <c r="H223" s="49"/>
-      <c r="I223" s="49"/>
-      <c r="J223" s="49"/>
+      <c r="B223" s="47"/>
+      <c r="C223" s="47"/>
+      <c r="D223" s="47"/>
+      <c r="E223" s="47"/>
+      <c r="F223" s="47"/>
+      <c r="G223" s="47"/>
+      <c r="H223" s="47"/>
+      <c r="I223" s="47"/>
+      <c r="J223" s="47"/>
       <c r="K223" s="9"/>
       <c r="L223" s="9"/>
       <c r="M223" s="9"/>
@@ -14039,18 +14016,18 @@
       <c r="AF223" s="9"/>
     </row>
     <row r="224" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A224" s="47" t="s">
+      <c r="A224" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B224" s="47"/>
-      <c r="C224" s="47"/>
-      <c r="D224" s="47"/>
-      <c r="E224" s="47"/>
-      <c r="F224" s="47"/>
-      <c r="G224" s="47"/>
-      <c r="H224" s="47"/>
-      <c r="I224" s="47"/>
-      <c r="J224" s="47"/>
+      <c r="B224" s="45"/>
+      <c r="C224" s="45"/>
+      <c r="D224" s="45"/>
+      <c r="E224" s="45"/>
+      <c r="F224" s="45"/>
+      <c r="G224" s="45"/>
+      <c r="H224" s="45"/>
+      <c r="I224" s="45"/>
+      <c r="J224" s="45"/>
       <c r="K224" s="13"/>
       <c r="L224" s="13"/>
       <c r="M224" s="13"/>
@@ -14080,7 +14057,7 @@
       <c r="B225" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C225" s="45" t="s">
+      <c r="C225" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D225" s="48" t="s">
@@ -14117,7 +14094,7 @@
     <row r="226" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A226" s="48"/>
       <c r="B226" s="48"/>
-      <c r="C226" s="46"/>
+      <c r="C226" s="50"/>
       <c r="D226" s="2">
         <v>7800</v>
       </c>
@@ -15470,18 +15447,18 @@
       <c r="AF258" s="12"/>
     </row>
     <row r="260" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A260" s="49" t="s">
+      <c r="A260" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B260" s="49"/>
-      <c r="C260" s="49"/>
-      <c r="D260" s="49"/>
-      <c r="E260" s="49"/>
-      <c r="F260" s="49"/>
-      <c r="G260" s="49"/>
-      <c r="H260" s="49"/>
-      <c r="I260" s="49"/>
-      <c r="J260" s="49"/>
+      <c r="B260" s="47"/>
+      <c r="C260" s="47"/>
+      <c r="D260" s="47"/>
+      <c r="E260" s="47"/>
+      <c r="F260" s="47"/>
+      <c r="G260" s="47"/>
+      <c r="H260" s="47"/>
+      <c r="I260" s="47"/>
+      <c r="J260" s="47"/>
       <c r="K260" s="9"/>
       <c r="L260" s="9"/>
       <c r="M260" s="9"/>
@@ -15505,18 +15482,18 @@
       <c r="AF260" s="9"/>
     </row>
     <row r="261" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A261" s="47" t="s">
+      <c r="A261" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B261" s="47"/>
-      <c r="C261" s="47"/>
-      <c r="D261" s="47"/>
-      <c r="E261" s="47"/>
-      <c r="F261" s="47"/>
-      <c r="G261" s="47"/>
-      <c r="H261" s="47"/>
-      <c r="I261" s="47"/>
-      <c r="J261" s="47"/>
+      <c r="B261" s="45"/>
+      <c r="C261" s="45"/>
+      <c r="D261" s="45"/>
+      <c r="E261" s="45"/>
+      <c r="F261" s="45"/>
+      <c r="G261" s="45"/>
+      <c r="H261" s="45"/>
+      <c r="I261" s="45"/>
+      <c r="J261" s="45"/>
       <c r="K261" s="13"/>
       <c r="L261" s="13"/>
       <c r="M261" s="13"/>
@@ -15546,7 +15523,7 @@
       <c r="B262" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C262" s="45" t="s">
+      <c r="C262" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D262" s="48" t="s">
@@ -15583,7 +15560,7 @@
     <row r="263" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A263" s="48"/>
       <c r="B263" s="48"/>
-      <c r="C263" s="46"/>
+      <c r="C263" s="50"/>
       <c r="D263" s="2">
         <v>7800</v>
       </c>
@@ -16936,18 +16913,18 @@
       <c r="AF295" s="12"/>
     </row>
     <row r="297" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A297" s="49" t="s">
+      <c r="A297" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B297" s="49"/>
-      <c r="C297" s="49"/>
-      <c r="D297" s="49"/>
-      <c r="E297" s="49"/>
-      <c r="F297" s="49"/>
-      <c r="G297" s="49"/>
-      <c r="H297" s="49"/>
-      <c r="I297" s="49"/>
-      <c r="J297" s="49"/>
+      <c r="B297" s="47"/>
+      <c r="C297" s="47"/>
+      <c r="D297" s="47"/>
+      <c r="E297" s="47"/>
+      <c r="F297" s="47"/>
+      <c r="G297" s="47"/>
+      <c r="H297" s="47"/>
+      <c r="I297" s="47"/>
+      <c r="J297" s="47"/>
       <c r="K297" s="9"/>
       <c r="L297" s="9"/>
       <c r="M297" s="9"/>
@@ -16971,18 +16948,18 @@
       <c r="AF297" s="9"/>
     </row>
     <row r="298" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A298" s="47" t="s">
+      <c r="A298" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B298" s="47"/>
-      <c r="C298" s="47"/>
-      <c r="D298" s="47"/>
-      <c r="E298" s="47"/>
-      <c r="F298" s="47"/>
-      <c r="G298" s="47"/>
-      <c r="H298" s="47"/>
-      <c r="I298" s="47"/>
-      <c r="J298" s="47"/>
+      <c r="B298" s="45"/>
+      <c r="C298" s="45"/>
+      <c r="D298" s="45"/>
+      <c r="E298" s="45"/>
+      <c r="F298" s="45"/>
+      <c r="G298" s="45"/>
+      <c r="H298" s="45"/>
+      <c r="I298" s="45"/>
+      <c r="J298" s="45"/>
       <c r="K298" s="13"/>
       <c r="L298" s="13"/>
       <c r="M298" s="13"/>
@@ -17012,7 +16989,7 @@
       <c r="B299" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C299" s="45" t="s">
+      <c r="C299" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D299" s="48" t="s">
@@ -17049,7 +17026,7 @@
     <row r="300" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A300" s="48"/>
       <c r="B300" s="48"/>
-      <c r="C300" s="46"/>
+      <c r="C300" s="50"/>
       <c r="D300" s="2">
         <v>7800</v>
       </c>
@@ -18402,18 +18379,18 @@
       <c r="AF332" s="12"/>
     </row>
     <row r="334" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A334" s="49" t="s">
+      <c r="A334" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B334" s="49"/>
-      <c r="C334" s="49"/>
-      <c r="D334" s="49"/>
-      <c r="E334" s="49"/>
-      <c r="F334" s="49"/>
-      <c r="G334" s="49"/>
-      <c r="H334" s="49"/>
-      <c r="I334" s="49"/>
-      <c r="J334" s="49"/>
+      <c r="B334" s="47"/>
+      <c r="C334" s="47"/>
+      <c r="D334" s="47"/>
+      <c r="E334" s="47"/>
+      <c r="F334" s="47"/>
+      <c r="G334" s="47"/>
+      <c r="H334" s="47"/>
+      <c r="I334" s="47"/>
+      <c r="J334" s="47"/>
       <c r="K334" s="9"/>
       <c r="L334" s="9"/>
       <c r="M334" s="9"/>
@@ -18437,18 +18414,18 @@
       <c r="AF334" s="9"/>
     </row>
     <row r="335" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A335" s="47" t="s">
+      <c r="A335" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B335" s="47"/>
-      <c r="C335" s="47"/>
-      <c r="D335" s="47"/>
-      <c r="E335" s="47"/>
-      <c r="F335" s="47"/>
-      <c r="G335" s="47"/>
-      <c r="H335" s="47"/>
-      <c r="I335" s="47"/>
-      <c r="J335" s="47"/>
+      <c r="B335" s="45"/>
+      <c r="C335" s="45"/>
+      <c r="D335" s="45"/>
+      <c r="E335" s="45"/>
+      <c r="F335" s="45"/>
+      <c r="G335" s="45"/>
+      <c r="H335" s="45"/>
+      <c r="I335" s="45"/>
+      <c r="J335" s="45"/>
       <c r="K335" s="13"/>
       <c r="L335" s="13"/>
       <c r="M335" s="13"/>
@@ -18478,7 +18455,7 @@
       <c r="B336" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C336" s="45" t="s">
+      <c r="C336" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D336" s="48" t="s">
@@ -18515,7 +18492,7 @@
     <row r="337" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A337" s="48"/>
       <c r="B337" s="48"/>
-      <c r="C337" s="46"/>
+      <c r="C337" s="50"/>
       <c r="D337" s="2">
         <v>7800</v>
       </c>
@@ -19868,18 +19845,18 @@
       <c r="AF369" s="12"/>
     </row>
     <row r="371" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A371" s="49" t="s">
+      <c r="A371" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B371" s="49"/>
-      <c r="C371" s="49"/>
-      <c r="D371" s="49"/>
-      <c r="E371" s="49"/>
-      <c r="F371" s="49"/>
-      <c r="G371" s="49"/>
-      <c r="H371" s="49"/>
-      <c r="I371" s="49"/>
-      <c r="J371" s="49"/>
+      <c r="B371" s="47"/>
+      <c r="C371" s="47"/>
+      <c r="D371" s="47"/>
+      <c r="E371" s="47"/>
+      <c r="F371" s="47"/>
+      <c r="G371" s="47"/>
+      <c r="H371" s="47"/>
+      <c r="I371" s="47"/>
+      <c r="J371" s="47"/>
       <c r="K371" s="9"/>
       <c r="L371" s="9"/>
       <c r="M371" s="9"/>
@@ -19903,18 +19880,18 @@
       <c r="AF371" s="9"/>
     </row>
     <row r="372" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A372" s="47" t="s">
+      <c r="A372" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B372" s="47"/>
-      <c r="C372" s="47"/>
-      <c r="D372" s="47"/>
-      <c r="E372" s="47"/>
-      <c r="F372" s="47"/>
-      <c r="G372" s="47"/>
-      <c r="H372" s="47"/>
-      <c r="I372" s="47"/>
-      <c r="J372" s="47"/>
+      <c r="B372" s="45"/>
+      <c r="C372" s="45"/>
+      <c r="D372" s="45"/>
+      <c r="E372" s="45"/>
+      <c r="F372" s="45"/>
+      <c r="G372" s="45"/>
+      <c r="H372" s="45"/>
+      <c r="I372" s="45"/>
+      <c r="J372" s="45"/>
       <c r="K372" s="13"/>
       <c r="L372" s="13"/>
       <c r="M372" s="13"/>
@@ -19944,7 +19921,7 @@
       <c r="B373" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C373" s="45" t="s">
+      <c r="C373" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D373" s="48" t="s">
@@ -19981,7 +19958,7 @@
     <row r="374" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A374" s="48"/>
       <c r="B374" s="48"/>
-      <c r="C374" s="46"/>
+      <c r="C374" s="50"/>
       <c r="D374" s="2">
         <v>7800</v>
       </c>
@@ -21418,18 +21395,18 @@
       <c r="AF406" s="12"/>
     </row>
     <row r="408" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A408" s="49" t="s">
+      <c r="A408" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B408" s="49"/>
-      <c r="C408" s="49"/>
-      <c r="D408" s="49"/>
-      <c r="E408" s="49"/>
-      <c r="F408" s="49"/>
-      <c r="G408" s="49"/>
-      <c r="H408" s="49"/>
-      <c r="I408" s="49"/>
-      <c r="J408" s="49"/>
+      <c r="B408" s="47"/>
+      <c r="C408" s="47"/>
+      <c r="D408" s="47"/>
+      <c r="E408" s="47"/>
+      <c r="F408" s="47"/>
+      <c r="G408" s="47"/>
+      <c r="H408" s="47"/>
+      <c r="I408" s="47"/>
+      <c r="J408" s="47"/>
       <c r="K408" s="9"/>
       <c r="L408" s="9"/>
       <c r="M408" s="9"/>
@@ -21453,18 +21430,18 @@
       <c r="AF408" s="9"/>
     </row>
     <row r="409" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A409" s="47" t="s">
+      <c r="A409" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B409" s="47"/>
-      <c r="C409" s="47"/>
-      <c r="D409" s="47"/>
-      <c r="E409" s="47"/>
-      <c r="F409" s="47"/>
-      <c r="G409" s="47"/>
-      <c r="H409" s="47"/>
-      <c r="I409" s="47"/>
-      <c r="J409" s="47"/>
+      <c r="B409" s="45"/>
+      <c r="C409" s="45"/>
+      <c r="D409" s="45"/>
+      <c r="E409" s="45"/>
+      <c r="F409" s="45"/>
+      <c r="G409" s="45"/>
+      <c r="H409" s="45"/>
+      <c r="I409" s="45"/>
+      <c r="J409" s="45"/>
       <c r="K409" s="13"/>
       <c r="L409" s="13"/>
       <c r="M409" s="13"/>
@@ -21494,7 +21471,7 @@
       <c r="B410" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C410" s="45" t="s">
+      <c r="C410" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D410" s="48" t="s">
@@ -21531,7 +21508,7 @@
     <row r="411" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A411" s="48"/>
       <c r="B411" s="48"/>
-      <c r="C411" s="46"/>
+      <c r="C411" s="50"/>
       <c r="D411" s="2">
         <v>7800</v>
       </c>
@@ -22885,6 +22862,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="A261:J261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:J262"/>
+    <mergeCell ref="A223:J223"/>
+    <mergeCell ref="A224:J224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="D225:J225"/>
+    <mergeCell ref="A112:J112"/>
+    <mergeCell ref="A113:J113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:J114"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="D77:J77"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A150:J150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:J151"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="A186:J186"/>
+    <mergeCell ref="A187:J187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="D188:J188"/>
+    <mergeCell ref="A410:A411"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="D410:J410"/>
+    <mergeCell ref="A371:J371"/>
+    <mergeCell ref="A372:J372"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:J373"/>
+    <mergeCell ref="C410:C411"/>
+    <mergeCell ref="C373:C374"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AH2:AL2"/>
     <mergeCell ref="AH3:AL3"/>
@@ -22901,79 +22951,6 @@
     <mergeCell ref="A297:J297"/>
     <mergeCell ref="A298:J298"/>
     <mergeCell ref="A260:J260"/>
-    <mergeCell ref="A410:A411"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="D410:J410"/>
-    <mergeCell ref="A371:J371"/>
-    <mergeCell ref="A372:J372"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:J373"/>
-    <mergeCell ref="C410:C411"/>
-    <mergeCell ref="C373:C374"/>
-    <mergeCell ref="A186:J186"/>
-    <mergeCell ref="A187:J187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="D188:J188"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="A150:J150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:J151"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N3"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="D77:J77"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A112:J112"/>
-    <mergeCell ref="A113:J113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:J114"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="A261:J261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:J262"/>
-    <mergeCell ref="A223:J223"/>
-    <mergeCell ref="A224:J224"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="D225:J225"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22988,8 +22965,8 @@
   </sheetPr>
   <dimension ref="A1:H284"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F224" sqref="F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23002,29 +22979,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
+      <c r="A3" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B4" s="41">
         <v>48</v>
@@ -23037,10 +23014,7 @@
       <c r="A5" s="39">
         <v>49</v>
       </c>
-      <c r="B5" s="39" t="str">
-        <f>CONCATENATE(A5, "M01000")</f>
-        <v>49M01000</v>
-      </c>
+      <c r="B5" s="39"/>
       <c r="C5" s="39">
         <v>10600</v>
       </c>
@@ -23049,10 +23023,7 @@
       <c r="A6" s="3">
         <v>50</v>
       </c>
-      <c r="B6" s="39" t="str">
-        <f t="shared" ref="B6:B13" si="0">CONCATENATE(A6, "M01000")</f>
-        <v>50M01000</v>
-      </c>
+      <c r="B6" s="39"/>
       <c r="C6" s="3">
         <v>10550</v>
       </c>
@@ -23061,10 +23032,7 @@
       <c r="A7" s="3">
         <v>51</v>
       </c>
-      <c r="B7" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>51M01000</v>
-      </c>
+      <c r="B7" s="39"/>
       <c r="C7" s="3">
         <v>10300</v>
       </c>
@@ -23073,10 +23041,7 @@
       <c r="A8" s="3">
         <v>52</v>
       </c>
-      <c r="B8" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>52M01000</v>
-      </c>
+      <c r="B8" s="39"/>
       <c r="C8" s="3">
         <v>10100</v>
       </c>
@@ -23085,10 +23050,7 @@
       <c r="A9" s="3">
         <v>53</v>
       </c>
-      <c r="B9" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>53M01000</v>
-      </c>
+      <c r="B9" s="39"/>
       <c r="C9" s="3">
         <v>9875</v>
       </c>
@@ -23097,10 +23059,7 @@
       <c r="A10" s="3">
         <v>54</v>
       </c>
-      <c r="B10" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>54M01000</v>
-      </c>
+      <c r="B10" s="39"/>
       <c r="C10" s="3">
         <v>9675</v>
       </c>
@@ -23109,10 +23068,7 @@
       <c r="A11" s="3">
         <v>55</v>
       </c>
-      <c r="B11" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>55M01000</v>
-      </c>
+      <c r="B11" s="39"/>
       <c r="C11" s="3">
         <v>9450</v>
       </c>
@@ -23121,10 +23077,7 @@
       <c r="A12" s="3">
         <v>56</v>
       </c>
-      <c r="B12" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>56M01000</v>
-      </c>
+      <c r="B12" s="39"/>
       <c r="C12" s="3">
         <v>9225</v>
       </c>
@@ -23133,38 +23086,35 @@
       <c r="A13" s="3">
         <v>57</v>
       </c>
-      <c r="B13" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>57M01000</v>
-      </c>
+      <c r="B13" s="39"/>
       <c r="C13" s="3">
         <v>9025</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
+      <c r="A15" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B18" s="41">
         <v>46</v>
@@ -23177,10 +23127,7 @@
       <c r="A19" s="39">
         <v>47</v>
       </c>
-      <c r="B19" s="39" t="str">
-        <f>CONCATENATE(A19, "P00000")</f>
-        <v>47P00000</v>
-      </c>
+      <c r="B19" s="39"/>
       <c r="C19" s="39">
         <v>10600</v>
       </c>
@@ -23189,10 +23136,7 @@
       <c r="A20" s="3">
         <v>48</v>
       </c>
-      <c r="B20" s="39" t="str">
-        <f t="shared" ref="B20:B27" si="1">CONCATENATE(A20, "P00000")</f>
-        <v>48P00000</v>
-      </c>
+      <c r="B20" s="39"/>
       <c r="C20" s="3">
         <v>10450</v>
       </c>
@@ -23201,10 +23145,7 @@
       <c r="A21" s="3">
         <v>49</v>
       </c>
-      <c r="B21" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>49P00000</v>
-      </c>
+      <c r="B21" s="39"/>
       <c r="C21" s="3">
         <v>10250</v>
       </c>
@@ -23213,10 +23154,7 @@
       <c r="A22" s="3">
         <v>50</v>
       </c>
-      <c r="B22" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>50P00000</v>
-      </c>
+      <c r="B22" s="39"/>
       <c r="C22" s="3">
         <v>10050</v>
       </c>
@@ -23225,10 +23163,7 @@
       <c r="A23" s="3">
         <v>51</v>
       </c>
-      <c r="B23" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>51P00000</v>
-      </c>
+      <c r="B23" s="39"/>
       <c r="C23" s="3">
         <v>9800</v>
       </c>
@@ -23237,10 +23172,7 @@
       <c r="A24" s="3">
         <v>52</v>
       </c>
-      <c r="B24" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>52P00000</v>
-      </c>
+      <c r="B24" s="39"/>
       <c r="C24" s="3">
         <v>9600</v>
       </c>
@@ -23249,10 +23181,7 @@
       <c r="A25" s="3">
         <v>53</v>
       </c>
-      <c r="B25" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>53P00000</v>
-      </c>
+      <c r="B25" s="39"/>
       <c r="C25" s="3">
         <v>9400</v>
       </c>
@@ -23261,10 +23190,7 @@
       <c r="A26" s="3">
         <v>54</v>
       </c>
-      <c r="B26" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>54P00000</v>
-      </c>
+      <c r="B26" s="39"/>
       <c r="C26" s="3">
         <v>9150</v>
       </c>
@@ -23273,10 +23199,7 @@
       <c r="A27" s="3">
         <v>55</v>
       </c>
-      <c r="B27" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>55P00000</v>
-      </c>
+      <c r="B27" s="39"/>
       <c r="C27" s="3">
         <v>8950</v>
       </c>
@@ -23287,29 +23210,29 @@
       <c r="C28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="A30" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
+      <c r="A31" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
     </row>
     <row r="32" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B32" s="40">
         <v>43</v>
@@ -23325,10 +23248,7 @@
       <c r="A33" s="3">
         <v>44</v>
       </c>
-      <c r="B33" s="3" t="str">
-        <f>CONCATENATE(A33, "P01000")</f>
-        <v>44P01000</v>
-      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="3">
         <v>10600</v>
       </c>
@@ -23337,10 +23257,7 @@
       <c r="A34" s="3">
         <v>45</v>
       </c>
-      <c r="B34" s="3" t="str">
-        <f t="shared" ref="B34:B42" si="2">CONCATENATE(A34, "P01000")</f>
-        <v>45P01000</v>
-      </c>
+      <c r="B34" s="3"/>
       <c r="C34" s="3">
         <v>10450</v>
       </c>
@@ -23349,10 +23266,7 @@
       <c r="A35" s="3">
         <v>46</v>
       </c>
-      <c r="B35" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>46P01000</v>
-      </c>
+      <c r="B35" s="3"/>
       <c r="C35" s="3">
         <v>10250</v>
       </c>
@@ -23361,10 +23275,7 @@
       <c r="A36" s="3">
         <v>47</v>
       </c>
-      <c r="B36" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>47P01000</v>
-      </c>
+      <c r="B36" s="3"/>
       <c r="C36" s="3">
         <v>10000</v>
       </c>
@@ -23373,10 +23284,7 @@
       <c r="A37" s="3">
         <v>48</v>
       </c>
-      <c r="B37" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>48P01000</v>
-      </c>
+      <c r="B37" s="3"/>
       <c r="C37" s="3">
         <v>9800</v>
       </c>
@@ -23385,10 +23293,7 @@
       <c r="A38" s="3">
         <v>49</v>
       </c>
-      <c r="B38" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>49P01000</v>
-      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="3">
         <v>9600</v>
       </c>
@@ -23397,10 +23302,7 @@
       <c r="A39" s="3">
         <v>50</v>
       </c>
-      <c r="B39" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>50P01000</v>
-      </c>
+      <c r="B39" s="3"/>
       <c r="C39" s="3">
         <v>9400</v>
       </c>
@@ -23409,10 +23311,7 @@
       <c r="A40" s="3">
         <v>51</v>
       </c>
-      <c r="B40" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>51P01000</v>
-      </c>
+      <c r="B40" s="3"/>
       <c r="C40" s="3">
         <v>9200</v>
       </c>
@@ -23421,10 +23320,7 @@
       <c r="A41" s="3">
         <v>52</v>
       </c>
-      <c r="B41" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>52P01000</v>
-      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="3">
         <v>8950</v>
       </c>
@@ -23433,10 +23329,7 @@
       <c r="A42" s="3">
         <v>53</v>
       </c>
-      <c r="B42" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>53P01000</v>
-      </c>
+      <c r="B42" s="3"/>
       <c r="C42" s="3">
         <v>8700</v>
       </c>
@@ -23447,25 +23340,25 @@
       <c r="C43"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
+      <c r="A44" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
+      <c r="A45" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="60"/>
+      <c r="A46" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="56"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="40" t="s">
@@ -23482,10 +23375,7 @@
       <c r="A48" s="3">
         <v>41</v>
       </c>
-      <c r="B48" s="3" t="str">
-        <f>CONCATENATE(A48, "P02000")</f>
-        <v>41P02000</v>
-      </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="3">
         <v>10600</v>
       </c>
@@ -23494,10 +23384,7 @@
       <c r="A49" s="3">
         <v>42</v>
       </c>
-      <c r="B49" s="3" t="str">
-        <f t="shared" ref="B49:B58" si="3">CONCATENATE(A49, "P02000")</f>
-        <v>42P02000</v>
-      </c>
+      <c r="B49" s="3"/>
       <c r="C49" s="3">
         <v>10500</v>
       </c>
@@ -23506,10 +23393,7 @@
       <c r="A50" s="3">
         <v>43</v>
       </c>
-      <c r="B50" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>43P02000</v>
-      </c>
+      <c r="B50" s="3"/>
       <c r="C50" s="3">
         <v>10300</v>
       </c>
@@ -23518,10 +23402,7 @@
       <c r="A51" s="3">
         <v>44</v>
       </c>
-      <c r="B51" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>44P02000</v>
-      </c>
+      <c r="B51" s="3"/>
       <c r="C51" s="3">
         <v>10050</v>
       </c>
@@ -23530,10 +23411,7 @@
       <c r="A52" s="3">
         <v>45</v>
       </c>
-      <c r="B52" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>45P02000</v>
-      </c>
+      <c r="B52" s="3"/>
       <c r="C52" s="3">
         <v>9850</v>
       </c>
@@ -23542,10 +23420,7 @@
       <c r="A53" s="3">
         <v>46</v>
       </c>
-      <c r="B53" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>46P02000</v>
-      </c>
+      <c r="B53" s="3"/>
       <c r="C53" s="3">
         <v>9650</v>
       </c>
@@ -23554,10 +23429,7 @@
       <c r="A54" s="3">
         <v>47</v>
       </c>
-      <c r="B54" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>47P02000</v>
-      </c>
+      <c r="B54" s="3"/>
       <c r="C54" s="3">
         <v>9450</v>
       </c>
@@ -23566,10 +23438,7 @@
       <c r="A55" s="3">
         <v>48</v>
       </c>
-      <c r="B55" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>48P02000</v>
-      </c>
+      <c r="B55" s="3"/>
       <c r="C55" s="3">
         <v>9200</v>
       </c>
@@ -23578,10 +23447,7 @@
       <c r="A56" s="3">
         <v>49</v>
       </c>
-      <c r="B56" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>49P02000</v>
-      </c>
+      <c r="B56" s="3"/>
       <c r="C56" s="3">
         <v>9000</v>
       </c>
@@ -23590,10 +23456,7 @@
       <c r="A57" s="3">
         <v>50</v>
       </c>
-      <c r="B57" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>50P02000</v>
-      </c>
+      <c r="B57" s="3"/>
       <c r="C57" s="3">
         <v>8800</v>
       </c>
@@ -23602,10 +23465,7 @@
       <c r="A58" s="3">
         <v>51</v>
       </c>
-      <c r="B58" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>51P02000</v>
-      </c>
+      <c r="B58" s="3"/>
       <c r="C58" s="3">
         <v>8500</v>
       </c>
@@ -23616,29 +23476,29 @@
       <c r="C59"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
+      <c r="A60" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
+      <c r="A61" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="59"/>
-      <c r="C62" s="60"/>
+      <c r="A62" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="55"/>
+      <c r="C62" s="56"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B63" s="40">
         <v>38</v>
@@ -23651,10 +23511,7 @@
       <c r="A64" s="3">
         <v>39</v>
       </c>
-      <c r="B64" s="3" t="str">
-        <f>CONCATENATE(A64, "P03000")</f>
-        <v>39P03000</v>
-      </c>
+      <c r="B64" s="3"/>
       <c r="C64" s="3">
         <v>10600</v>
       </c>
@@ -23663,10 +23520,7 @@
       <c r="A65" s="3">
         <v>40</v>
       </c>
-      <c r="B65" s="3" t="str">
-        <f t="shared" ref="B65:B74" si="4">CONCATENATE(A65, "P03000")</f>
-        <v>40P03000</v>
-      </c>
+      <c r="B65" s="3"/>
       <c r="C65" s="3">
         <v>10300</v>
       </c>
@@ -23675,10 +23529,7 @@
       <c r="A66" s="3">
         <v>41</v>
       </c>
-      <c r="B66" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>41P03000</v>
-      </c>
+      <c r="B66" s="3"/>
       <c r="C66" s="3">
         <v>10050</v>
       </c>
@@ -23687,10 +23538,7 @@
       <c r="A67" s="3">
         <v>42</v>
       </c>
-      <c r="B67" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>42P03000</v>
-      </c>
+      <c r="B67" s="3"/>
       <c r="C67" s="3">
         <v>9700</v>
       </c>
@@ -23699,10 +23547,7 @@
       <c r="A68" s="3">
         <v>43</v>
       </c>
-      <c r="B68" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>43P03000</v>
-      </c>
+      <c r="B68" s="3"/>
       <c r="C68" s="3">
         <v>9650</v>
       </c>
@@ -23711,10 +23556,7 @@
       <c r="A69" s="3">
         <v>44</v>
       </c>
-      <c r="B69" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>44P03000</v>
-      </c>
+      <c r="B69" s="3"/>
       <c r="C69" s="3">
         <v>9450</v>
       </c>
@@ -23723,10 +23565,7 @@
       <c r="A70" s="3">
         <v>45</v>
       </c>
-      <c r="B70" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>45P03000</v>
-      </c>
+      <c r="B70" s="3"/>
       <c r="C70" s="3">
         <v>9250</v>
       </c>
@@ -23735,10 +23574,7 @@
       <c r="A71" s="3">
         <v>46</v>
       </c>
-      <c r="B71" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>46P03000</v>
-      </c>
+      <c r="B71" s="3"/>
       <c r="C71" s="3">
         <v>9050</v>
       </c>
@@ -23747,10 +23583,7 @@
       <c r="A72" s="3">
         <v>47</v>
       </c>
-      <c r="B72" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>47P03000</v>
-      </c>
+      <c r="B72" s="3"/>
       <c r="C72" s="3">
         <v>8800</v>
       </c>
@@ -23759,10 +23592,7 @@
       <c r="A73" s="3">
         <v>48</v>
       </c>
-      <c r="B73" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>48P03000</v>
-      </c>
+      <c r="B73" s="3"/>
       <c r="C73" s="3">
         <v>8600</v>
       </c>
@@ -23771,10 +23601,7 @@
       <c r="A74" s="3">
         <v>49</v>
       </c>
-      <c r="B74" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>49P03000</v>
-      </c>
+      <c r="B74" s="3"/>
       <c r="C74" s="3">
         <v>8350</v>
       </c>
@@ -23785,29 +23612,29 @@
       <c r="C75"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
+      <c r="A76" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="59"/>
-      <c r="C78" s="60"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="56"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B79" s="40">
         <v>33</v>
@@ -23820,10 +23647,7 @@
       <c r="A80" s="3">
         <v>34</v>
       </c>
-      <c r="B80" s="3" t="str">
-        <f>CONCATENATE(A80, "P04000")</f>
-        <v>34P04000</v>
-      </c>
+      <c r="B80" s="3"/>
       <c r="C80" s="3">
         <v>10600</v>
       </c>
@@ -23832,10 +23656,7 @@
       <c r="A81" s="3">
         <v>35</v>
       </c>
-      <c r="B81" s="3" t="str">
-        <f t="shared" ref="B81:B93" si="5">CONCATENATE(A81, "P04000")</f>
-        <v>35P04000</v>
-      </c>
+      <c r="B81" s="3"/>
       <c r="C81" s="3">
         <v>10500</v>
       </c>
@@ -23844,10 +23665,7 @@
       <c r="A82" s="3">
         <v>36</v>
       </c>
-      <c r="B82" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>36P04000</v>
-      </c>
+      <c r="B82" s="3"/>
       <c r="C82" s="3">
         <v>10350</v>
       </c>
@@ -23856,10 +23674,7 @@
       <c r="A83" s="3">
         <v>37</v>
       </c>
-      <c r="B83" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>37P04000</v>
-      </c>
+      <c r="B83" s="3"/>
       <c r="C83" s="3">
         <v>10200</v>
       </c>
@@ -23868,10 +23683,7 @@
       <c r="A84" s="3">
         <v>38</v>
       </c>
-      <c r="B84" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>38P04000</v>
-      </c>
+      <c r="B84" s="3"/>
       <c r="C84" s="3">
         <v>10000</v>
       </c>
@@ -23880,10 +23692,7 @@
       <c r="A85" s="3">
         <v>39</v>
       </c>
-      <c r="B85" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>39P04000</v>
-      </c>
+      <c r="B85" s="3"/>
       <c r="C85" s="3">
         <v>9800</v>
       </c>
@@ -23892,10 +23701,7 @@
       <c r="A86" s="3">
         <v>40</v>
       </c>
-      <c r="B86" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>40P04000</v>
-      </c>
+      <c r="B86" s="3"/>
       <c r="C86" s="3">
         <v>9600</v>
       </c>
@@ -23904,10 +23710,7 @@
       <c r="A87" s="3">
         <v>41</v>
       </c>
-      <c r="B87" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>41P04000</v>
-      </c>
+      <c r="B87" s="3"/>
       <c r="C87" s="3">
         <v>9400</v>
       </c>
@@ -23916,10 +23719,7 @@
       <c r="A88" s="3">
         <v>42</v>
       </c>
-      <c r="B88" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>42P04000</v>
-      </c>
+      <c r="B88" s="3"/>
       <c r="C88" s="3">
         <v>9200</v>
       </c>
@@ -23928,10 +23728,7 @@
       <c r="A89" s="3">
         <v>43</v>
       </c>
-      <c r="B89" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>43P04000</v>
-      </c>
+      <c r="B89" s="3"/>
       <c r="C89" s="3">
         <v>9000</v>
       </c>
@@ -23940,10 +23737,7 @@
       <c r="A90" s="3">
         <v>44</v>
       </c>
-      <c r="B90" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>44P04000</v>
-      </c>
+      <c r="B90" s="3"/>
       <c r="C90" s="3">
         <v>8800</v>
       </c>
@@ -23952,10 +23746,7 @@
       <c r="A91" s="3">
         <v>45</v>
       </c>
-      <c r="B91" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>45P04000</v>
-      </c>
+      <c r="B91" s="3"/>
       <c r="C91" s="3">
         <v>8600</v>
       </c>
@@ -23964,10 +23755,7 @@
       <c r="A92" s="3">
         <v>46</v>
       </c>
-      <c r="B92" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>46P04000</v>
-      </c>
+      <c r="B92" s="3"/>
       <c r="C92" s="3">
         <v>8400</v>
       </c>
@@ -23976,10 +23764,7 @@
       <c r="A93" s="3">
         <v>47</v>
       </c>
-      <c r="B93" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>47P04000</v>
-      </c>
+      <c r="B93" s="3"/>
       <c r="C93" s="3">
         <v>8150</v>
       </c>
@@ -23990,29 +23775,29 @@
       <c r="C94"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95" s="49"/>
-      <c r="C95" s="49"/>
+      <c r="A95" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" s="47"/>
+      <c r="C95" s="47"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" s="47"/>
-      <c r="C96" s="47"/>
+      <c r="A96" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B97" s="59"/>
-      <c r="C97" s="60"/>
+      <c r="A97" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="55"/>
+      <c r="C97" s="56"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="40" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B98" s="40">
         <v>30</v>
@@ -24025,10 +23810,7 @@
       <c r="A99" s="3">
         <v>30</v>
       </c>
-      <c r="B99" s="3" t="str">
-        <f>CONCATENATE(A99, "P05000")</f>
-        <v>30P05000</v>
-      </c>
+      <c r="B99" s="3"/>
       <c r="C99" s="3">
         <v>10600</v>
       </c>
@@ -24037,10 +23819,7 @@
       <c r="A100" s="3">
         <v>31</v>
       </c>
-      <c r="B100" s="3" t="str">
-        <f t="shared" ref="B100:B114" si="6">CONCATENATE(A100, "P05000")</f>
-        <v>31P05000</v>
-      </c>
+      <c r="B100" s="3"/>
       <c r="C100" s="3">
         <v>10500</v>
       </c>
@@ -24049,10 +23828,7 @@
       <c r="A101" s="3">
         <v>32</v>
       </c>
-      <c r="B101" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>32P05000</v>
-      </c>
+      <c r="B101" s="3"/>
       <c r="C101" s="3">
         <v>10400</v>
       </c>
@@ -24061,10 +23837,7 @@
       <c r="A102" s="3">
         <v>33</v>
       </c>
-      <c r="B102" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>33P05000</v>
-      </c>
+      <c r="B102" s="3"/>
       <c r="C102" s="3">
         <v>10200</v>
       </c>
@@ -24073,10 +23846,7 @@
       <c r="A103" s="3">
         <v>34</v>
       </c>
-      <c r="B103" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>34P05000</v>
-      </c>
+      <c r="B103" s="3"/>
       <c r="C103" s="3">
         <v>10000</v>
       </c>
@@ -24085,10 +23855,7 @@
       <c r="A104" s="3">
         <v>35</v>
       </c>
-      <c r="B104" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>35P05000</v>
-      </c>
+      <c r="B104" s="3"/>
       <c r="C104" s="3">
         <v>9850</v>
       </c>
@@ -24097,10 +23864,7 @@
       <c r="A105" s="3">
         <v>36</v>
       </c>
-      <c r="B105" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>36P05000</v>
-      </c>
+      <c r="B105" s="3"/>
       <c r="C105" s="3">
         <v>9650</v>
       </c>
@@ -24109,10 +23873,7 @@
       <c r="A106" s="3">
         <v>37</v>
       </c>
-      <c r="B106" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>37P05000</v>
-      </c>
+      <c r="B106" s="3"/>
       <c r="C106" s="3">
         <v>9450</v>
       </c>
@@ -24121,10 +23882,7 @@
       <c r="A107" s="3">
         <v>38</v>
       </c>
-      <c r="B107" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>38P05000</v>
-      </c>
+      <c r="B107" s="3"/>
       <c r="C107" s="3">
         <v>9300</v>
       </c>
@@ -24133,10 +23891,7 @@
       <c r="A108" s="3">
         <v>39</v>
       </c>
-      <c r="B108" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>39P05000</v>
-      </c>
+      <c r="B108" s="3"/>
       <c r="C108" s="3">
         <v>9050</v>
       </c>
@@ -24145,10 +23900,7 @@
       <c r="A109" s="3">
         <v>40</v>
       </c>
-      <c r="B109" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>40P05000</v>
-      </c>
+      <c r="B109" s="3"/>
       <c r="C109" s="3">
         <v>8900</v>
       </c>
@@ -24157,10 +23909,7 @@
       <c r="A110" s="3">
         <v>41</v>
       </c>
-      <c r="B110" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>41P05000</v>
-      </c>
+      <c r="B110" s="3"/>
       <c r="C110" s="3">
         <v>8700</v>
       </c>
@@ -24169,10 +23918,7 @@
       <c r="A111" s="3">
         <v>42</v>
       </c>
-      <c r="B111" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>42P05000</v>
-      </c>
+      <c r="B111" s="3"/>
       <c r="C111" s="3">
         <v>8500</v>
       </c>
@@ -24181,10 +23927,7 @@
       <c r="A112" s="3">
         <v>43</v>
       </c>
-      <c r="B112" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>43P05000</v>
-      </c>
+      <c r="B112" s="3"/>
       <c r="C112" s="3">
         <v>8250</v>
       </c>
@@ -24193,10 +23936,7 @@
       <c r="A113" s="3">
         <v>44</v>
       </c>
-      <c r="B113" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>44P05000</v>
-      </c>
+      <c r="B113" s="3"/>
       <c r="C113" s="3">
         <v>8050</v>
       </c>
@@ -24205,10 +23945,7 @@
       <c r="A114" s="3">
         <v>45</v>
       </c>
-      <c r="B114" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>45P05000</v>
-      </c>
+      <c r="B114" s="3"/>
       <c r="C114" s="3">
         <v>7850</v>
       </c>
@@ -24219,29 +23956,29 @@
       <c r="C115"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B116" s="49"/>
-      <c r="C116" s="49"/>
+      <c r="A116" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B117" s="47"/>
-      <c r="C117" s="47"/>
+      <c r="A117" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B118" s="59"/>
-      <c r="C118" s="60"/>
+      <c r="A118" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B118" s="55"/>
+      <c r="C118" s="56"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B119" s="40">
         <v>25</v>
@@ -24254,10 +23991,7 @@
       <c r="A120" s="3">
         <v>26</v>
       </c>
-      <c r="B120" s="3" t="str">
-        <f>CONCATENATE(A120, "P06000")</f>
-        <v>26P06000</v>
-      </c>
+      <c r="B120" s="3"/>
       <c r="C120" s="3">
         <v>10600</v>
       </c>
@@ -24266,10 +24000,7 @@
       <c r="A121" s="3">
         <v>27</v>
       </c>
-      <c r="B121" s="3" t="str">
-        <f t="shared" ref="B121:B137" si="7">CONCATENATE(A121, "P06000")</f>
-        <v>27P06000</v>
-      </c>
+      <c r="B121" s="3"/>
       <c r="C121" s="3">
         <v>10500</v>
       </c>
@@ -24278,10 +24009,7 @@
       <c r="A122" s="3">
         <v>28</v>
       </c>
-      <c r="B122" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>28P06000</v>
-      </c>
+      <c r="B122" s="3"/>
       <c r="C122" s="3">
         <v>10400</v>
       </c>
@@ -24290,10 +24018,7 @@
       <c r="A123" s="3">
         <v>29</v>
       </c>
-      <c r="B123" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>29P06000</v>
-      </c>
+      <c r="B123" s="3"/>
       <c r="C123" s="3">
         <v>10250</v>
       </c>
@@ -24302,10 +24027,7 @@
       <c r="A124" s="3">
         <v>30</v>
       </c>
-      <c r="B124" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>30P06000</v>
-      </c>
+      <c r="B124" s="3"/>
       <c r="C124" s="3">
         <v>10050</v>
       </c>
@@ -24314,10 +24036,7 @@
       <c r="A125" s="3">
         <v>31</v>
       </c>
-      <c r="B125" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>31P06000</v>
-      </c>
+      <c r="B125" s="3"/>
       <c r="C125" s="3">
         <v>9850</v>
       </c>
@@ -24326,10 +24045,7 @@
       <c r="A126" s="3">
         <v>32</v>
       </c>
-      <c r="B126" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>32P06000</v>
-      </c>
+      <c r="B126" s="3"/>
       <c r="C126" s="3">
         <v>9650</v>
       </c>
@@ -24338,10 +24054,7 @@
       <c r="A127" s="3">
         <v>33</v>
       </c>
-      <c r="B127" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>33P06000</v>
-      </c>
+      <c r="B127" s="3"/>
       <c r="C127" s="3">
         <v>9500</v>
       </c>
@@ -24350,10 +24063,7 @@
       <c r="A128" s="3">
         <v>34</v>
       </c>
-      <c r="B128" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>34P06000</v>
-      </c>
+      <c r="B128" s="3"/>
       <c r="C128" s="3">
         <v>9300</v>
       </c>
@@ -24362,10 +24072,7 @@
       <c r="A129" s="3">
         <v>35</v>
       </c>
-      <c r="B129" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>35P06000</v>
-      </c>
+      <c r="B129" s="3"/>
       <c r="C129" s="3">
         <v>9100</v>
       </c>
@@ -24374,10 +24081,7 @@
       <c r="A130" s="3">
         <v>36</v>
       </c>
-      <c r="B130" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>36P06000</v>
-      </c>
+      <c r="B130" s="3"/>
       <c r="C130" s="3">
         <v>8950</v>
       </c>
@@ -24386,10 +24090,7 @@
       <c r="A131" s="3">
         <v>37</v>
       </c>
-      <c r="B131" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>37P06000</v>
-      </c>
+      <c r="B131" s="3"/>
       <c r="C131" s="3">
         <v>8750</v>
       </c>
@@ -24398,10 +24099,7 @@
       <c r="A132" s="3">
         <v>38</v>
       </c>
-      <c r="B132" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>38P06000</v>
-      </c>
+      <c r="B132" s="3"/>
       <c r="C132" s="3">
         <v>8550</v>
       </c>
@@ -24410,10 +24108,7 @@
       <c r="A133" s="3">
         <v>39</v>
       </c>
-      <c r="B133" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>39P06000</v>
-      </c>
+      <c r="B133" s="3"/>
       <c r="C133" s="3">
         <v>8350</v>
       </c>
@@ -24422,10 +24117,7 @@
       <c r="A134" s="3">
         <v>40</v>
       </c>
-      <c r="B134" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>40P06000</v>
-      </c>
+      <c r="B134" s="3"/>
       <c r="C134" s="3">
         <v>8150</v>
       </c>
@@ -24434,10 +24126,7 @@
       <c r="A135" s="3">
         <v>41</v>
       </c>
-      <c r="B135" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>41P06000</v>
-      </c>
+      <c r="B135" s="3"/>
       <c r="C135" s="3">
         <v>7900</v>
       </c>
@@ -24446,10 +24135,7 @@
       <c r="A136" s="3">
         <v>42</v>
       </c>
-      <c r="B136" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>42P06000</v>
-      </c>
+      <c r="B136" s="3"/>
       <c r="C136" s="3">
         <v>7650</v>
       </c>
@@ -24458,10 +24144,7 @@
       <c r="A137" s="3">
         <v>43</v>
       </c>
-      <c r="B137" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>43P06000</v>
-      </c>
+      <c r="B137" s="3"/>
       <c r="C137" s="3">
         <v>7500</v>
       </c>
@@ -24472,29 +24155,29 @@
       <c r="C138"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B139" s="49"/>
-      <c r="C139" s="49"/>
+      <c r="A139" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B139" s="47"/>
+      <c r="C139" s="47"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B140" s="47"/>
-      <c r="C140" s="47"/>
+      <c r="A140" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B140" s="45"/>
+      <c r="C140" s="45"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B141" s="59"/>
-      <c r="C141" s="60"/>
+      <c r="A141" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B141" s="55"/>
+      <c r="C141" s="56"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" s="40">
         <v>21</v>
@@ -24507,10 +24190,7 @@
       <c r="A143" s="3">
         <v>22</v>
       </c>
-      <c r="B143" s="3" t="str">
-        <f>CONCATENATE(A143, "P07000")</f>
-        <v>22P07000</v>
-      </c>
+      <c r="B143" s="3"/>
       <c r="C143" s="3">
         <v>10600</v>
       </c>
@@ -24519,10 +24199,7 @@
       <c r="A144" s="3">
         <v>23</v>
       </c>
-      <c r="B144" s="3" t="str">
-        <f t="shared" ref="B144:B160" si="8">CONCATENATE(A144, "P07000")</f>
-        <v>23P07000</v>
-      </c>
+      <c r="B144" s="3"/>
       <c r="C144" s="3">
         <v>10550</v>
       </c>
@@ -24531,10 +24208,7 @@
       <c r="A145" s="3">
         <v>24</v>
       </c>
-      <c r="B145" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>24P07000</v>
-      </c>
+      <c r="B145" s="3"/>
       <c r="C145" s="3">
         <v>10450</v>
       </c>
@@ -24543,10 +24217,7 @@
       <c r="A146" s="3">
         <v>25</v>
       </c>
-      <c r="B146" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>25P07000</v>
-      </c>
+      <c r="B146" s="3"/>
       <c r="C146" s="3">
         <v>10300</v>
       </c>
@@ -24555,10 +24226,7 @@
       <c r="A147" s="3">
         <v>26</v>
       </c>
-      <c r="B147" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>26P07000</v>
-      </c>
+      <c r="B147" s="3"/>
       <c r="C147" s="3">
         <v>10100</v>
       </c>
@@ -24567,10 +24235,7 @@
       <c r="A148" s="3">
         <v>27</v>
       </c>
-      <c r="B148" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>27P07000</v>
-      </c>
+      <c r="B148" s="3"/>
       <c r="C148" s="3">
         <v>9900</v>
       </c>
@@ -24579,10 +24244,7 @@
       <c r="A149" s="3">
         <v>28</v>
       </c>
-      <c r="B149" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>28P07000</v>
-      </c>
+      <c r="B149" s="3"/>
       <c r="C149" s="3">
         <v>9700</v>
       </c>
@@ -24591,10 +24253,7 @@
       <c r="A150" s="3">
         <v>29</v>
       </c>
-      <c r="B150" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>29P07000</v>
-      </c>
+      <c r="B150" s="3"/>
       <c r="C150" s="3">
         <v>9500</v>
       </c>
@@ -24603,10 +24262,7 @@
       <c r="A151" s="3">
         <v>30</v>
       </c>
-      <c r="B151" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>30P07000</v>
-      </c>
+      <c r="B151" s="3"/>
       <c r="C151" s="3">
         <v>9350</v>
       </c>
@@ -24615,10 +24271,7 @@
       <c r="A152" s="3">
         <v>31</v>
       </c>
-      <c r="B152" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>31P07000</v>
-      </c>
+      <c r="B152" s="3"/>
       <c r="C152" s="3">
         <v>9100</v>
       </c>
@@ -24627,10 +24280,7 @@
       <c r="A153" s="3">
         <v>32</v>
       </c>
-      <c r="B153" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>32P07000</v>
-      </c>
+      <c r="B153" s="3"/>
       <c r="C153" s="3">
         <v>9000</v>
       </c>
@@ -24639,10 +24289,7 @@
       <c r="A154" s="3">
         <v>33</v>
       </c>
-      <c r="B154" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>33P07000</v>
-      </c>
+      <c r="B154" s="3"/>
       <c r="C154" s="3">
         <v>8800</v>
       </c>
@@ -24651,10 +24298,7 @@
       <c r="A155" s="3">
         <v>34</v>
       </c>
-      <c r="B155" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>34P07000</v>
-      </c>
+      <c r="B155" s="3"/>
       <c r="C155" s="3">
         <v>8600</v>
       </c>
@@ -24663,10 +24307,7 @@
       <c r="A156" s="3">
         <v>35</v>
       </c>
-      <c r="B156" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>35P07000</v>
-      </c>
+      <c r="B156" s="3"/>
       <c r="C156" s="3">
         <v>8400</v>
       </c>
@@ -24675,10 +24316,7 @@
       <c r="A157" s="3">
         <v>36</v>
       </c>
-      <c r="B157" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>36P07000</v>
-      </c>
+      <c r="B157" s="3"/>
       <c r="C157" s="3">
         <v>8200</v>
       </c>
@@ -24687,10 +24325,7 @@
       <c r="A158" s="3">
         <v>37</v>
       </c>
-      <c r="B158" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>37P07000</v>
-      </c>
+      <c r="B158" s="3"/>
       <c r="C158" s="3">
         <v>8000</v>
       </c>
@@ -24699,10 +24334,7 @@
       <c r="A159" s="3">
         <v>38</v>
       </c>
-      <c r="B159" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>38P07000</v>
-      </c>
+      <c r="B159" s="3"/>
       <c r="C159" s="3">
         <v>7800</v>
       </c>
@@ -24711,10 +24343,7 @@
       <c r="A160" s="3">
         <v>39</v>
       </c>
-      <c r="B160" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>39P07000</v>
-      </c>
+      <c r="B160" s="3"/>
       <c r="C160" s="3">
         <v>7500</v>
       </c>
@@ -24725,29 +24354,29 @@
       <c r="C161"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B162" s="49"/>
-      <c r="C162" s="49"/>
+      <c r="A162" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B162" s="47"/>
+      <c r="C162" s="47"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B163" s="47"/>
-      <c r="C163" s="47"/>
+      <c r="A163" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B163" s="45"/>
+      <c r="C163" s="45"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="B164" s="59"/>
-      <c r="C164" s="60"/>
+      <c r="A164" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B164" s="55"/>
+      <c r="C164" s="56"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B165" s="40">
         <v>18</v>
@@ -24760,10 +24389,7 @@
       <c r="A166" s="3">
         <v>19</v>
       </c>
-      <c r="B166" s="3" t="str">
-        <f>CONCATENATE(A166, "P08000")</f>
-        <v>19P08000</v>
-      </c>
+      <c r="B166" s="3"/>
       <c r="C166" s="3">
         <v>10600</v>
       </c>
@@ -24772,10 +24398,7 @@
       <c r="A167" s="3">
         <v>20</v>
       </c>
-      <c r="B167" s="3" t="str">
-        <f t="shared" ref="B167:B182" si="9">CONCATENATE(A167, "P08000")</f>
-        <v>20P08000</v>
-      </c>
+      <c r="B167" s="3"/>
       <c r="C167" s="3">
         <v>10450</v>
       </c>
@@ -24784,10 +24407,7 @@
       <c r="A168" s="3">
         <v>21</v>
       </c>
-      <c r="B168" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21P08000</v>
-      </c>
+      <c r="B168" s="3"/>
       <c r="C168" s="3">
         <v>10350</v>
       </c>
@@ -24796,10 +24416,7 @@
       <c r="A169" s="3">
         <v>22</v>
       </c>
-      <c r="B169" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>22P08000</v>
-      </c>
+      <c r="B169" s="3"/>
       <c r="C169" s="3">
         <v>10150</v>
       </c>
@@ -24808,10 +24425,7 @@
       <c r="A170" s="3">
         <v>23</v>
       </c>
-      <c r="B170" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>23P08000</v>
-      </c>
+      <c r="B170" s="3"/>
       <c r="C170" s="3">
         <v>9900</v>
       </c>
@@ -24820,10 +24434,7 @@
       <c r="A171" s="3">
         <v>24</v>
       </c>
-      <c r="B171" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>24P08000</v>
-      </c>
+      <c r="B171" s="3"/>
       <c r="C171" s="3">
         <v>9800</v>
       </c>
@@ -24832,10 +24443,7 @@
       <c r="A172" s="3">
         <v>25</v>
       </c>
-      <c r="B172" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>25P08000</v>
-      </c>
+      <c r="B172" s="3"/>
       <c r="C172" s="3">
         <v>9600</v>
       </c>
@@ -24844,10 +24452,7 @@
       <c r="A173" s="3">
         <v>26</v>
       </c>
-      <c r="B173" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>26P08000</v>
-      </c>
+      <c r="B173" s="3"/>
       <c r="C173" s="3">
         <v>9400</v>
       </c>
@@ -24856,10 +24461,7 @@
       <c r="A174" s="3">
         <v>27</v>
       </c>
-      <c r="B174" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>27P08000</v>
-      </c>
+      <c r="B174" s="3"/>
       <c r="C174" s="3">
         <v>9200</v>
       </c>
@@ -24868,10 +24470,7 @@
       <c r="A175" s="3">
         <v>28</v>
       </c>
-      <c r="B175" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>28P08000</v>
-      </c>
+      <c r="B175" s="3"/>
       <c r="C175" s="3">
         <v>9000</v>
       </c>
@@ -24880,10 +24479,7 @@
       <c r="A176" s="3">
         <v>29</v>
       </c>
-      <c r="B176" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>29P08000</v>
-      </c>
+      <c r="B176" s="3"/>
       <c r="C176" s="3">
         <v>8800</v>
       </c>
@@ -24892,10 +24488,7 @@
       <c r="A177" s="3">
         <v>30</v>
       </c>
-      <c r="B177" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>30P08000</v>
-      </c>
+      <c r="B177" s="3"/>
       <c r="C177" s="3">
         <v>8650</v>
       </c>
@@ -24904,10 +24497,7 @@
       <c r="A178" s="3">
         <v>31</v>
       </c>
-      <c r="B178" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>31P08000</v>
-      </c>
+      <c r="B178" s="3"/>
       <c r="C178" s="3">
         <v>8450</v>
       </c>
@@ -24916,10 +24506,7 @@
       <c r="A179" s="3">
         <v>32</v>
       </c>
-      <c r="B179" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>32P08000</v>
-      </c>
+      <c r="B179" s="3"/>
       <c r="C179" s="3">
         <v>8250</v>
       </c>
@@ -24928,10 +24515,7 @@
       <c r="A180" s="3">
         <v>33</v>
       </c>
-      <c r="B180" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>33P08000</v>
-      </c>
+      <c r="B180" s="3"/>
       <c r="C180" s="3">
         <v>8050</v>
       </c>
@@ -24940,10 +24524,7 @@
       <c r="A181" s="3">
         <v>34</v>
       </c>
-      <c r="B181" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>34P08000</v>
-      </c>
+      <c r="B181" s="3"/>
       <c r="C181" s="3">
         <v>7800</v>
       </c>
@@ -24952,10 +24533,7 @@
       <c r="A182" s="3">
         <v>35</v>
       </c>
-      <c r="B182" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>35P08000</v>
-      </c>
+      <c r="B182" s="3"/>
       <c r="C182" s="3">
         <v>7650</v>
       </c>
@@ -24967,29 +24545,29 @@
       <c r="H183" s="32"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B184" s="49"/>
-      <c r="C184" s="49"/>
+      <c r="A184" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B184" s="47"/>
+      <c r="C184" s="47"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B185" s="47"/>
-      <c r="C185" s="47"/>
+      <c r="A185" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B185" s="45"/>
+      <c r="C185" s="45"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="B186" s="59"/>
-      <c r="C186" s="60"/>
+      <c r="A186" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B186" s="55"/>
+      <c r="C186" s="56"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B187" s="40">
         <v>15</v>
@@ -25002,10 +24580,7 @@
       <c r="A188" s="3">
         <v>15</v>
       </c>
-      <c r="B188" s="3" t="str">
-        <f>CONCATENATE(A188, "P09000")</f>
-        <v>15P09000</v>
-      </c>
+      <c r="B188" s="3"/>
       <c r="C188" s="3">
         <v>10600</v>
       </c>
@@ -25014,10 +24589,7 @@
       <c r="A189" s="3">
         <v>16</v>
       </c>
-      <c r="B189" s="3" t="str">
-        <f t="shared" ref="B189:B205" si="10">CONCATENATE(A189, "P09000")</f>
-        <v>16P09000</v>
-      </c>
+      <c r="B189" s="3"/>
       <c r="C189" s="3">
         <v>10450</v>
       </c>
@@ -25026,10 +24598,7 @@
       <c r="A190" s="3">
         <v>17</v>
       </c>
-      <c r="B190" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>17P09000</v>
-      </c>
+      <c r="B190" s="3"/>
       <c r="C190" s="3">
         <v>10350</v>
       </c>
@@ -25038,10 +24607,7 @@
       <c r="A191" s="3">
         <v>18</v>
       </c>
-      <c r="B191" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>18P09000</v>
-      </c>
+      <c r="B191" s="3"/>
       <c r="C191" s="3">
         <v>10200</v>
       </c>
@@ -25050,10 +24616,7 @@
       <c r="A192" s="3">
         <v>19</v>
       </c>
-      <c r="B192" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>19P09000</v>
-      </c>
+      <c r="B192" s="3"/>
       <c r="C192" s="3">
         <v>10000</v>
       </c>
@@ -25062,10 +24625,7 @@
       <c r="A193" s="3">
         <v>20</v>
       </c>
-      <c r="B193" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>20P09000</v>
-      </c>
+      <c r="B193" s="3"/>
       <c r="C193" s="3">
         <v>9800</v>
       </c>
@@ -25074,10 +24634,7 @@
       <c r="A194" s="3">
         <v>21</v>
       </c>
-      <c r="B194" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>21P09000</v>
-      </c>
+      <c r="B194" s="3"/>
       <c r="C194" s="3">
         <v>9600</v>
       </c>
@@ -25086,10 +24643,7 @@
       <c r="A195" s="3">
         <v>22</v>
       </c>
-      <c r="B195" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>22P09000</v>
-      </c>
+      <c r="B195" s="3"/>
       <c r="C195" s="3">
         <v>9400</v>
       </c>
@@ -25098,10 +24652,7 @@
       <c r="A196" s="3">
         <v>23</v>
       </c>
-      <c r="B196" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>23P09000</v>
-      </c>
+      <c r="B196" s="3"/>
       <c r="C196" s="3">
         <v>9250</v>
       </c>
@@ -25110,10 +24661,7 @@
       <c r="A197" s="3">
         <v>24</v>
       </c>
-      <c r="B197" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>24P09000</v>
-      </c>
+      <c r="B197" s="3"/>
       <c r="C197" s="3">
         <v>9050</v>
       </c>
@@ -25122,10 +24670,7 @@
       <c r="A198" s="3">
         <v>25</v>
       </c>
-      <c r="B198" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>25P09000</v>
-      </c>
+      <c r="B198" s="3"/>
       <c r="C198" s="3">
         <v>8850</v>
       </c>
@@ -25134,10 +24679,7 @@
       <c r="A199" s="3">
         <v>26</v>
       </c>
-      <c r="B199" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>26P09000</v>
-      </c>
+      <c r="B199" s="3"/>
       <c r="C199" s="3">
         <v>8650</v>
       </c>
@@ -25146,10 +24688,7 @@
       <c r="A200" s="3">
         <v>27</v>
       </c>
-      <c r="B200" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>27P09000</v>
-      </c>
+      <c r="B200" s="3"/>
       <c r="C200" s="3">
         <v>8450</v>
       </c>
@@ -25158,10 +24697,7 @@
       <c r="A201" s="3">
         <v>28</v>
       </c>
-      <c r="B201" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>28P09000</v>
-      </c>
+      <c r="B201" s="3"/>
       <c r="C201" s="3">
         <v>8250</v>
       </c>
@@ -25170,10 +24706,7 @@
       <c r="A202" s="3">
         <v>29</v>
       </c>
-      <c r="B202" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>29P09000</v>
-      </c>
+      <c r="B202" s="3"/>
       <c r="C202" s="3">
         <v>8100</v>
       </c>
@@ -25182,10 +24715,7 @@
       <c r="A203" s="3">
         <v>30</v>
       </c>
-      <c r="B203" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>30P09000</v>
-      </c>
+      <c r="B203" s="3"/>
       <c r="C203" s="3">
         <v>7900</v>
       </c>
@@ -25194,10 +24724,7 @@
       <c r="A204" s="3">
         <v>31</v>
       </c>
-      <c r="B204" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>31P09000</v>
-      </c>
+      <c r="B204" s="3"/>
       <c r="C204" s="3">
         <v>7700</v>
       </c>
@@ -25206,10 +24733,7 @@
       <c r="A205" s="3">
         <v>32</v>
       </c>
-      <c r="B205" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>32P09000</v>
-      </c>
+      <c r="B205" s="3"/>
       <c r="C205" s="3">
         <v>7500</v>
       </c>
@@ -25220,29 +24744,29 @@
       <c r="C206"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B207" s="49"/>
-      <c r="C207" s="49"/>
+      <c r="A207" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B207" s="47"/>
+      <c r="C207" s="47"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="B208" s="47"/>
-      <c r="C208" s="47"/>
+      <c r="A208" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B208" s="45"/>
+      <c r="C208" s="45"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B209" s="59"/>
-      <c r="C209" s="60"/>
+      <c r="A209" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B209" s="55"/>
+      <c r="C209" s="56"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B210" s="40">
         <v>10</v>
@@ -25255,10 +24779,7 @@
       <c r="A211" s="3">
         <v>10</v>
       </c>
-      <c r="B211" s="3" t="str">
-        <f>CONCATENATE(A211, "P10000")</f>
-        <v>10P10000</v>
-      </c>
+      <c r="B211" s="3"/>
       <c r="C211" s="3">
         <v>10600</v>
       </c>
@@ -25267,10 +24788,7 @@
       <c r="A212" s="3">
         <v>11</v>
       </c>
-      <c r="B212" s="3" t="str">
-        <f t="shared" ref="B212:B229" si="11">CONCATENATE(A212, "P10000")</f>
-        <v>11P10000</v>
-      </c>
+      <c r="B212" s="3"/>
       <c r="C212" s="3">
         <v>10550</v>
       </c>
@@ -25279,10 +24797,7 @@
       <c r="A213" s="3">
         <v>12</v>
       </c>
-      <c r="B213" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>12P10000</v>
-      </c>
+      <c r="B213" s="3"/>
       <c r="C213" s="3">
         <v>10450</v>
       </c>
@@ -25291,10 +24806,7 @@
       <c r="A214" s="3">
         <v>13</v>
       </c>
-      <c r="B214" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>13P10000</v>
-      </c>
+      <c r="B214" s="3"/>
       <c r="C214" s="3">
         <v>10300</v>
       </c>
@@ -25303,10 +24815,7 @@
       <c r="A215" s="3">
         <v>14</v>
       </c>
-      <c r="B215" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>14P10000</v>
-      </c>
+      <c r="B215" s="3"/>
       <c r="C215" s="3">
         <v>10150</v>
       </c>
@@ -25315,10 +24824,7 @@
       <c r="A216" s="3">
         <v>15</v>
       </c>
-      <c r="B216" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>15P10000</v>
-      </c>
+      <c r="B216" s="3"/>
       <c r="C216" s="3">
         <v>10000</v>
       </c>
@@ -25327,10 +24833,7 @@
       <c r="A217" s="3">
         <v>16</v>
       </c>
-      <c r="B217" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>16P10000</v>
-      </c>
+      <c r="B217" s="3"/>
       <c r="C217" s="3">
         <v>9800</v>
       </c>
@@ -25339,10 +24842,7 @@
       <c r="A218" s="3">
         <v>17</v>
       </c>
-      <c r="B218" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>17P10000</v>
-      </c>
+      <c r="B218" s="3"/>
       <c r="C218" s="3">
         <v>9650</v>
       </c>
@@ -25351,10 +24851,7 @@
       <c r="A219" s="3">
         <v>18</v>
       </c>
-      <c r="B219" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>18P10000</v>
-      </c>
+      <c r="B219" s="3"/>
       <c r="C219" s="3">
         <v>9450</v>
       </c>
@@ -25363,10 +24860,7 @@
       <c r="A220" s="3">
         <v>19</v>
       </c>
-      <c r="B220" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>19P10000</v>
-      </c>
+      <c r="B220" s="3"/>
       <c r="C220" s="3">
         <v>9300</v>
       </c>
@@ -25375,10 +24869,7 @@
       <c r="A221" s="3">
         <v>20</v>
       </c>
-      <c r="B221" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>20P10000</v>
-      </c>
+      <c r="B221" s="3"/>
       <c r="C221" s="3">
         <v>9100</v>
       </c>
@@ -25387,10 +24878,7 @@
       <c r="A222" s="3">
         <v>21</v>
       </c>
-      <c r="B222" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>21P10000</v>
-      </c>
+      <c r="B222" s="3"/>
       <c r="C222" s="3">
         <v>8900</v>
       </c>
@@ -25399,10 +24887,7 @@
       <c r="A223" s="3">
         <v>22</v>
       </c>
-      <c r="B223" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>22P10000</v>
-      </c>
+      <c r="B223" s="3"/>
       <c r="C223" s="3">
         <v>8700</v>
       </c>
@@ -25411,10 +24896,7 @@
       <c r="A224" s="3">
         <v>23</v>
       </c>
-      <c r="B224" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>23P10000</v>
-      </c>
+      <c r="B224" s="3"/>
       <c r="C224" s="3">
         <v>8500</v>
       </c>
@@ -25423,10 +24905,7 @@
       <c r="A225" s="3">
         <v>24</v>
       </c>
-      <c r="B225" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>24P10000</v>
-      </c>
+      <c r="B225" s="3"/>
       <c r="C225" s="3">
         <v>8300</v>
       </c>
@@ -25435,10 +24914,7 @@
       <c r="A226" s="3">
         <v>25</v>
       </c>
-      <c r="B226" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>25P10000</v>
-      </c>
+      <c r="B226" s="3"/>
       <c r="C226" s="3">
         <v>8100</v>
       </c>
@@ -25447,10 +24923,7 @@
       <c r="A227" s="3">
         <v>26</v>
       </c>
-      <c r="B227" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>26P10000</v>
-      </c>
+      <c r="B227" s="3"/>
       <c r="C227" s="3">
         <v>7900</v>
       </c>
@@ -25459,10 +24932,7 @@
       <c r="A228" s="3">
         <v>27</v>
       </c>
-      <c r="B228" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>27P10000</v>
-      </c>
+      <c r="B228" s="3"/>
       <c r="C228" s="3">
         <v>7700</v>
       </c>
@@ -25471,10 +24941,7 @@
       <c r="A229" s="3">
         <v>28</v>
       </c>
-      <c r="B229" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>28P10000</v>
-      </c>
+      <c r="B229" s="3"/>
       <c r="C229" s="3">
         <v>7500</v>
       </c>
@@ -25492,6 +24959,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="A209:C209"/>
     <mergeCell ref="A185:C185"/>
@@ -25508,26 +24995,6 @@
     <mergeCell ref="A118:C118"/>
     <mergeCell ref="A141:C141"/>
     <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -25541,55 +25008,54 @@
   </sheetPr>
   <dimension ref="A1:C319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="B322" sqref="B322"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>50</v>
       </c>
-      <c r="B5" s="3" t="str">
-        <f>CONCATENATE(A5, "P1000")</f>
-        <v>50P1000</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="33">
         <v>10600</v>
       </c>
@@ -25598,10 +25064,7 @@
       <c r="A6" s="3">
         <v>51</v>
       </c>
-      <c r="B6" s="3" t="str">
-        <f t="shared" ref="B6:B8" si="0">CONCATENATE(A6, "P1000")</f>
-        <v>51P1000</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="33">
         <v>10600</v>
       </c>
@@ -25610,10 +25073,7 @@
       <c r="A7" s="3">
         <v>52</v>
       </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>52P1000</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="33">
         <v>10500</v>
       </c>
@@ -25622,10 +25082,7 @@
       <c r="A8" s="3">
         <v>53</v>
       </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>53P1000</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="33">
         <v>10450</v>
       </c>
@@ -25634,45 +25091,42 @@
       <c r="C9" s="34"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
+      <c r="A10" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44</v>
       </c>
-      <c r="B14" s="3" t="str">
-        <f>CONCATENATE(A14, "P2000")</f>
-        <v>44P2000</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="33">
         <f>A14 *-50+12800</f>
         <v>10600</v>
@@ -25682,12 +25136,9 @@
       <c r="A15" s="3">
         <v>45</v>
       </c>
-      <c r="B15" s="3" t="str">
-        <f t="shared" ref="B15:B21" si="1">CONCATENATE(A15, "P2000")</f>
-        <v>45P2000</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="33">
-        <f t="shared" ref="C15:C21" si="2">A15 *-50+12800</f>
+        <f t="shared" ref="C15:C21" si="0">A15 *-50+12800</f>
         <v>10550</v>
       </c>
     </row>
@@ -25695,12 +25146,9 @@
       <c r="A16" s="3">
         <v>46</v>
       </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>46P2000</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10500</v>
       </c>
     </row>
@@ -25708,12 +25156,9 @@
       <c r="A17" s="3">
         <v>47</v>
       </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>47P2000</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10450</v>
       </c>
     </row>
@@ -25721,12 +25166,9 @@
       <c r="A18" s="3">
         <v>48</v>
       </c>
-      <c r="B18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>48P2000</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10400</v>
       </c>
     </row>
@@ -25734,12 +25176,9 @@
       <c r="A19" s="3">
         <v>49</v>
       </c>
-      <c r="B19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>49P2000</v>
-      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10350</v>
       </c>
     </row>
@@ -25747,12 +25186,9 @@
       <c r="A20" s="3">
         <v>50</v>
       </c>
-      <c r="B20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>50P2000</v>
-      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10300</v>
       </c>
     </row>
@@ -25760,12 +25196,9 @@
       <c r="A21" s="3">
         <v>51</v>
       </c>
-      <c r="B21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>51P2000</v>
-      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10250</v>
       </c>
     </row>
@@ -25773,45 +25206,42 @@
       <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
+      <c r="A23" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>38</v>
       </c>
-      <c r="B27" s="3" t="str">
-        <f>CONCATENATE(A27, "P3000")</f>
-        <v>38P3000</v>
-      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="33">
         <v>10600</v>
       </c>
@@ -25820,10 +25250,7 @@
       <c r="A28" s="3">
         <v>39</v>
       </c>
-      <c r="B28" s="3" t="str">
-        <f t="shared" ref="B28:B38" si="3">CONCATENATE(A28, "P3000")</f>
-        <v>39P3000</v>
-      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="33">
         <f>A28 *-56.25+12750</f>
         <v>10556.25</v>
@@ -25833,12 +25260,9 @@
       <c r="A29" s="3">
         <v>40</v>
       </c>
-      <c r="B29" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>40P3000</v>
-      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="33">
-        <f t="shared" ref="C29:C38" si="4">A29 *-56.25+12750</f>
+        <f t="shared" ref="C29:C38" si="1">A29 *-56.25+12750</f>
         <v>10500</v>
       </c>
     </row>
@@ -25846,12 +25270,9 @@
       <c r="A30" s="3">
         <v>41</v>
       </c>
-      <c r="B30" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>41P3000</v>
-      </c>
+      <c r="B30" s="3"/>
       <c r="C30" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10443.75</v>
       </c>
     </row>
@@ -25859,12 +25280,9 @@
       <c r="A31" s="3">
         <v>42</v>
       </c>
-      <c r="B31" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>42P3000</v>
-      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10387.5</v>
       </c>
     </row>
@@ -25872,12 +25290,9 @@
       <c r="A32" s="3">
         <v>43</v>
       </c>
-      <c r="B32" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>43P3000</v>
-      </c>
+      <c r="B32" s="3"/>
       <c r="C32" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10331.25</v>
       </c>
     </row>
@@ -25885,12 +25300,9 @@
       <c r="A33" s="3">
         <v>44</v>
       </c>
-      <c r="B33" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>44P3000</v>
-      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10275</v>
       </c>
     </row>
@@ -25898,12 +25310,9 @@
       <c r="A34" s="3">
         <v>45</v>
       </c>
-      <c r="B34" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>45P3000</v>
-      </c>
+      <c r="B34" s="3"/>
       <c r="C34" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10218.75</v>
       </c>
     </row>
@@ -25911,12 +25320,9 @@
       <c r="A35" s="3">
         <v>46</v>
       </c>
-      <c r="B35" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>46P3000</v>
-      </c>
+      <c r="B35" s="3"/>
       <c r="C35" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10162.5</v>
       </c>
     </row>
@@ -25924,12 +25330,9 @@
       <c r="A36" s="3">
         <v>47</v>
       </c>
-      <c r="B36" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>47P3000</v>
-      </c>
+      <c r="B36" s="3"/>
       <c r="C36" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10106.25</v>
       </c>
     </row>
@@ -25937,12 +25340,9 @@
       <c r="A37" s="3">
         <v>48</v>
       </c>
-      <c r="B37" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>48P3000</v>
-      </c>
+      <c r="B37" s="3"/>
       <c r="C37" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10050</v>
       </c>
     </row>
@@ -25950,12 +25350,9 @@
       <c r="A38" s="3">
         <v>49</v>
       </c>
-      <c r="B38" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>49P3000</v>
-      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>9993.75</v>
       </c>
     </row>
@@ -25963,45 +25360,42 @@
       <c r="C39" s="34"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="56"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>31</v>
       </c>
-      <c r="B44" s="3" t="str">
-        <f>CONCATENATE(A44, "P4000")</f>
-        <v>31P4000</v>
-      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="33">
         <v>10600</v>
       </c>
@@ -26010,10 +25404,7 @@
       <c r="A45" s="3">
         <v>32</v>
       </c>
-      <c r="B45" s="3" t="str">
-        <f t="shared" ref="B45:B60" si="5">CONCATENATE(A45, "P4000")</f>
-        <v>32P4000</v>
-      </c>
+      <c r="B45" s="3"/>
       <c r="C45" s="33">
         <f>A45 *-54.5454545454545+12313.6363636364</f>
         <v>10568.181818181856</v>
@@ -26023,12 +25414,9 @@
       <c r="A46" s="3">
         <v>33</v>
       </c>
-      <c r="B46" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>33P4000</v>
-      </c>
+      <c r="B46" s="3"/>
       <c r="C46" s="33">
-        <f t="shared" ref="C46:C59" si="6">A46 *-54.5454545454545+12313.6363636364</f>
+        <f t="shared" ref="C46:C59" si="2">A46 *-54.5454545454545+12313.6363636364</f>
         <v>10513.636363636402</v>
       </c>
     </row>
@@ -26036,12 +25424,9 @@
       <c r="A47" s="3">
         <v>34</v>
       </c>
-      <c r="B47" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>34P4000</v>
-      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10459.090909090948</v>
       </c>
     </row>
@@ -26049,12 +25434,9 @@
       <c r="A48" s="3">
         <v>35</v>
       </c>
-      <c r="B48" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35P4000</v>
-      </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10404.545454545492</v>
       </c>
     </row>
@@ -26062,12 +25444,9 @@
       <c r="A49" s="3">
         <v>36</v>
       </c>
-      <c r="B49" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>36P4000</v>
-      </c>
+      <c r="B49" s="3"/>
       <c r="C49" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10350.000000000038</v>
       </c>
     </row>
@@ -26075,12 +25454,9 @@
       <c r="A50" s="3">
         <v>37</v>
       </c>
-      <c r="B50" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>37P4000</v>
-      </c>
+      <c r="B50" s="3"/>
       <c r="C50" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10295.454545454584</v>
       </c>
     </row>
@@ -26088,12 +25464,9 @@
       <c r="A51" s="3">
         <v>38</v>
       </c>
-      <c r="B51" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>38P4000</v>
-      </c>
+      <c r="B51" s="3"/>
       <c r="C51" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10240.90909090913</v>
       </c>
     </row>
@@ -26101,12 +25474,9 @@
       <c r="A52" s="3">
         <v>39</v>
       </c>
-      <c r="B52" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>39P4000</v>
-      </c>
+      <c r="B52" s="3"/>
       <c r="C52" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10186.363636363676</v>
       </c>
     </row>
@@ -26114,12 +25484,9 @@
       <c r="A53" s="3">
         <v>40</v>
       </c>
-      <c r="B53" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>40P4000</v>
-      </c>
+      <c r="B53" s="3"/>
       <c r="C53" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10131.81818181822</v>
       </c>
     </row>
@@ -26127,12 +25494,9 @@
       <c r="A54" s="3">
         <v>41</v>
       </c>
-      <c r="B54" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>41P4000</v>
-      </c>
+      <c r="B54" s="3"/>
       <c r="C54" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10077.272727272766</v>
       </c>
     </row>
@@ -26140,12 +25504,9 @@
       <c r="A55" s="3">
         <v>42</v>
       </c>
-      <c r="B55" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>42P4000</v>
-      </c>
+      <c r="B55" s="3"/>
       <c r="C55" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10022.727272727312</v>
       </c>
     </row>
@@ -26153,12 +25514,9 @@
       <c r="A56" s="3">
         <v>43</v>
       </c>
-      <c r="B56" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>43P4000</v>
-      </c>
+      <c r="B56" s="3"/>
       <c r="C56" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9968.1818181818562</v>
       </c>
     </row>
@@ -26166,12 +25524,9 @@
       <c r="A57" s="3">
         <v>44</v>
       </c>
-      <c r="B57" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>44P4000</v>
-      </c>
+      <c r="B57" s="3"/>
       <c r="C57" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9913.6363636364022</v>
       </c>
     </row>
@@ -26179,12 +25534,9 @@
       <c r="A58" s="3">
         <v>45</v>
       </c>
-      <c r="B58" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>45P4000</v>
-      </c>
+      <c r="B58" s="3"/>
       <c r="C58" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9859.0909090909481</v>
       </c>
     </row>
@@ -26192,12 +25544,9 @@
       <c r="A59" s="3">
         <v>46</v>
       </c>
-      <c r="B59" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>46P4000</v>
-      </c>
+      <c r="B59" s="3"/>
       <c r="C59" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9804.5454545454941</v>
       </c>
     </row>
@@ -26205,10 +25554,7 @@
       <c r="A60" s="3">
         <v>47</v>
       </c>
-      <c r="B60" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>47P4000</v>
-      </c>
+      <c r="B60" s="3"/>
       <c r="C60" s="33">
         <f>A60 *-54.5454545454545+12313.6363636364</f>
         <v>9750.00000000004</v>
@@ -26219,45 +25565,42 @@
       <c r="C61" s="34"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
+      <c r="A62" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="B64" s="59"/>
-      <c r="C64" s="60"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="56"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>24</v>
       </c>
-      <c r="B66" s="3" t="str">
-        <f>CONCATENATE(A66, "P5000")</f>
-        <v>24P5000</v>
-      </c>
+      <c r="B66" s="3"/>
       <c r="C66" s="33">
         <v>10600</v>
       </c>
@@ -26266,10 +25609,7 @@
       <c r="A67" s="3">
         <v>25</v>
       </c>
-      <c r="B67" s="3" t="str">
-        <f t="shared" ref="B67:B87" si="7">CONCATENATE(A67, "P5000")</f>
-        <v>25P5000</v>
-      </c>
+      <c r="B67" s="3"/>
       <c r="C67" s="33">
         <f>A67 *-53.3333333333333+11900</f>
         <v>10566.666666666668</v>
@@ -26279,12 +25619,9 @@
       <c r="A68" s="3">
         <v>26</v>
       </c>
-      <c r="B68" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>26P5000</v>
-      </c>
+      <c r="B68" s="3"/>
       <c r="C68" s="33">
-        <f t="shared" ref="C68:C87" si="8">A68 *-53.3333333333333+11900</f>
+        <f t="shared" ref="C68:C87" si="3">A68 *-53.3333333333333+11900</f>
         <v>10513.333333333334</v>
       </c>
     </row>
@@ -26292,12 +25629,9 @@
       <c r="A69" s="3">
         <v>27</v>
       </c>
-      <c r="B69" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>27P5000</v>
-      </c>
+      <c r="B69" s="3"/>
       <c r="C69" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>10460</v>
       </c>
     </row>
@@ -26305,12 +25639,9 @@
       <c r="A70" s="3">
         <v>28</v>
       </c>
-      <c r="B70" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>28P5000</v>
-      </c>
+      <c r="B70" s="3"/>
       <c r="C70" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>10406.666666666668</v>
       </c>
     </row>
@@ -26318,12 +25649,9 @@
       <c r="A71" s="3">
         <v>29</v>
       </c>
-      <c r="B71" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>29P5000</v>
-      </c>
+      <c r="B71" s="3"/>
       <c r="C71" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>10353.333333333334</v>
       </c>
     </row>
@@ -26331,12 +25659,9 @@
       <c r="A72" s="3">
         <v>30</v>
       </c>
-      <c r="B72" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>30P5000</v>
-      </c>
+      <c r="B72" s="3"/>
       <c r="C72" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>10300</v>
       </c>
     </row>
@@ -26344,12 +25669,9 @@
       <c r="A73" s="3">
         <v>31</v>
       </c>
-      <c r="B73" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>31P5000</v>
-      </c>
+      <c r="B73" s="3"/>
       <c r="C73" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>10246.666666666668</v>
       </c>
     </row>
@@ -26357,12 +25679,9 @@
       <c r="A74" s="3">
         <v>32</v>
       </c>
-      <c r="B74" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>32P5000</v>
-      </c>
+      <c r="B74" s="3"/>
       <c r="C74" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>10193.333333333334</v>
       </c>
     </row>
@@ -26370,12 +25689,9 @@
       <c r="A75" s="3">
         <v>33</v>
       </c>
-      <c r="B75" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>33P5000</v>
-      </c>
+      <c r="B75" s="3"/>
       <c r="C75" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>10140.000000000002</v>
       </c>
     </row>
@@ -26383,12 +25699,9 @@
       <c r="A76" s="3">
         <v>34</v>
       </c>
-      <c r="B76" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>34P5000</v>
-      </c>
+      <c r="B76" s="3"/>
       <c r="C76" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>10086.666666666668</v>
       </c>
     </row>
@@ -26396,12 +25709,9 @@
       <c r="A77" s="3">
         <v>35</v>
       </c>
-      <c r="B77" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>35P5000</v>
-      </c>
+      <c r="B77" s="3"/>
       <c r="C77" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>10033.333333333334</v>
       </c>
     </row>
@@ -26409,12 +25719,9 @@
       <c r="A78" s="3">
         <v>36</v>
       </c>
-      <c r="B78" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>36P5000</v>
-      </c>
+      <c r="B78" s="3"/>
       <c r="C78" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>9980.0000000000018</v>
       </c>
     </row>
@@ -26422,12 +25729,9 @@
       <c r="A79" s="3">
         <v>37</v>
       </c>
-      <c r="B79" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>37P5000</v>
-      </c>
+      <c r="B79" s="3"/>
       <c r="C79" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>9926.6666666666679</v>
       </c>
     </row>
@@ -26435,12 +25739,9 @@
       <c r="A80" s="3">
         <v>38</v>
       </c>
-      <c r="B80" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>38P5000</v>
-      </c>
+      <c r="B80" s="3"/>
       <c r="C80" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>9873.3333333333339</v>
       </c>
     </row>
@@ -26448,12 +25749,9 @@
       <c r="A81" s="3">
         <v>39</v>
       </c>
-      <c r="B81" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>39P5000</v>
-      </c>
+      <c r="B81" s="3"/>
       <c r="C81" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>9820.0000000000018</v>
       </c>
     </row>
@@ -26461,12 +25759,9 @@
       <c r="A82" s="3">
         <v>40</v>
       </c>
-      <c r="B82" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>40P5000</v>
-      </c>
+      <c r="B82" s="3"/>
       <c r="C82" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>9766.6666666666679</v>
       </c>
     </row>
@@ -26474,12 +25769,9 @@
       <c r="A83" s="3">
         <v>41</v>
       </c>
-      <c r="B83" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>41P5000</v>
-      </c>
+      <c r="B83" s="3"/>
       <c r="C83" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>9713.3333333333358</v>
       </c>
     </row>
@@ -26487,12 +25779,9 @@
       <c r="A84" s="3">
         <v>42</v>
       </c>
-      <c r="B84" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>42P5000</v>
-      </c>
+      <c r="B84" s="3"/>
       <c r="C84" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>9660.0000000000018</v>
       </c>
     </row>
@@ -26500,12 +25789,9 @@
       <c r="A85" s="3">
         <v>43</v>
       </c>
-      <c r="B85" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>43P5000</v>
-      </c>
+      <c r="B85" s="3"/>
       <c r="C85" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>9606.6666666666679</v>
       </c>
     </row>
@@ -26513,12 +25799,9 @@
       <c r="A86" s="3">
         <v>44</v>
       </c>
-      <c r="B86" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>44P5000</v>
-      </c>
+      <c r="B86" s="3"/>
       <c r="C86" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>9553.3333333333358</v>
       </c>
     </row>
@@ -26526,12 +25809,9 @@
       <c r="A87" s="3">
         <v>45</v>
       </c>
-      <c r="B87" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>45P5000</v>
-      </c>
+      <c r="B87" s="3"/>
       <c r="C87" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>9500.0000000000018</v>
       </c>
     </row>
@@ -26539,45 +25819,42 @@
       <c r="C88" s="34"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49"/>
+      <c r="A89" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91" s="59"/>
-      <c r="C91" s="60"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="56"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>18</v>
       </c>
-      <c r="B93" s="31" t="str">
-        <f>CONCATENATE(A93, "P6000")</f>
-        <v>18P6000</v>
-      </c>
+      <c r="B93" s="31"/>
       <c r="C93" s="33">
         <v>10600</v>
       </c>
@@ -26586,10 +25863,7 @@
       <c r="A94" s="3">
         <v>19</v>
       </c>
-      <c r="B94" s="31" t="str">
-        <f t="shared" ref="B94:B118" si="9">CONCATENATE(A94, "P6000")</f>
-        <v>19P6000</v>
-      </c>
+      <c r="B94" s="31"/>
       <c r="C94" s="33">
         <f>A94 *-53.3333333333333+11540</f>
         <v>10526.666666666668</v>
@@ -26599,12 +25873,9 @@
       <c r="A95" s="3">
         <v>20</v>
       </c>
-      <c r="B95" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>20P6000</v>
-      </c>
+      <c r="B95" s="31"/>
       <c r="C95" s="33">
-        <f t="shared" ref="C95:C118" si="10">A95 *-53.3333333333333+11540</f>
+        <f t="shared" ref="C95:C118" si="4">A95 *-53.3333333333333+11540</f>
         <v>10473.333333333334</v>
       </c>
     </row>
@@ -26612,12 +25883,9 @@
       <c r="A96" s="3">
         <v>21</v>
       </c>
-      <c r="B96" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>21P6000</v>
-      </c>
+      <c r="B96" s="31"/>
       <c r="C96" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>10420</v>
       </c>
     </row>
@@ -26625,12 +25893,9 @@
       <c r="A97" s="3">
         <v>22</v>
       </c>
-      <c r="B97" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>22P6000</v>
-      </c>
+      <c r="B97" s="31"/>
       <c r="C97" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>10366.666666666668</v>
       </c>
     </row>
@@ -26638,12 +25903,9 @@
       <c r="A98" s="3">
         <v>23</v>
       </c>
-      <c r="B98" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>23P6000</v>
-      </c>
+      <c r="B98" s="31"/>
       <c r="C98" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>10313.333333333334</v>
       </c>
     </row>
@@ -26651,12 +25913,9 @@
       <c r="A99" s="3">
         <v>24</v>
       </c>
-      <c r="B99" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>24P6000</v>
-      </c>
+      <c r="B99" s="31"/>
       <c r="C99" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>10260</v>
       </c>
     </row>
@@ -26664,12 +25923,9 @@
       <c r="A100" s="3">
         <v>25</v>
       </c>
-      <c r="B100" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>25P6000</v>
-      </c>
+      <c r="B100" s="31"/>
       <c r="C100" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>10206.666666666668</v>
       </c>
     </row>
@@ -26677,12 +25933,9 @@
       <c r="A101" s="3">
         <v>26</v>
       </c>
-      <c r="B101" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>26P6000</v>
-      </c>
+      <c r="B101" s="31"/>
       <c r="C101" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>10153.333333333334</v>
       </c>
     </row>
@@ -26690,12 +25943,9 @@
       <c r="A102" s="3">
         <v>27</v>
       </c>
-      <c r="B102" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>27P6000</v>
-      </c>
+      <c r="B102" s="31"/>
       <c r="C102" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>10100</v>
       </c>
     </row>
@@ -26703,12 +25953,9 @@
       <c r="A103" s="3">
         <v>28</v>
       </c>
-      <c r="B103" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>28P6000</v>
-      </c>
+      <c r="B103" s="31"/>
       <c r="C103" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>10046.666666666668</v>
       </c>
     </row>
@@ -26716,12 +25963,9 @@
       <c r="A104" s="3">
         <v>29</v>
       </c>
-      <c r="B104" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>29P6000</v>
-      </c>
+      <c r="B104" s="31"/>
       <c r="C104" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9993.3333333333339</v>
       </c>
     </row>
@@ -26729,12 +25973,9 @@
       <c r="A105" s="3">
         <v>30</v>
       </c>
-      <c r="B105" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>30P6000</v>
-      </c>
+      <c r="B105" s="31"/>
       <c r="C105" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9940</v>
       </c>
     </row>
@@ -26742,12 +25983,9 @@
       <c r="A106" s="3">
         <v>31</v>
       </c>
-      <c r="B106" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>31P6000</v>
-      </c>
+      <c r="B106" s="31"/>
       <c r="C106" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9886.6666666666679</v>
       </c>
     </row>
@@ -26755,12 +25993,9 @@
       <c r="A107" s="3">
         <v>32</v>
       </c>
-      <c r="B107" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>32P6000</v>
-      </c>
+      <c r="B107" s="31"/>
       <c r="C107" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9833.3333333333339</v>
       </c>
     </row>
@@ -26768,12 +26003,9 @@
       <c r="A108" s="3">
         <v>33</v>
       </c>
-      <c r="B108" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>33P6000</v>
-      </c>
+      <c r="B108" s="31"/>
       <c r="C108" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9780.0000000000018</v>
       </c>
     </row>
@@ -26781,12 +26013,9 @@
       <c r="A109" s="3">
         <v>34</v>
       </c>
-      <c r="B109" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>34P6000</v>
-      </c>
+      <c r="B109" s="31"/>
       <c r="C109" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9726.6666666666679</v>
       </c>
     </row>
@@ -26794,12 +26023,9 @@
       <c r="A110" s="3">
         <v>35</v>
       </c>
-      <c r="B110" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>35P6000</v>
-      </c>
+      <c r="B110" s="31"/>
       <c r="C110" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9673.3333333333339</v>
       </c>
     </row>
@@ -26807,12 +26033,9 @@
       <c r="A111" s="3">
         <v>36</v>
       </c>
-      <c r="B111" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>36P6000</v>
-      </c>
+      <c r="B111" s="31"/>
       <c r="C111" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9620.0000000000018</v>
       </c>
     </row>
@@ -26820,12 +26043,9 @@
       <c r="A112" s="3">
         <v>37</v>
       </c>
-      <c r="B112" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>37P6000</v>
-      </c>
+      <c r="B112" s="31"/>
       <c r="C112" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9566.6666666666679</v>
       </c>
     </row>
@@ -26833,12 +26053,9 @@
       <c r="A113" s="3">
         <v>38</v>
       </c>
-      <c r="B113" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>38P6000</v>
-      </c>
+      <c r="B113" s="31"/>
       <c r="C113" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9513.3333333333339</v>
       </c>
     </row>
@@ -26846,12 +26063,9 @@
       <c r="A114" s="3">
         <v>39</v>
       </c>
-      <c r="B114" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>39P6000</v>
-      </c>
+      <c r="B114" s="31"/>
       <c r="C114" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9460.0000000000018</v>
       </c>
     </row>
@@ -26859,12 +26073,9 @@
       <c r="A115" s="3">
         <v>40</v>
       </c>
-      <c r="B115" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>40P6000</v>
-      </c>
+      <c r="B115" s="31"/>
       <c r="C115" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9406.6666666666679</v>
       </c>
     </row>
@@ -26872,12 +26083,9 @@
       <c r="A116" s="3">
         <v>41</v>
       </c>
-      <c r="B116" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>41P6000</v>
-      </c>
+      <c r="B116" s="31"/>
       <c r="C116" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9353.3333333333358</v>
       </c>
     </row>
@@ -26885,12 +26093,9 @@
       <c r="A117" s="3">
         <v>42</v>
       </c>
-      <c r="B117" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>42P6000</v>
-      </c>
+      <c r="B117" s="31"/>
       <c r="C117" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9300.0000000000018</v>
       </c>
     </row>
@@ -26898,12 +26103,9 @@
       <c r="A118" s="3">
         <v>43</v>
       </c>
-      <c r="B118" s="31" t="str">
-        <f t="shared" si="9"/>
-        <v>43P6000</v>
-      </c>
+      <c r="B118" s="31"/>
       <c r="C118" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9246.6666666666679</v>
       </c>
     </row>
@@ -26911,34 +26113,31 @@
       <c r="C119" s="34"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B120" s="49"/>
-      <c r="C120" s="49"/>
+      <c r="A120" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B120" s="47"/>
+      <c r="C120" s="47"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="47" t="s">
+      <c r="A121" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B121" s="47"/>
-      <c r="C121" s="47"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="B122" s="59"/>
-      <c r="C122" s="60"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="56"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>11</v>
       </c>
-      <c r="B123" s="3" t="str">
-        <f>CONCATENATE(A123, "P7000")</f>
-        <v>11P7000</v>
-      </c>
+      <c r="B123" s="3"/>
       <c r="C123" s="33">
         <v>10600</v>
       </c>
@@ -26947,10 +26146,7 @@
       <c r="A124" s="3">
         <v>12</v>
       </c>
-      <c r="B124" s="3" t="str">
-        <f t="shared" ref="B124:B152" si="11">CONCATENATE(A124, "P7000")</f>
-        <v>12P7000</v>
-      </c>
+      <c r="B124" s="3"/>
       <c r="C124" s="33">
         <f>A124 *-53.7037037037037+11194.4444444444</f>
         <v>10549.999999999955</v>
@@ -26960,12 +26156,9 @@
       <c r="A125" s="3">
         <v>13</v>
       </c>
-      <c r="B125" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>13P7000</v>
-      </c>
+      <c r="B125" s="3"/>
       <c r="C125" s="33">
-        <f t="shared" ref="C125:C153" si="12">A125 *-53.7037037037037+11194.4444444444</f>
+        <f t="shared" ref="C125:C153" si="5">A125 *-53.7037037037037+11194.4444444444</f>
         <v>10496.296296296252</v>
       </c>
     </row>
@@ -26973,12 +26166,9 @@
       <c r="A126" s="3">
         <v>14</v>
       </c>
-      <c r="B126" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>14P7000</v>
-      </c>
+      <c r="B126" s="3"/>
       <c r="C126" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>10442.592592592548</v>
       </c>
     </row>
@@ -26986,12 +26176,9 @@
       <c r="A127" s="3">
         <v>15</v>
       </c>
-      <c r="B127" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>15P7000</v>
-      </c>
+      <c r="B127" s="3"/>
       <c r="C127" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>10388.888888888845</v>
       </c>
     </row>
@@ -26999,12 +26186,9 @@
       <c r="A128" s="3">
         <v>16</v>
       </c>
-      <c r="B128" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>16P7000</v>
-      </c>
+      <c r="B128" s="3"/>
       <c r="C128" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>10335.185185185141</v>
       </c>
     </row>
@@ -27012,12 +26196,9 @@
       <c r="A129" s="3">
         <v>17</v>
       </c>
-      <c r="B129" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>17P7000</v>
-      </c>
+      <c r="B129" s="3"/>
       <c r="C129" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>10281.481481481436</v>
       </c>
     </row>
@@ -27025,12 +26206,9 @@
       <c r="A130" s="3">
         <v>18</v>
       </c>
-      <c r="B130" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>18P7000</v>
-      </c>
+      <c r="B130" s="3"/>
       <c r="C130" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>10227.777777777734</v>
       </c>
     </row>
@@ -27038,12 +26216,9 @@
       <c r="A131" s="3">
         <v>19</v>
       </c>
-      <c r="B131" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>19P7000</v>
-      </c>
+      <c r="B131" s="3"/>
       <c r="C131" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>10174.074074074029</v>
       </c>
     </row>
@@ -27051,12 +26226,9 @@
       <c r="A132" s="3">
         <v>20</v>
       </c>
-      <c r="B132" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>20P7000</v>
-      </c>
+      <c r="B132" s="3"/>
       <c r="C132" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>10120.370370370325</v>
       </c>
     </row>
@@ -27064,12 +26236,9 @@
       <c r="A133" s="3">
         <v>21</v>
       </c>
-      <c r="B133" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>21P7000</v>
-      </c>
+      <c r="B133" s="3"/>
       <c r="C133" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>10066.666666666622</v>
       </c>
     </row>
@@ -27077,12 +26246,9 @@
       <c r="A134" s="3">
         <v>22</v>
       </c>
-      <c r="B134" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>22P7000</v>
-      </c>
+      <c r="B134" s="3"/>
       <c r="C134" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>10012.962962962918</v>
       </c>
     </row>
@@ -27090,12 +26256,9 @@
       <c r="A135" s="3">
         <v>23</v>
       </c>
-      <c r="B135" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>23P7000</v>
-      </c>
+      <c r="B135" s="3"/>
       <c r="C135" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9959.2592592592155</v>
       </c>
     </row>
@@ -27103,12 +26266,9 @@
       <c r="A136" s="3">
         <v>24</v>
       </c>
-      <c r="B136" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>24P7000</v>
-      </c>
+      <c r="B136" s="3"/>
       <c r="C136" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9905.5555555555111</v>
       </c>
     </row>
@@ -27116,12 +26276,9 @@
       <c r="A137" s="3">
         <v>25</v>
       </c>
-      <c r="B137" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>25P7000</v>
-      </c>
+      <c r="B137" s="3"/>
       <c r="C137" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9851.8518518518067</v>
       </c>
     </row>
@@ -27129,12 +26286,9 @@
       <c r="A138" s="3">
         <v>26</v>
       </c>
-      <c r="B138" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>26P7000</v>
-      </c>
+      <c r="B138" s="3"/>
       <c r="C138" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9798.1481481481042</v>
       </c>
     </row>
@@ -27142,12 +26296,9 @@
       <c r="A139" s="3">
         <v>27</v>
       </c>
-      <c r="B139" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>27P7000</v>
-      </c>
+      <c r="B139" s="3"/>
       <c r="C139" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9744.4444444443998</v>
       </c>
     </row>
@@ -27155,12 +26306,9 @@
       <c r="A140" s="3">
         <v>28</v>
       </c>
-      <c r="B140" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>28P7000</v>
-      </c>
+      <c r="B140" s="3"/>
       <c r="C140" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9690.7407407406954</v>
       </c>
     </row>
@@ -27168,12 +26316,9 @@
       <c r="A141" s="3">
         <v>29</v>
       </c>
-      <c r="B141" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>29P7000</v>
-      </c>
+      <c r="B141" s="3"/>
       <c r="C141" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9637.0370370369928</v>
       </c>
     </row>
@@ -27181,12 +26326,9 @@
       <c r="A142" s="3">
         <v>30</v>
       </c>
-      <c r="B142" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>30P7000</v>
-      </c>
+      <c r="B142" s="3"/>
       <c r="C142" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9583.3333333332885</v>
       </c>
     </row>
@@ -27194,12 +26336,9 @@
       <c r="A143" s="3">
         <v>31</v>
       </c>
-      <c r="B143" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>31P7000</v>
-      </c>
+      <c r="B143" s="3"/>
       <c r="C143" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9529.6296296295841</v>
       </c>
     </row>
@@ -27207,12 +26346,9 @@
       <c r="A144" s="3">
         <v>32</v>
       </c>
-      <c r="B144" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>32P7000</v>
-      </c>
+      <c r="B144" s="3"/>
       <c r="C144" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9475.9259259258815</v>
       </c>
     </row>
@@ -27220,12 +26356,9 @@
       <c r="A145" s="3">
         <v>33</v>
       </c>
-      <c r="B145" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>33P7000</v>
-      </c>
+      <c r="B145" s="3"/>
       <c r="C145" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9422.2222222221772</v>
       </c>
     </row>
@@ -27233,12 +26366,9 @@
       <c r="A146" s="3">
         <v>34</v>
       </c>
-      <c r="B146" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>34P7000</v>
-      </c>
+      <c r="B146" s="3"/>
       <c r="C146" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9368.5185185184746</v>
       </c>
     </row>
@@ -27246,12 +26376,9 @@
       <c r="A147" s="3">
         <v>35</v>
       </c>
-      <c r="B147" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>35P7000</v>
-      </c>
+      <c r="B147" s="3"/>
       <c r="C147" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9314.8148148147702</v>
       </c>
     </row>
@@ -27259,12 +26386,9 @@
       <c r="A148" s="3">
         <v>36</v>
       </c>
-      <c r="B148" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>36P7000</v>
-      </c>
+      <c r="B148" s="3"/>
       <c r="C148" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9261.1111111110658</v>
       </c>
     </row>
@@ -27272,12 +26396,9 @@
       <c r="A149" s="3">
         <v>37</v>
       </c>
-      <c r="B149" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>37P7000</v>
-      </c>
+      <c r="B149" s="3"/>
       <c r="C149" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9207.4074074073633</v>
       </c>
     </row>
@@ -27285,12 +26406,9 @@
       <c r="A150" s="3">
         <v>38</v>
       </c>
-      <c r="B150" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>38P7000</v>
-      </c>
+      <c r="B150" s="3"/>
       <c r="C150" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9153.7037037036589</v>
       </c>
     </row>
@@ -27298,12 +26416,9 @@
       <c r="A151" s="3">
         <v>39</v>
       </c>
-      <c r="B151" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>39P7000</v>
-      </c>
+      <c r="B151" s="3"/>
       <c r="C151" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9099.9999999999563</v>
       </c>
     </row>
@@ -27311,12 +26426,9 @@
       <c r="A152" s="3">
         <v>40</v>
       </c>
-      <c r="B152" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>40P7000</v>
-      </c>
+      <c r="B152" s="3"/>
       <c r="C152" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>9046.296296296252</v>
       </c>
     </row>
@@ -27324,12 +26436,9 @@
       <c r="A153" s="3">
         <v>41</v>
       </c>
-      <c r="B153" s="3" t="str">
-        <f>CONCATENATE(A153, "P7000")</f>
-        <v>41P7000</v>
-      </c>
+      <c r="B153" s="3"/>
       <c r="C153" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>8992.5925925925476</v>
       </c>
     </row>
@@ -27337,34 +26446,31 @@
       <c r="C154" s="34"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B155" s="49"/>
-      <c r="C155" s="49"/>
+      <c r="A155" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B155" s="47"/>
+      <c r="C155" s="47"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="47" t="s">
+      <c r="A156" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B156" s="45"/>
+      <c r="C156" s="45"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B156" s="47"/>
-      <c r="C156" s="47"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="B157" s="59"/>
-      <c r="C157" s="60"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="56"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="19">
         <v>-2</v>
       </c>
-      <c r="B158" s="3" t="str">
-        <f>CONCATENATE(A158, "P8000")</f>
-        <v>-2P8000</v>
-      </c>
+      <c r="B158" s="3"/>
       <c r="C158" s="33">
         <v>10600</v>
       </c>
@@ -27373,10 +26479,7 @@
       <c r="A159" s="19">
         <v>-1</v>
       </c>
-      <c r="B159" s="3" t="str">
-        <f t="shared" ref="B159:B199" si="13">CONCATENATE(A159, "P8000")</f>
-        <v>-1P8000</v>
-      </c>
+      <c r="B159" s="3"/>
       <c r="C159" s="33">
         <f xml:space="preserve"> (-25 * A159) + 10575</f>
         <v>10600</v>
@@ -27386,10 +26489,7 @@
       <c r="A160" s="3">
         <v>0</v>
       </c>
-      <c r="B160" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>0P8000</v>
-      </c>
+      <c r="B160" s="3"/>
       <c r="C160" s="33">
         <f xml:space="preserve"> (-25 * A160) + 10575</f>
         <v>10575</v>
@@ -27399,12 +26499,9 @@
       <c r="A161" s="3">
         <v>1</v>
       </c>
-      <c r="B161" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>1P8000</v>
-      </c>
+      <c r="B161" s="3"/>
       <c r="C161" s="33">
-        <f t="shared" ref="C161:C169" si="14" xml:space="preserve"> (-25 * A161) + 10575</f>
+        <f t="shared" ref="C161:C169" si="6" xml:space="preserve"> (-25 * A161) + 10575</f>
         <v>10550</v>
       </c>
     </row>
@@ -27412,12 +26509,9 @@
       <c r="A162" s="3">
         <v>2</v>
       </c>
-      <c r="B162" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>2P8000</v>
-      </c>
+      <c r="B162" s="3"/>
       <c r="C162" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10525</v>
       </c>
     </row>
@@ -27425,12 +26519,9 @@
       <c r="A163" s="3">
         <v>3</v>
       </c>
-      <c r="B163" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>3P8000</v>
-      </c>
+      <c r="B163" s="3"/>
       <c r="C163" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10500</v>
       </c>
     </row>
@@ -27438,12 +26529,9 @@
       <c r="A164" s="3">
         <v>4</v>
       </c>
-      <c r="B164" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>4P8000</v>
-      </c>
+      <c r="B164" s="3"/>
       <c r="C164" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10475</v>
       </c>
     </row>
@@ -27451,12 +26539,9 @@
       <c r="A165" s="3">
         <v>5</v>
       </c>
-      <c r="B165" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>5P8000</v>
-      </c>
+      <c r="B165" s="3"/>
       <c r="C165" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10450</v>
       </c>
     </row>
@@ -27464,12 +26549,9 @@
       <c r="A166" s="3">
         <v>6</v>
       </c>
-      <c r="B166" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>6P8000</v>
-      </c>
+      <c r="B166" s="3"/>
       <c r="C166" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10425</v>
       </c>
     </row>
@@ -27477,12 +26559,9 @@
       <c r="A167" s="3">
         <v>7</v>
       </c>
-      <c r="B167" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>7P8000</v>
-      </c>
+      <c r="B167" s="3"/>
       <c r="C167" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10400</v>
       </c>
     </row>
@@ -27490,12 +26569,9 @@
       <c r="A168" s="3">
         <v>8</v>
       </c>
-      <c r="B168" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>8P8000</v>
-      </c>
+      <c r="B168" s="3"/>
       <c r="C168" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10375</v>
       </c>
     </row>
@@ -27503,12 +26579,9 @@
       <c r="A169" s="3">
         <v>9</v>
       </c>
-      <c r="B169" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>9P8000</v>
-      </c>
+      <c r="B169" s="3"/>
       <c r="C169" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10350</v>
       </c>
     </row>
@@ -27516,10 +26589,7 @@
       <c r="A170" s="3">
         <v>10</v>
       </c>
-      <c r="B170" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>10P8000</v>
-      </c>
+      <c r="B170" s="3"/>
       <c r="C170" s="33">
         <f>(-53.33 * A170) + 10816.55</f>
         <v>10283.25</v>
@@ -27529,12 +26599,9 @@
       <c r="A171" s="3">
         <v>11</v>
       </c>
-      <c r="B171" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>11P8000</v>
-      </c>
+      <c r="B171" s="3"/>
       <c r="C171" s="33">
-        <f t="shared" ref="C171:C199" si="15">(-53.33 * A171) + 10816.55</f>
+        <f t="shared" ref="C171:C199" si="7">(-53.33 * A171) + 10816.55</f>
         <v>10229.92</v>
       </c>
     </row>
@@ -27542,12 +26609,9 @@
       <c r="A172" s="3">
         <v>12</v>
       </c>
-      <c r="B172" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>12P8000</v>
-      </c>
+      <c r="B172" s="3"/>
       <c r="C172" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10176.59</v>
       </c>
     </row>
@@ -27555,12 +26619,9 @@
       <c r="A173" s="3">
         <v>13</v>
       </c>
-      <c r="B173" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>13P8000</v>
-      </c>
+      <c r="B173" s="3"/>
       <c r="C173" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10123.259999999998</v>
       </c>
     </row>
@@ -27568,12 +26629,9 @@
       <c r="A174" s="3">
         <v>14</v>
       </c>
-      <c r="B174" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>14P8000</v>
-      </c>
+      <c r="B174" s="3"/>
       <c r="C174" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10069.929999999998</v>
       </c>
     </row>
@@ -27581,12 +26639,9 @@
       <c r="A175" s="3">
         <v>15</v>
       </c>
-      <c r="B175" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>15P8000</v>
-      </c>
+      <c r="B175" s="3"/>
       <c r="C175" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10016.599999999999</v>
       </c>
     </row>
@@ -27594,12 +26649,9 @@
       <c r="A176" s="3">
         <v>16</v>
       </c>
-      <c r="B176" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>16P8000</v>
-      </c>
+      <c r="B176" s="3"/>
       <c r="C176" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9963.2699999999986</v>
       </c>
     </row>
@@ -27607,12 +26659,9 @@
       <c r="A177" s="3">
         <v>17</v>
       </c>
-      <c r="B177" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>17P8000</v>
-      </c>
+      <c r="B177" s="3"/>
       <c r="C177" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9909.9399999999987</v>
       </c>
     </row>
@@ -27620,12 +26669,9 @@
       <c r="A178" s="3">
         <v>18</v>
       </c>
-      <c r="B178" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>18P8000</v>
-      </c>
+      <c r="B178" s="3"/>
       <c r="C178" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9856.6099999999988</v>
       </c>
     </row>
@@ -27633,12 +26679,9 @@
       <c r="A179" s="3">
         <v>19</v>
       </c>
-      <c r="B179" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>19P8000</v>
-      </c>
+      <c r="B179" s="3"/>
       <c r="C179" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9803.2799999999988</v>
       </c>
     </row>
@@ -27646,12 +26689,9 @@
       <c r="A180" s="3">
         <v>20</v>
       </c>
-      <c r="B180" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>20P8000</v>
-      </c>
+      <c r="B180" s="3"/>
       <c r="C180" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9749.9499999999989</v>
       </c>
     </row>
@@ -27659,12 +26699,9 @@
       <c r="A181" s="3">
         <v>21</v>
       </c>
-      <c r="B181" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>21P8000</v>
-      </c>
+      <c r="B181" s="3"/>
       <c r="C181" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9696.619999999999</v>
       </c>
     </row>
@@ -27672,12 +26709,9 @@
       <c r="A182" s="3">
         <v>22</v>
       </c>
-      <c r="B182" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>22P8000</v>
-      </c>
+      <c r="B182" s="3"/>
       <c r="C182" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9643.2899999999991</v>
       </c>
     </row>
@@ -27685,12 +26719,9 @@
       <c r="A183" s="3">
         <v>23</v>
       </c>
-      <c r="B183" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>23P8000</v>
-      </c>
+      <c r="B183" s="3"/>
       <c r="C183" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9589.9599999999991</v>
       </c>
     </row>
@@ -27698,12 +26729,9 @@
       <c r="A184" s="3">
         <v>24</v>
       </c>
-      <c r="B184" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>24P8000</v>
-      </c>
+      <c r="B184" s="3"/>
       <c r="C184" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9536.6299999999992</v>
       </c>
     </row>
@@ -27711,12 +26739,9 @@
       <c r="A185" s="3">
         <v>25</v>
       </c>
-      <c r="B185" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>25P8000</v>
-      </c>
+      <c r="B185" s="3"/>
       <c r="C185" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9483.2999999999993</v>
       </c>
     </row>
@@ -27724,12 +26749,9 @@
       <c r="A186" s="3">
         <v>26</v>
       </c>
-      <c r="B186" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>26P8000</v>
-      </c>
+      <c r="B186" s="3"/>
       <c r="C186" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9429.9699999999993</v>
       </c>
     </row>
@@ -27737,12 +26759,9 @@
       <c r="A187" s="3">
         <v>27</v>
       </c>
-      <c r="B187" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>27P8000</v>
-      </c>
+      <c r="B187" s="3"/>
       <c r="C187" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9376.64</v>
       </c>
     </row>
@@ -27750,12 +26769,9 @@
       <c r="A188" s="3">
         <v>28</v>
       </c>
-      <c r="B188" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>28P8000</v>
-      </c>
+      <c r="B188" s="3"/>
       <c r="C188" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9323.31</v>
       </c>
     </row>
@@ -27763,12 +26779,9 @@
       <c r="A189" s="3">
         <v>29</v>
       </c>
-      <c r="B189" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>29P8000</v>
-      </c>
+      <c r="B189" s="3"/>
       <c r="C189" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9269.98</v>
       </c>
     </row>
@@ -27776,12 +26789,9 @@
       <c r="A190" s="3">
         <v>30</v>
       </c>
-      <c r="B190" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>30P8000</v>
-      </c>
+      <c r="B190" s="3"/>
       <c r="C190" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9216.65</v>
       </c>
     </row>
@@ -27789,12 +26799,9 @@
       <c r="A191" s="3">
         <v>31</v>
       </c>
-      <c r="B191" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>31P8000</v>
-      </c>
+      <c r="B191" s="3"/>
       <c r="C191" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9163.32</v>
       </c>
     </row>
@@ -27802,12 +26809,9 @@
       <c r="A192" s="3">
         <v>32</v>
       </c>
-      <c r="B192" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>32P8000</v>
-      </c>
+      <c r="B192" s="3"/>
       <c r="C192" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9109.99</v>
       </c>
     </row>
@@ -27815,12 +26819,9 @@
       <c r="A193" s="3">
         <v>33</v>
       </c>
-      <c r="B193" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>33P8000</v>
-      </c>
+      <c r="B193" s="3"/>
       <c r="C193" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9056.66</v>
       </c>
     </row>
@@ -27828,12 +26829,9 @@
       <c r="A194" s="3">
         <v>34</v>
       </c>
-      <c r="B194" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>34P8000</v>
-      </c>
+      <c r="B194" s="3"/>
       <c r="C194" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>9003.33</v>
       </c>
     </row>
@@ -27841,12 +26839,9 @@
       <c r="A195" s="3">
         <v>35</v>
       </c>
-      <c r="B195" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>35P8000</v>
-      </c>
+      <c r="B195" s="3"/>
       <c r="C195" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>8950</v>
       </c>
     </row>
@@ -27854,12 +26849,9 @@
       <c r="A196" s="3">
         <v>36</v>
       </c>
-      <c r="B196" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>36P8000</v>
-      </c>
+      <c r="B196" s="3"/>
       <c r="C196" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>8896.67</v>
       </c>
     </row>
@@ -27867,12 +26859,9 @@
       <c r="A197" s="3">
         <v>37</v>
       </c>
-      <c r="B197" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>37P8000</v>
-      </c>
+      <c r="B197" s="3"/>
       <c r="C197" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>8843.34</v>
       </c>
     </row>
@@ -27880,12 +26869,9 @@
       <c r="A198" s="3">
         <v>38</v>
       </c>
-      <c r="B198" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>38P8000</v>
-      </c>
+      <c r="B198" s="3"/>
       <c r="C198" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>8790.0099999999984</v>
       </c>
     </row>
@@ -27893,12 +26879,9 @@
       <c r="A199" s="3">
         <v>39</v>
       </c>
-      <c r="B199" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>39P8000</v>
-      </c>
+      <c r="B199" s="3"/>
       <c r="C199" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>8736.68</v>
       </c>
     </row>
@@ -27906,34 +26889,31 @@
       <c r="C200" s="34"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B201" s="49"/>
-      <c r="C201" s="49"/>
+      <c r="A201" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B201" s="47"/>
+      <c r="C201" s="47"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="47" t="s">
+      <c r="A202" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B202" s="45"/>
+      <c r="C202" s="45"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B202" s="47"/>
-      <c r="C202" s="47"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="B203" s="59"/>
-      <c r="C203" s="60"/>
+      <c r="B203" s="55"/>
+      <c r="C203" s="56"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>-14</v>
       </c>
-      <c r="B204" s="3" t="str">
-        <f>CONCATENATE(A204, "P9000")</f>
-        <v>-14P9000</v>
-      </c>
+      <c r="B204" s="3"/>
       <c r="C204" s="33">
         <v>10600</v>
       </c>
@@ -27942,10 +26922,7 @@
       <c r="A205" s="3">
         <v>-13</v>
       </c>
-      <c r="B205" s="3" t="str">
-        <f t="shared" ref="B205:B255" si="16">CONCATENATE(A205, "P9000")</f>
-        <v>-13P9000</v>
-      </c>
+      <c r="B205" s="3"/>
       <c r="C205" s="33">
         <f>A205 *-25+10250</f>
         <v>10575</v>
@@ -27955,12 +26932,9 @@
       <c r="A206" s="3">
         <v>-12</v>
       </c>
-      <c r="B206" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>-12P9000</v>
-      </c>
+      <c r="B206" s="3"/>
       <c r="C206" s="33">
-        <f t="shared" ref="C206:C225" si="17">A206 *-25+10250</f>
+        <f t="shared" ref="C206:C225" si="8">A206 *-25+10250</f>
         <v>10550</v>
       </c>
     </row>
@@ -27968,12 +26942,9 @@
       <c r="A207" s="3">
         <v>-11</v>
       </c>
-      <c r="B207" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>-11P9000</v>
-      </c>
+      <c r="B207" s="3"/>
       <c r="C207" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10525</v>
       </c>
     </row>
@@ -27981,12 +26952,9 @@
       <c r="A208" s="3">
         <v>-10</v>
       </c>
-      <c r="B208" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>-10P9000</v>
-      </c>
+      <c r="B208" s="3"/>
       <c r="C208" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10500</v>
       </c>
     </row>
@@ -27994,12 +26962,9 @@
       <c r="A209" s="3">
         <v>-9</v>
       </c>
-      <c r="B209" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>-9P9000</v>
-      </c>
+      <c r="B209" s="3"/>
       <c r="C209" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10475</v>
       </c>
     </row>
@@ -28007,12 +26972,9 @@
       <c r="A210" s="3">
         <v>-8</v>
       </c>
-      <c r="B210" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>-8P9000</v>
-      </c>
+      <c r="B210" s="3"/>
       <c r="C210" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10450</v>
       </c>
     </row>
@@ -28020,12 +26982,9 @@
       <c r="A211" s="3">
         <v>-7</v>
       </c>
-      <c r="B211" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>-7P9000</v>
-      </c>
+      <c r="B211" s="3"/>
       <c r="C211" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10425</v>
       </c>
     </row>
@@ -28033,12 +26992,9 @@
       <c r="A212" s="3">
         <v>-6</v>
       </c>
-      <c r="B212" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>-6P9000</v>
-      </c>
+      <c r="B212" s="3"/>
       <c r="C212" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10400</v>
       </c>
     </row>
@@ -28046,12 +27002,9 @@
       <c r="A213" s="3">
         <v>-5</v>
       </c>
-      <c r="B213" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>-5P9000</v>
-      </c>
+      <c r="B213" s="3"/>
       <c r="C213" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10375</v>
       </c>
     </row>
@@ -28059,12 +27012,9 @@
       <c r="A214" s="3">
         <v>-4</v>
       </c>
-      <c r="B214" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>-4P9000</v>
-      </c>
+      <c r="B214" s="3"/>
       <c r="C214" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10350</v>
       </c>
     </row>
@@ -28072,12 +27022,9 @@
       <c r="A215" s="3">
         <v>-3</v>
       </c>
-      <c r="B215" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>-3P9000</v>
-      </c>
+      <c r="B215" s="3"/>
       <c r="C215" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10325</v>
       </c>
     </row>
@@ -28085,12 +27032,9 @@
       <c r="A216" s="3">
         <v>-2</v>
       </c>
-      <c r="B216" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>-2P9000</v>
-      </c>
+      <c r="B216" s="3"/>
       <c r="C216" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10300</v>
       </c>
     </row>
@@ -28098,12 +27042,9 @@
       <c r="A217" s="3">
         <v>-1</v>
       </c>
-      <c r="B217" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>-1P9000</v>
-      </c>
+      <c r="B217" s="3"/>
       <c r="C217" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10275</v>
       </c>
     </row>
@@ -28111,12 +27052,9 @@
       <c r="A218" s="3">
         <v>0</v>
       </c>
-      <c r="B218" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>0P9000</v>
-      </c>
+      <c r="B218" s="3"/>
       <c r="C218" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10250</v>
       </c>
     </row>
@@ -28124,12 +27062,9 @@
       <c r="A219" s="3">
         <v>1</v>
       </c>
-      <c r="B219" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>1P9000</v>
-      </c>
+      <c r="B219" s="3"/>
       <c r="C219" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10225</v>
       </c>
     </row>
@@ -28137,12 +27072,9 @@
       <c r="A220" s="3">
         <v>2</v>
       </c>
-      <c r="B220" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>2P9000</v>
-      </c>
+      <c r="B220" s="3"/>
       <c r="C220" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10200</v>
       </c>
     </row>
@@ -28150,12 +27082,9 @@
       <c r="A221" s="3">
         <v>3</v>
       </c>
-      <c r="B221" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>3P9000</v>
-      </c>
+      <c r="B221" s="3"/>
       <c r="C221" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10175</v>
       </c>
     </row>
@@ -28163,12 +27092,9 @@
       <c r="A222" s="3">
         <v>4</v>
       </c>
-      <c r="B222" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>4P9000</v>
-      </c>
+      <c r="B222" s="3"/>
       <c r="C222" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10150</v>
       </c>
     </row>
@@ -28176,12 +27102,9 @@
       <c r="A223" s="3">
         <v>5</v>
       </c>
-      <c r="B223" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>5P9000</v>
-      </c>
+      <c r="B223" s="3"/>
       <c r="C223" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10125</v>
       </c>
     </row>
@@ -28189,12 +27112,9 @@
       <c r="A224" s="3">
         <v>6</v>
       </c>
-      <c r="B224" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>6P9000</v>
-      </c>
+      <c r="B224" s="3"/>
       <c r="C224" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10100</v>
       </c>
     </row>
@@ -28202,12 +27122,9 @@
       <c r="A225" s="3">
         <v>7</v>
       </c>
-      <c r="B225" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>7P9000</v>
-      </c>
+      <c r="B225" s="3"/>
       <c r="C225" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>10075</v>
       </c>
     </row>
@@ -28215,10 +27132,7 @@
       <c r="A226" s="3">
         <v>8</v>
       </c>
-      <c r="B226" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>8P9000</v>
-      </c>
+      <c r="B226" s="3"/>
       <c r="C226" s="33">
         <f xml:space="preserve"> A226 *-53.7037037037037+10479.6296296296</f>
         <v>10049.999999999971</v>
@@ -28228,12 +27142,9 @@
       <c r="A227" s="3">
         <v>9</v>
       </c>
-      <c r="B227" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>9P9000</v>
-      </c>
+      <c r="B227" s="3"/>
       <c r="C227" s="33">
-        <f t="shared" ref="C227:C255" si="18" xml:space="preserve"> A227 *-53.7037037037037+10479.6296296296</f>
+        <f t="shared" ref="C227:C255" si="9" xml:space="preserve"> A227 *-53.7037037037037+10479.6296296296</f>
         <v>9996.2962962962665</v>
       </c>
     </row>
@@ -28241,12 +27152,9 @@
       <c r="A228" s="3">
         <v>10</v>
       </c>
-      <c r="B228" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>10P9000</v>
-      </c>
+      <c r="B228" s="3"/>
       <c r="C228" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9942.592592592564</v>
       </c>
     </row>
@@ -28254,12 +27162,9 @@
       <c r="A229" s="3">
         <v>11</v>
       </c>
-      <c r="B229" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>11P9000</v>
-      </c>
+      <c r="B229" s="3"/>
       <c r="C229" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9888.8888888888596</v>
       </c>
     </row>
@@ -28267,12 +27172,9 @@
       <c r="A230" s="3">
         <v>12</v>
       </c>
-      <c r="B230" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>12P9000</v>
-      </c>
+      <c r="B230" s="3"/>
       <c r="C230" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9835.1851851851552</v>
       </c>
     </row>
@@ -28280,12 +27182,9 @@
       <c r="A231" s="3">
         <v>13</v>
       </c>
-      <c r="B231" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>13P9000</v>
-      </c>
+      <c r="B231" s="3"/>
       <c r="C231" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9781.4814814814526</v>
       </c>
     </row>
@@ -28293,12 +27192,9 @@
       <c r="A232" s="3">
         <v>14</v>
       </c>
-      <c r="B232" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>14P9000</v>
-      </c>
+      <c r="B232" s="3"/>
       <c r="C232" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9727.7777777777483</v>
       </c>
     </row>
@@ -28306,12 +27202,9 @@
       <c r="A233" s="3">
         <v>15</v>
       </c>
-      <c r="B233" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>15P9000</v>
-      </c>
+      <c r="B233" s="3"/>
       <c r="C233" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9674.0740740740457</v>
       </c>
     </row>
@@ -28319,12 +27212,9 @@
       <c r="A234" s="3">
         <v>16</v>
       </c>
-      <c r="B234" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>16P9000</v>
-      </c>
+      <c r="B234" s="3"/>
       <c r="C234" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9620.3703703703413</v>
       </c>
     </row>
@@ -28332,12 +27222,9 @@
       <c r="A235" s="3">
         <v>17</v>
       </c>
-      <c r="B235" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>17P9000</v>
-      </c>
+      <c r="B235" s="3"/>
       <c r="C235" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9566.666666666637</v>
       </c>
     </row>
@@ -28345,12 +27232,9 @@
       <c r="A236" s="3">
         <v>18</v>
       </c>
-      <c r="B236" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>18P9000</v>
-      </c>
+      <c r="B236" s="3"/>
       <c r="C236" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9512.9629629629344</v>
       </c>
     </row>
@@ -28358,12 +27242,9 @@
       <c r="A237" s="3">
         <v>19</v>
       </c>
-      <c r="B237" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>19P9000</v>
-      </c>
+      <c r="B237" s="3"/>
       <c r="C237" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9459.25925925923</v>
       </c>
     </row>
@@ -28371,12 +27252,9 @@
       <c r="A238" s="3">
         <v>20</v>
       </c>
-      <c r="B238" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>20P9000</v>
-      </c>
+      <c r="B238" s="3"/>
       <c r="C238" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9405.5555555555256</v>
       </c>
     </row>
@@ -28384,12 +27262,9 @@
       <c r="A239" s="3">
         <v>21</v>
       </c>
-      <c r="B239" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>21P9000</v>
-      </c>
+      <c r="B239" s="3"/>
       <c r="C239" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9351.8518518518231</v>
       </c>
     </row>
@@ -28397,12 +27272,9 @@
       <c r="A240" s="3">
         <v>22</v>
       </c>
-      <c r="B240" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>22P9000</v>
-      </c>
+      <c r="B240" s="3"/>
       <c r="C240" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9298.1481481481187</v>
       </c>
     </row>
@@ -28410,12 +27282,9 @@
       <c r="A241" s="3">
         <v>23</v>
       </c>
-      <c r="B241" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>23P9000</v>
-      </c>
+      <c r="B241" s="3"/>
       <c r="C241" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9244.4444444444161</v>
       </c>
     </row>
@@ -28423,12 +27292,9 @@
       <c r="A242" s="3">
         <v>24</v>
       </c>
-      <c r="B242" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>24P9000</v>
-      </c>
+      <c r="B242" s="3"/>
       <c r="C242" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9190.7407407407118</v>
       </c>
     </row>
@@ -28436,12 +27302,9 @@
       <c r="A243" s="3">
         <v>25</v>
       </c>
-      <c r="B243" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>25P9000</v>
-      </c>
+      <c r="B243" s="3"/>
       <c r="C243" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9137.0370370370074</v>
       </c>
     </row>
@@ -28449,12 +27312,9 @@
       <c r="A244" s="3">
         <v>26</v>
       </c>
-      <c r="B244" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>26P9000</v>
-      </c>
+      <c r="B244" s="3"/>
       <c r="C244" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9083.3333333333048</v>
       </c>
     </row>
@@ -28462,12 +27322,9 @@
       <c r="A245" s="3">
         <v>27</v>
       </c>
-      <c r="B245" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>27P9000</v>
-      </c>
+      <c r="B245" s="3"/>
       <c r="C245" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9029.6296296296005</v>
       </c>
     </row>
@@ -28475,12 +27332,9 @@
       <c r="A246" s="3">
         <v>28</v>
       </c>
-      <c r="B246" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>28P9000</v>
-      </c>
+      <c r="B246" s="3"/>
       <c r="C246" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>8975.9259259258961</v>
       </c>
     </row>
@@ -28488,12 +27342,9 @@
       <c r="A247" s="3">
         <v>29</v>
       </c>
-      <c r="B247" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>29P9000</v>
-      </c>
+      <c r="B247" s="3"/>
       <c r="C247" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>8922.2222222221935</v>
       </c>
     </row>
@@ -28501,12 +27352,9 @@
       <c r="A248" s="3">
         <v>30</v>
       </c>
-      <c r="B248" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>30P9000</v>
-      </c>
+      <c r="B248" s="3"/>
       <c r="C248" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>8868.5185185184891</v>
       </c>
     </row>
@@ -28514,12 +27362,9 @@
       <c r="A249" s="3">
         <v>31</v>
       </c>
-      <c r="B249" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>31P9000</v>
-      </c>
+      <c r="B249" s="3"/>
       <c r="C249" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>8814.8148148147848</v>
       </c>
     </row>
@@ -28527,12 +27372,9 @@
       <c r="A250" s="3">
         <v>32</v>
       </c>
-      <c r="B250" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>32P9000</v>
-      </c>
+      <c r="B250" s="3"/>
       <c r="C250" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>8761.1111111110822</v>
       </c>
     </row>
@@ -28540,12 +27382,9 @@
       <c r="A251" s="3">
         <v>33</v>
       </c>
-      <c r="B251" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>33P9000</v>
-      </c>
+      <c r="B251" s="3"/>
       <c r="C251" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>8707.4074074073778</v>
       </c>
     </row>
@@ -28553,12 +27392,9 @@
       <c r="A252" s="3">
         <v>34</v>
       </c>
-      <c r="B252" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>34P9000</v>
-      </c>
+      <c r="B252" s="3"/>
       <c r="C252" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>8653.7037037036753</v>
       </c>
     </row>
@@ -28566,12 +27402,9 @@
       <c r="A253" s="3">
         <v>35</v>
       </c>
-      <c r="B253" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>35P9000</v>
-      </c>
+      <c r="B253" s="3"/>
       <c r="C253" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>8599.9999999999709</v>
       </c>
     </row>
@@ -28579,12 +27412,9 @@
       <c r="A254" s="3">
         <v>36</v>
       </c>
-      <c r="B254" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>36P9000</v>
-      </c>
+      <c r="B254" s="3"/>
       <c r="C254" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>8546.2962962962665</v>
       </c>
     </row>
@@ -28592,12 +27422,9 @@
       <c r="A255" s="3">
         <v>37</v>
       </c>
-      <c r="B255" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>37P9000</v>
-      </c>
+      <c r="B255" s="3"/>
       <c r="C255" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>8492.592592592564</v>
       </c>
     </row>
@@ -28605,34 +27432,31 @@
       <c r="C256" s="34"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B257" s="49"/>
-      <c r="C257" s="49"/>
+      <c r="A257" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B257" s="47"/>
+      <c r="C257" s="47"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="47" t="s">
+      <c r="A258" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B258" s="45"/>
+      <c r="C258" s="45"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B258" s="47"/>
-      <c r="C258" s="47"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B259" s="59"/>
-      <c r="C259" s="60"/>
+      <c r="B259" s="55"/>
+      <c r="C259" s="56"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>-26</v>
       </c>
-      <c r="B260" s="3" t="str">
-        <f>CONCATENATE(A260, "P10000")</f>
-        <v>-26P10000</v>
-      </c>
+      <c r="B260" s="3"/>
       <c r="C260" s="33">
         <v>10600</v>
       </c>
@@ -28641,10 +27465,7 @@
       <c r="A261" s="3">
         <v>-25</v>
       </c>
-      <c r="B261" s="3" t="str">
-        <f t="shared" ref="B261:B319" si="19">CONCATENATE(A261, "P10000")</f>
-        <v>-25P10000</v>
-      </c>
+      <c r="B261" s="3"/>
       <c r="C261" s="33">
         <f xml:space="preserve"> A261*-25+9950</f>
         <v>10575</v>
@@ -28654,12 +27475,9 @@
       <c r="A262" s="3">
         <v>-24</v>
       </c>
-      <c r="B262" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-24P10000</v>
-      </c>
+      <c r="B262" s="3"/>
       <c r="C262" s="33">
-        <f t="shared" ref="C262:C280" si="20" xml:space="preserve"> A262*-25+9950</f>
+        <f t="shared" ref="C262:C280" si="10" xml:space="preserve"> A262*-25+9950</f>
         <v>10550</v>
       </c>
     </row>
@@ -28667,12 +27485,9 @@
       <c r="A263" s="3">
         <v>-23</v>
       </c>
-      <c r="B263" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-23P10000</v>
-      </c>
+      <c r="B263" s="3"/>
       <c r="C263" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10525</v>
       </c>
     </row>
@@ -28680,12 +27495,9 @@
       <c r="A264" s="3">
         <v>-22</v>
       </c>
-      <c r="B264" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-22P10000</v>
-      </c>
+      <c r="B264" s="3"/>
       <c r="C264" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10500</v>
       </c>
     </row>
@@ -28693,12 +27505,9 @@
       <c r="A265" s="3">
         <v>-21</v>
       </c>
-      <c r="B265" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-21P10000</v>
-      </c>
+      <c r="B265" s="3"/>
       <c r="C265" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10475</v>
       </c>
     </row>
@@ -28706,12 +27515,9 @@
       <c r="A266" s="3">
         <v>-20</v>
       </c>
-      <c r="B266" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-20P10000</v>
-      </c>
+      <c r="B266" s="3"/>
       <c r="C266" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10450</v>
       </c>
     </row>
@@ -28719,12 +27525,9 @@
       <c r="A267" s="3">
         <v>-19</v>
       </c>
-      <c r="B267" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-19P10000</v>
-      </c>
+      <c r="B267" s="3"/>
       <c r="C267" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10425</v>
       </c>
     </row>
@@ -28732,12 +27535,9 @@
       <c r="A268" s="3">
         <v>-18</v>
       </c>
-      <c r="B268" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-18P10000</v>
-      </c>
+      <c r="B268" s="3"/>
       <c r="C268" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10400</v>
       </c>
     </row>
@@ -28745,12 +27545,9 @@
       <c r="A269" s="3">
         <v>-17</v>
       </c>
-      <c r="B269" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-17P10000</v>
-      </c>
+      <c r="B269" s="3"/>
       <c r="C269" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10375</v>
       </c>
     </row>
@@ -28758,12 +27555,9 @@
       <c r="A270" s="3">
         <v>-16</v>
       </c>
-      <c r="B270" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-16P10000</v>
-      </c>
+      <c r="B270" s="3"/>
       <c r="C270" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10350</v>
       </c>
     </row>
@@ -28771,12 +27565,9 @@
       <c r="A271" s="3">
         <v>-15</v>
       </c>
-      <c r="B271" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-15P10000</v>
-      </c>
+      <c r="B271" s="3"/>
       <c r="C271" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10325</v>
       </c>
     </row>
@@ -28784,12 +27575,9 @@
       <c r="A272" s="3">
         <v>-14</v>
       </c>
-      <c r="B272" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-14P10000</v>
-      </c>
+      <c r="B272" s="3"/>
       <c r="C272" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10300</v>
       </c>
     </row>
@@ -28797,12 +27585,9 @@
       <c r="A273" s="3">
         <v>-13</v>
       </c>
-      <c r="B273" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-13P10000</v>
-      </c>
+      <c r="B273" s="3"/>
       <c r="C273" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10275</v>
       </c>
     </row>
@@ -28810,12 +27595,9 @@
       <c r="A274" s="3">
         <v>-12</v>
       </c>
-      <c r="B274" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-12P10000</v>
-      </c>
+      <c r="B274" s="3"/>
       <c r="C274" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10250</v>
       </c>
     </row>
@@ -28823,12 +27605,9 @@
       <c r="A275" s="3">
         <v>-11</v>
       </c>
-      <c r="B275" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-11P10000</v>
-      </c>
+      <c r="B275" s="3"/>
       <c r="C275" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10225</v>
       </c>
     </row>
@@ -28836,12 +27615,9 @@
       <c r="A276" s="3">
         <v>-10</v>
       </c>
-      <c r="B276" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-10P10000</v>
-      </c>
+      <c r="B276" s="3"/>
       <c r="C276" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10200</v>
       </c>
     </row>
@@ -28849,12 +27625,9 @@
       <c r="A277" s="3">
         <v>-9</v>
       </c>
-      <c r="B277" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-9P10000</v>
-      </c>
+      <c r="B277" s="3"/>
       <c r="C277" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10175</v>
       </c>
     </row>
@@ -28862,12 +27635,9 @@
       <c r="A278" s="3">
         <v>-8</v>
       </c>
-      <c r="B278" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-8P10000</v>
-      </c>
+      <c r="B278" s="3"/>
       <c r="C278" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10150</v>
       </c>
     </row>
@@ -28875,12 +27645,9 @@
       <c r="A279" s="3">
         <v>-7</v>
       </c>
-      <c r="B279" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-7P10000</v>
-      </c>
+      <c r="B279" s="3"/>
       <c r="C279" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10125</v>
       </c>
     </row>
@@ -28888,12 +27655,9 @@
       <c r="A280" s="3">
         <v>-6</v>
       </c>
-      <c r="B280" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-6P10000</v>
-      </c>
+      <c r="B280" s="3"/>
       <c r="C280" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>10100</v>
       </c>
     </row>
@@ -28901,10 +27665,7 @@
       <c r="A281" s="3">
         <v>-5</v>
       </c>
-      <c r="B281" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-5P10000</v>
-      </c>
+      <c r="B281" s="3"/>
       <c r="C281" s="33">
         <f xml:space="preserve"> A281*-25+9950</f>
         <v>10075</v>
@@ -28914,12 +27675,9 @@
       <c r="A282" s="3">
         <v>-4</v>
       </c>
-      <c r="B282" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-4P10000</v>
-      </c>
+      <c r="B282" s="3"/>
       <c r="C282" s="33">
-        <f t="shared" ref="C282:C291" si="21" xml:space="preserve"> A282*-25+9950</f>
+        <f t="shared" ref="C282:C291" si="11" xml:space="preserve"> A282*-25+9950</f>
         <v>10050</v>
       </c>
     </row>
@@ -28927,12 +27685,9 @@
       <c r="A283" s="3">
         <v>-3</v>
       </c>
-      <c r="B283" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-3P10000</v>
-      </c>
+      <c r="B283" s="3"/>
       <c r="C283" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>10025</v>
       </c>
     </row>
@@ -28940,12 +27695,9 @@
       <c r="A284" s="3">
         <v>-2</v>
       </c>
-      <c r="B284" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-2P10000</v>
-      </c>
+      <c r="B284" s="3"/>
       <c r="C284" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>10000</v>
       </c>
     </row>
@@ -28953,12 +27705,9 @@
       <c r="A285" s="3">
         <v>-1</v>
       </c>
-      <c r="B285" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>-1P10000</v>
-      </c>
+      <c r="B285" s="3"/>
       <c r="C285" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>9975</v>
       </c>
     </row>
@@ -28966,12 +27715,9 @@
       <c r="A286" s="3">
         <v>0</v>
       </c>
-      <c r="B286" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>0P10000</v>
-      </c>
+      <c r="B286" s="3"/>
       <c r="C286" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>9950</v>
       </c>
     </row>
@@ -28979,12 +27725,9 @@
       <c r="A287" s="3">
         <v>1</v>
       </c>
-      <c r="B287" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>1P10000</v>
-      </c>
+      <c r="B287" s="3"/>
       <c r="C287" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>9925</v>
       </c>
     </row>
@@ -28992,12 +27735,9 @@
       <c r="A288" s="3">
         <v>2</v>
       </c>
-      <c r="B288" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>2P10000</v>
-      </c>
+      <c r="B288" s="3"/>
       <c r="C288" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>9900</v>
       </c>
     </row>
@@ -29005,12 +27745,9 @@
       <c r="A289" s="3">
         <v>3</v>
       </c>
-      <c r="B289" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>3P10000</v>
-      </c>
+      <c r="B289" s="3"/>
       <c r="C289" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>9875</v>
       </c>
     </row>
@@ -29018,12 +27755,9 @@
       <c r="A290" s="3">
         <v>4</v>
       </c>
-      <c r="B290" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>4P10000</v>
-      </c>
+      <c r="B290" s="3"/>
       <c r="C290" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>9850</v>
       </c>
     </row>
@@ -29031,12 +27765,9 @@
       <c r="A291" s="3">
         <v>5</v>
       </c>
-      <c r="B291" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>5P10000</v>
-      </c>
+      <c r="B291" s="3"/>
       <c r="C291" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>9825</v>
       </c>
     </row>
@@ -29044,10 +27775,7 @@
       <c r="A292" s="3">
         <v>6</v>
       </c>
-      <c r="B292" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>6P10000</v>
-      </c>
+      <c r="B292" s="3"/>
       <c r="C292" s="33">
         <f xml:space="preserve"> A292 *-52.3809523809524+10076.1904761905</f>
         <v>9761.9047619047869</v>
@@ -29057,12 +27785,9 @@
       <c r="A293" s="3">
         <v>7</v>
       </c>
-      <c r="B293" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>7P10000</v>
-      </c>
+      <c r="B293" s="3"/>
       <c r="C293" s="33">
-        <f t="shared" ref="C293:C319" si="22" xml:space="preserve"> A293 *-52.3809523809524+10076.1904761905</f>
+        <f t="shared" ref="C293:C319" si="12" xml:space="preserve"> A293 *-52.3809523809524+10076.1904761905</f>
         <v>9709.5238095238346</v>
       </c>
     </row>
@@ -29070,12 +27795,9 @@
       <c r="A294" s="3">
         <v>8</v>
       </c>
-      <c r="B294" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>8P10000</v>
-      </c>
+      <c r="B294" s="3"/>
       <c r="C294" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>9657.1428571428823</v>
       </c>
     </row>
@@ -29083,12 +27805,9 @@
       <c r="A295" s="3">
         <v>9</v>
       </c>
-      <c r="B295" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>9P10000</v>
-      </c>
+      <c r="B295" s="3"/>
       <c r="C295" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>9604.7619047619282</v>
       </c>
     </row>
@@ -29096,12 +27815,9 @@
       <c r="A296" s="3">
         <v>10</v>
       </c>
-      <c r="B296" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>10P10000</v>
-      </c>
+      <c r="B296" s="3"/>
       <c r="C296" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>9552.3809523809759</v>
       </c>
     </row>
@@ -29109,12 +27825,9 @@
       <c r="A297" s="3">
         <v>11</v>
       </c>
-      <c r="B297" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>11P10000</v>
-      </c>
+      <c r="B297" s="3"/>
       <c r="C297" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>9500.0000000000236</v>
       </c>
     </row>
@@ -29122,12 +27835,9 @@
       <c r="A298" s="3">
         <v>12</v>
       </c>
-      <c r="B298" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>12P10000</v>
-      </c>
+      <c r="B298" s="3"/>
       <c r="C298" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>9447.6190476190714</v>
       </c>
     </row>
@@ -29135,12 +27845,9 @@
       <c r="A299" s="3">
         <v>13</v>
       </c>
-      <c r="B299" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>13P10000</v>
-      </c>
+      <c r="B299" s="3"/>
       <c r="C299" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>9395.2380952381191</v>
       </c>
     </row>
@@ -29148,12 +27855,9 @@
       <c r="A300" s="3">
         <v>14</v>
       </c>
-      <c r="B300" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>14P10000</v>
-      </c>
+      <c r="B300" s="3"/>
       <c r="C300" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>9342.8571428571668</v>
       </c>
     </row>
@@ -29161,12 +27865,9 @@
       <c r="A301" s="3">
         <v>15</v>
       </c>
-      <c r="B301" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>15P10000</v>
-      </c>
+      <c r="B301" s="3"/>
       <c r="C301" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>9290.4761904762145</v>
       </c>
     </row>
@@ -29174,12 +27875,9 @@
       <c r="A302" s="3">
         <v>16</v>
       </c>
-      <c r="B302" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>16P10000</v>
-      </c>
+      <c r="B302" s="3"/>
       <c r="C302" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>9238.0952380952622</v>
       </c>
     </row>
@@ -29187,12 +27885,9 @@
       <c r="A303" s="3">
         <v>17</v>
       </c>
-      <c r="B303" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>17P10000</v>
-      </c>
+      <c r="B303" s="3"/>
       <c r="C303" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>9185.7142857143099</v>
       </c>
     </row>
@@ -29200,12 +27895,9 @@
       <c r="A304" s="3">
         <v>18</v>
       </c>
-      <c r="B304" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>18P10000</v>
-      </c>
+      <c r="B304" s="3"/>
       <c r="C304" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>9133.3333333333576</v>
       </c>
     </row>
@@ -29213,12 +27905,9 @@
       <c r="A305" s="3">
         <v>19</v>
       </c>
-      <c r="B305" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>19P10000</v>
-      </c>
+      <c r="B305" s="3"/>
       <c r="C305" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>9080.9523809524053</v>
       </c>
     </row>
@@ -29226,12 +27915,9 @@
       <c r="A306" s="3">
         <v>20</v>
       </c>
-      <c r="B306" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>20P10000</v>
-      </c>
+      <c r="B306" s="3"/>
       <c r="C306" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>9028.571428571453</v>
       </c>
     </row>
@@ -29239,12 +27925,9 @@
       <c r="A307" s="3">
         <v>21</v>
       </c>
-      <c r="B307" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>21P10000</v>
-      </c>
+      <c r="B307" s="3"/>
       <c r="C307" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>8976.1904761905007</v>
       </c>
     </row>
@@ -29252,12 +27935,9 @@
       <c r="A308" s="3">
         <v>22</v>
       </c>
-      <c r="B308" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>22P10000</v>
-      </c>
+      <c r="B308" s="3"/>
       <c r="C308" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>8923.8095238095484</v>
       </c>
     </row>
@@ -29265,12 +27945,9 @@
       <c r="A309" s="3">
         <v>23</v>
       </c>
-      <c r="B309" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>23P10000</v>
-      </c>
+      <c r="B309" s="3"/>
       <c r="C309" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>8871.4285714285961</v>
       </c>
     </row>
@@ -29278,12 +27955,9 @@
       <c r="A310" s="3">
         <v>24</v>
       </c>
-      <c r="B310" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>24P10000</v>
-      </c>
+      <c r="B310" s="3"/>
       <c r="C310" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>8819.0476190476438</v>
       </c>
     </row>
@@ -29291,12 +27965,9 @@
       <c r="A311" s="3">
         <v>25</v>
       </c>
-      <c r="B311" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>25P10000</v>
-      </c>
+      <c r="B311" s="3"/>
       <c r="C311" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>8766.6666666666897</v>
       </c>
     </row>
@@ -29304,12 +27975,9 @@
       <c r="A312" s="3">
         <v>26</v>
       </c>
-      <c r="B312" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>26P10000</v>
-      </c>
+      <c r="B312" s="3"/>
       <c r="C312" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>8714.2857142857392</v>
       </c>
     </row>
@@ -29317,12 +27985,9 @@
       <c r="A313" s="3">
         <v>27</v>
       </c>
-      <c r="B313" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>27P10000</v>
-      </c>
+      <c r="B313" s="3"/>
       <c r="C313" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>8661.9047619047851</v>
       </c>
     </row>
@@ -29330,12 +27995,9 @@
       <c r="A314" s="3">
         <v>28</v>
       </c>
-      <c r="B314" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>28P10000</v>
-      </c>
+      <c r="B314" s="3"/>
       <c r="C314" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>8609.5238095238328</v>
       </c>
     </row>
@@ -29343,12 +28005,9 @@
       <c r="A315" s="3">
         <v>29</v>
       </c>
-      <c r="B315" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>29P10000</v>
-      </c>
+      <c r="B315" s="3"/>
       <c r="C315" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>8557.1428571428805</v>
       </c>
     </row>
@@ -29356,12 +28015,9 @@
       <c r="A316" s="3">
         <v>30</v>
       </c>
-      <c r="B316" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>30P10000</v>
-      </c>
+      <c r="B316" s="3"/>
       <c r="C316" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>8504.7619047619282</v>
       </c>
     </row>
@@ -29369,12 +28025,9 @@
       <c r="A317" s="3">
         <v>31</v>
       </c>
-      <c r="B317" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>31P10000</v>
-      </c>
+      <c r="B317" s="3"/>
       <c r="C317" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>8452.3809523809759</v>
       </c>
     </row>
@@ -29382,12 +28035,9 @@
       <c r="A318" s="3">
         <v>32</v>
       </c>
-      <c r="B318" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>32P10000</v>
-      </c>
+      <c r="B318" s="3"/>
       <c r="C318" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>8400.0000000000236</v>
       </c>
     </row>
@@ -29395,23 +28045,26 @@
       <c r="A319" s="3">
         <v>33</v>
       </c>
-      <c r="B319" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>33P10000</v>
-      </c>
+      <c r="B319" s="3"/>
       <c r="C319" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>8347.6190476190714</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+  <mergeCells count="29">
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A258:C258"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
@@ -29424,18 +28077,11 @@
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A89:C89"/>
     <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29463,16 +28109,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="35"/>
       <c r="D1" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3">
         <v>48</v>
@@ -29480,13 +28126,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3">
         <v>10400</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>9900</v>
@@ -29494,13 +28140,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="3">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>9100</v>
@@ -29508,13 +28154,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="3">
         <v>10350</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5">
         <f>E3-E4</f>
@@ -29525,7 +28171,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6">
         <f>E5/2</f>
@@ -29534,14 +28180,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="3">
         <f>(B5-B3)/(B4-B2)</f>
         <v>-50</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <f>E3-E6</f>
@@ -29554,7 +28200,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="3">
         <f xml:space="preserve"> B7 * B2</f>
@@ -29563,21 +28209,21 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="3">
         <f xml:space="preserve"> B3 - B9</f>
         <v>12800</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11">
         <v>9900</v>
@@ -29585,14 +28231,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="3" t="str">
         <f>CONCATENATE("=" &amp; "INSERT TEMP CELL" &amp; " *" &amp; B7  &amp; "+" &amp; B10)</f>
         <v>=INSERT TEMP CELL *-50+12800</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>9100</v>
@@ -29600,7 +28246,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13">
         <f>E11-E12</f>
@@ -29609,7 +28255,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14">
         <f>E13/2</f>
@@ -29618,7 +28264,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15">
         <f>E11-E14</f>
@@ -29627,12 +28273,12 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17">
         <f>E11</f>
@@ -29641,7 +28287,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18">
         <f>E15</f>
@@ -29650,7 +28296,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19">
         <f>E17-E18</f>
@@ -29659,7 +28305,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <f>E19 / 2</f>
@@ -29668,7 +28314,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21">
         <f>E18+E20</f>
@@ -29677,12 +28323,12 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <f>E15</f>
@@ -29691,7 +28337,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25">
         <f>E12</f>
@@ -29701,7 +28347,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26">
         <f>E24-E25</f>
@@ -29710,7 +28356,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27">
         <f>E26/2</f>
@@ -29719,7 +28365,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E28">
         <f>E24-E27</f>

--- a/HondaJet Perf Calc.xlsx
+++ b/HondaJet Perf Calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\HondaJet Perf Calc\hjet-performance-calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409BBCC4-D947-405C-9B64-32FDD419F1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E00D47-2A1F-4CA1-8B7B-E0F1BB8F7B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63ACE541-7DEF-4A6E-868E-15DE9EBE8715}"/>
   </bookViews>
@@ -20,6 +20,16 @@
     <sheet name="AdminTools" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="TO_MTOWBrake_TO_NoAI_1000">'MTOW Brake Energy'!$A$3:$B$7</definedName>
+    <definedName name="TO_MTOWBrake_TO_NoAI_10000">'MTOW Brake Energy'!$A$253:$B$313</definedName>
+    <definedName name="TO_MTOWBrake_TO_NoAI_2000">'MTOW Brake Energy'!$A$11:$B$19</definedName>
+    <definedName name="TO_MTOWBrake_TO_NoAI_3000">'MTOW Brake Energy'!$A$23:$B$35</definedName>
+    <definedName name="TO_MTOWBrake_TO_NoAI_4000">'MTOW Brake Energy'!$A$39:$B$56</definedName>
+    <definedName name="TO_MTOWBrake_TO_NoAI_5000">'MTOW Brake Energy'!$A$60:$B$82</definedName>
+    <definedName name="TO_MTOWBrake_TO_NoAI_6000">'MTOW Brake Energy'!$A$86:$B$112</definedName>
+    <definedName name="TO_MTOWBrake_TO_NoAI_7000">'MTOW Brake Energy'!$A$116:$B$147</definedName>
+    <definedName name="TO_MTOWBrake_TO_NoAI_8000">'MTOW Brake Energy'!$A$151:$B$193</definedName>
+    <definedName name="TO_MTOWBrake_TO_NoAI_9000">'MTOW Brake Energy'!$A$197:$B$249</definedName>
     <definedName name="TO_MTOWClimb_TO_NoAI_0">'MTOW Climb Requirements'!$A$16:$B$25</definedName>
     <definedName name="TO_MTOWClimb_TO_NoAI_1000">'MTOW Climb Requirements'!$A$29:$B$39</definedName>
     <definedName name="TO_MTOWClimb_TO_NoAI_10000">'MTOW Climb Requirements'!$A$198:$B$217</definedName>
@@ -94,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="126">
   <si>
     <t>Uncorrected Takeoff Field Length [ft] and Speeds [KIAS], Dry Runway, Zero Slope, No Wind</t>
   </si>
@@ -436,9 +446,6 @@
     <t>MTOW Limitation (Climb)</t>
   </si>
   <si>
-    <t>Calculated Bracket MTOWs (Climb)</t>
-  </si>
-  <si>
     <t>TW / CW Bracket [TOFL]</t>
   </si>
   <si>
@@ -449,6 +456,33 @@
   </si>
   <si>
     <t>MTOW for Climb Requirements (Temperatures, MTOW)</t>
+  </si>
+  <si>
+    <t>Calculated Bracket MTOWs (Climb &amp; Brake)</t>
+  </si>
+  <si>
+    <t>MTOW Limitation (Brake)</t>
+  </si>
+  <si>
+    <t>Flaps</t>
+  </si>
+  <si>
+    <t>Anti-Ice</t>
+  </si>
+  <si>
+    <t>Data Validation Lists</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>TO/APPR</t>
+  </si>
+  <si>
+    <t>UP</t>
   </si>
 </sst>
 </file>
@@ -576,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -651,11 +685,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,10 +773,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -742,28 +799,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -778,8 +820,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,7 +1233,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,12 +1242,14 @@
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="15" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
+    <col min="13" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1207,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="21">
-        <v>9000</v>
+        <v>10600</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>40</v>
@@ -1221,28 +1271,46 @@
 B1&lt;= 10300, 10000,
 B1 &lt;= 10600, 10600,
 B1 &gt; 10600, "ABOVE MTOW")</f>
-        <v>9000</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="40"/>
+        <v>10600</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="L1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="21"/>
       <c r="D2" s="20"/>
       <c r="E2" s="37"/>
       <c r="H2" s="3">
         <f>$E$4</f>
         <v>6000</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="32">
         <f ca="1">IFERROR(
 IF(
 B10&lt;= INDEX(INDIRECT(F4), 1, 2),
 INDEX(INDIRECT(F4), 2, 2),
 VLOOKUP(B10,INDIRECT(F4),2,FALSE)), "Not within documented limits")</f>
-        <v>8350</v>
+        <v>7500</v>
+      </c>
+      <c r="J2" s="32">
+        <f ca="1">IFERROR(
+IF(
+B10&lt;= INDEX(INDIRECT(G4), 1, 2),
+INDEX(INDIRECT(G4), 2, 2),
+VLOOKUP(B10,INDIRECT(G4),2,FALSE)), "Not within documented limits")</f>
+        <v>9246.6666666666679</v>
+      </c>
+      <c r="L2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,17 +1342,40 @@
 E3=10000, "TO_MTOWClimb_TO_NoAI_10000"), "No Table Available")</f>
         <v>TO_MTOWClimb_TO_NoAI_6000</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="59" t="str" cm="1">
+        <f t="array" ref="G3">IFERROR(_xlfn.IFS(E3 = 1000, "TO_MTOWBrake_TO_NoAI_1000",
+E3 = 2000, "TO_MTOWBrake_TO_NoAI_2000",
+E3= 3000, "TO_MTOWBrake_TO_NoAI_3000",
+E3=4000, "TO_MTOWBrake_TO_NoAI_4000",
+E3=5000, "TO_MTOWBrake_TO_NoAI_5000",
+E3=6000, "TO_MTOWBrake_TO_NoAI_6000",
+E3=7000, "TO_MTOWBrake_TO_NoAI_7000",
+E3=8000, "TO_MTOWBrake_TO_NoAI_8000",
+E3=9000, "TO_MTOWBrake_TO_NoAI_9000",
+E3=10000, "TO_MTOWBrake_TO_NoAI_10000"), "No Table Available")</f>
+        <v>TO_MTOWBrake_TO_NoAI_6000</v>
+      </c>
       <c r="H3" s="3">
         <f>($E$4-(125*1))</f>
         <v>5875</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="32">
         <f ca="1">((I2-I4) / 2) + I4</f>
-        <v>8437.5</v>
+        <v>7593.75</v>
+      </c>
+      <c r="J3" s="32">
+        <f ca="1">((J2-J4) / 2) + J4</f>
+        <v>9291.6666666666679</v>
+      </c>
+      <c r="L3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="21"/>
       <c r="D4" s="20" t="s">
         <v>106</v>
       </c>
@@ -1307,14 +1398,30 @@
 E4=10000, "TO_MTOWClimb_TO_NoAI_10000"), "No Table Available")</f>
         <v>TO_MTOWClimb_TO_NoAI_6000</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="59" t="str" cm="1">
+        <f t="array" ref="G4">IFERROR(_xlfn.IFS(E4 = 1000, "TO_MTOWBrake_TO_NoAI_1000",
+E4 = 2000, "TO_MTOWBrake_TO_NoAI_2000",
+E4= 3000, "TO_MTOWBrake_TO_NoAI_3000",
+E4=4000, "TO_MTOWBrake_TO_NoAI_4000",
+E4=5000, "TO_MTOWBrake_TO_NoAI_5000",
+E4=6000, "TO_MTOWBrake_TO_NoAI_6000",
+E4=7000, "TO_MTOWBrake_TO_NoAI_7000",
+E4=8000, "TO_MTOWBrake_TO_NoAI_8000",
+E4=9000, "TO_MTOWBrake_TO_NoAI_9000",
+E4=10000, "TO_MTOWBrake_TO_NoAI_10000"), "No Table Available")</f>
+        <v>TO_MTOWBrake_TO_NoAI_6000</v>
+      </c>
       <c r="H4" s="3">
         <f>($E$4-(125*2))</f>
         <v>5750</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="32">
         <f ca="1">((I2-I6) / 2) + I6</f>
-        <v>8525</v>
+        <v>7687.5</v>
+      </c>
+      <c r="J4" s="32">
+        <f ca="1">((J2-J6) / 2) + J6</f>
+        <v>9336.6666666666679</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1323,7 +1430,7 @@
       </c>
       <c r="B5" s="39">
         <f ca="1">VLOOKUP(E8, H2:I10, 2, FALSE)</f>
-        <v>8700</v>
+        <v>7875</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>107</v>
@@ -1347,22 +1454,43 @@
 E5=10000, "TO_MTOWClimb_TO_NoAI_10000"), "No Table Available")</f>
         <v>TO_MTOWClimb_TO_NoAI_5000</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="59" t="str" cm="1">
+        <f t="array" ref="G5">IFERROR(_xlfn.IFS(E5 = 1000, "TO_MTOWBrake_TO_NoAI_1000",
+E5 = 2000, "TO_MTOWBrake_TO_NoAI_2000",
+E5= 3000, "TO_MTOWBrake_TO_NoAI_3000",
+E5=4000, "TO_MTOWBrake_TO_NoAI_4000",
+E5=5000, "TO_MTOWBrake_TO_NoAI_5000",
+E5=6000, "TO_MTOWBrake_TO_NoAI_6000",
+E5=7000, "TO_MTOWBrake_TO_NoAI_7000",
+E5=8000, "TO_MTOWBrake_TO_NoAI_8000",
+E5=9000, "TO_MTOWBrake_TO_NoAI_9000",
+E5=10000, "TO_MTOWBrake_TO_NoAI_10000"), "No Table Available")</f>
+        <v>TO_MTOWBrake_TO_NoAI_5000</v>
+      </c>
       <c r="H5" s="3">
         <f>($E$4-(125*3))</f>
         <v>5625</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="32">
         <f ca="1">((I4-I6) / 2) + I6</f>
-        <v>8612.5</v>
+        <v>7781.25</v>
+      </c>
+      <c r="J5" s="32">
+        <f ca="1">((J4-J6) / 2) + J6</f>
+        <v>9381.6666666666679</v>
+      </c>
+      <c r="L5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="str" cm="1">
-        <f t="array" aca="1" ref="A6" ca="1">_xlfn.IFS(B5 &gt; B1, "TOW VALID FOR CONDITIONS", B5 &lt; B1, "TOW INVALID FOR CONDITIONS", B5 = B1, "TOW WARNING FOR CONDITIONS")</f>
-        <v>TOW INVALID FOR CONDITIONS</v>
-      </c>
-      <c r="B6" s="41"/>
+      <c r="A6" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="60">
+        <f ca="1">VLOOKUP(E8, H2:J10, 3, FALSE)</f>
+        <v>9426.6666666666679</v>
+      </c>
       <c r="D6" s="20" t="s">
         <v>108</v>
       </c>
@@ -1375,14 +1503,24 @@
         <f>($E$4-(125*4))</f>
         <v>5500</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="32">
         <f ca="1">((I10-I2) / 2) + I2</f>
-        <v>8700</v>
+        <v>7875</v>
+      </c>
+      <c r="J6" s="32">
+        <f ca="1">((J10-J2) / 2) + J2</f>
+        <v>9426.6666666666679</v>
+      </c>
+      <c r="L6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="A7" ca="1">_xlfn.IFS(B6&gt;B5,_xlfn.IFS(B5&gt;B1,"TOW VALID FOR CONDITIONS",B5&lt;B1,"TOW INVALID FOR CONDITIONS",B5=B1,"TOW WARNING FOR CONDITIONS"),B6&lt;B5,_xlfn.IFS(B6&gt;B1,"TOW VALID FOR CONDITIONS",B6&lt;B1,"TOW INVALID FOR CONDITIONS",B6=B1,"TOW WARNING FOR CONDITIONS"))</f>
+        <v>TOW INVALID FOR CONDITIONS</v>
+      </c>
+      <c r="B7" s="42"/>
       <c r="D7" s="20" t="s">
         <v>109</v>
       </c>
@@ -1395,14 +1533,16 @@
         <f>($E$4-(125*5))</f>
         <v>5375</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="32">
         <f ca="1" xml:space="preserve"> ((I6-I8) / 2) + I8</f>
-        <v>8787.5</v>
+        <v>7968.75</v>
+      </c>
+      <c r="J7" s="32">
+        <f ca="1" xml:space="preserve"> ((J6-J8) / 2) + J8</f>
+        <v>9471.6666666666679</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="28"/>
       <c r="D8" s="20" t="s">
         <v>111</v>
       </c>
@@ -1415,9 +1555,13 @@
         <f>($E$4-(125*6))</f>
         <v>5250</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="32">
         <f ca="1">((I6-I10) / 2) + I10</f>
-        <v>8875</v>
+        <v>8062.5</v>
+      </c>
+      <c r="J8" s="32">
+        <f ca="1">((J6-J10) / 2) + J10</f>
+        <v>9516.6666666666679</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1429,9 +1573,13 @@
         <f>($E$4-(125*7))</f>
         <v>5125</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="32">
         <f ca="1">((I8-I10) / 2) + I10</f>
-        <v>8962.5</v>
+        <v>8156.25</v>
+      </c>
+      <c r="J9" s="32">
+        <f ca="1">((J8-J10) / 2) + J10</f>
+        <v>9561.6666666666679</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1439,7 +1587,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="21">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>44</v>
@@ -1463,13 +1611,21 @@
         <f>($E$4-(125*8))</f>
         <v>5000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="32">
         <f ca="1">IFERROR(
 IF(
 B10&lt;= INDEX(INDIRECT(F5), 1, 2),
 INDEX(INDIRECT(F5), 2, 2),
 VLOOKUP(B10,INDIRECT(F5),2,FALSE)), "Not within documented limits")</f>
-        <v>9050</v>
+        <v>8250</v>
+      </c>
+      <c r="J10" s="32">
+        <f ca="1">IFERROR(
+IF(
+B10&lt;= INDEX(INDIRECT(G5), 1, 2),
+INDEX(INDIRECT(G5), 2, 2),
+VLOOKUP(B10,INDIRECT(G5),2,FALSE)), "Not within documented limits")</f>
+        <v>9606.6666666666679</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1510,7 +1666,7 @@
         <v>24.620193825305201</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H13" s="23" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(
@@ -1771,8 +1927,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="D16">
     <cfRule type="expression" dxfId="6" priority="7">
@@ -1794,7 +1950,7 @@
       <formula>$B$19 = "X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>B1 =B5</formula>
     </cfRule>
@@ -1805,6 +1961,18 @@
       <formula>B5 &gt; B1</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{E0B40120-539F-471D-AF21-7223C5F7AB09}">
+      <formula1>$L$5:$L$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{79E92F85-D3ED-4132-8148-5732E805C803}">
+      <formula1>$L$2:$L$3</formula1>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Aircraft MTOW Exceeded" error="The aircraft cannot, under any circumstances, takeoff with more than 10600 LBS takeoff weight." sqref="B1" xr:uid="{3FC1B319-0539-473C-BDEF-F4A8E6A43C66}">
+      <formula1>0</formula1>
+      <formula2>10601</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1817,7 +1985,7 @@
   </sheetPr>
   <dimension ref="A1:AR443"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A223" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -1848,13 +2016,13 @@
       <c r="M1" s="46"/>
       <c r="N1" s="46"/>
       <c r="O1" s="9"/>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
       <c r="U1" s="9"/>
       <c r="V1" s="46" t="s">
         <v>31</v>
@@ -1871,13 +2039,13 @@
       <c r="AD1" s="46"/>
       <c r="AE1" s="46"/>
       <c r="AF1" s="46"/>
-      <c r="AH1" s="51" t="s">
+      <c r="AH1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
       <c r="AN1" s="46" t="s">
         <v>9</v>
       </c>
@@ -1900,7 +2068,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="51" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="44"/>
@@ -1945,44 +2113,44 @@
       <c r="AR2" s="44"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="10"/>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
       <c r="N3" s="44"/>
       <c r="O3" s="13"/>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
       <c r="U3" s="13"/>
-      <c r="V3" s="48" t="s">
+      <c r="V3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="1" t="s">
         <v>29</v>
@@ -1990,30 +2158,30 @@
       <c r="AC3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="48" t="s">
+      <c r="AD3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AH3" s="48" t="s">
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AH3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AN3" s="45" t="s">
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AN3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="2">
         <v>7800</v>
       </c>
@@ -5609,24 +5777,24 @@
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="N40" s="10"/>
@@ -5673,9 +5841,9 @@
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="2">
         <v>7800</v>
       </c>
@@ -8002,24 +8170,24 @@
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A77" s="45" t="s">
+      <c r="A77" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="D77" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
@@ -8057,9 +8225,9 @@
       </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="43"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="49"/>
       <c r="D78" s="2">
         <v>7800</v>
       </c>
@@ -9582,24 +9750,24 @@
       <c r="AH113" s="15"/>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A114" s="45" t="s">
+      <c r="A114" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="45" t="s">
+      <c r="B114" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="42" t="s">
+      <c r="C114" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D114" s="45" t="s">
+      <c r="D114" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="45"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="45"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="45"/>
-      <c r="J114" s="45"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="47"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="47"/>
       <c r="K114" s="10"/>
       <c r="L114" s="10"/>
       <c r="M114" s="10"/>
@@ -9624,9 +9792,9 @@
       <c r="AH114" s="15"/>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A115" s="45"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="43"/>
+      <c r="A115" s="47"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="49"/>
       <c r="D115" s="2">
         <v>7800</v>
       </c>
@@ -11003,24 +11171,24 @@
       <c r="AH150" s="15"/>
     </row>
     <row r="151" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A151" s="45" t="s">
+      <c r="A151" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B151" s="45" t="s">
+      <c r="B151" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C151" s="42" t="s">
+      <c r="C151" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D151" s="45" t="s">
+      <c r="D151" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E151" s="45"/>
-      <c r="F151" s="45"/>
-      <c r="G151" s="45"/>
-      <c r="H151" s="45"/>
-      <c r="I151" s="45"/>
-      <c r="J151" s="45"/>
+      <c r="E151" s="47"/>
+      <c r="F151" s="47"/>
+      <c r="G151" s="47"/>
+      <c r="H151" s="47"/>
+      <c r="I151" s="47"/>
+      <c r="J151" s="47"/>
       <c r="K151" s="10"/>
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
@@ -11045,9 +11213,9 @@
       <c r="AH151" s="15"/>
     </row>
     <row r="152" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A152" s="45"/>
-      <c r="B152" s="45"/>
-      <c r="C152" s="43"/>
+      <c r="A152" s="47"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="49"/>
       <c r="D152" s="2">
         <v>7800</v>
       </c>
@@ -12422,24 +12590,24 @@
       <c r="AF187" s="13"/>
     </row>
     <row r="188" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A188" s="45" t="s">
+      <c r="A188" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B188" s="45" t="s">
+      <c r="B188" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C188" s="42" t="s">
+      <c r="C188" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D188" s="45" t="s">
+      <c r="D188" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E188" s="45"/>
-      <c r="F188" s="45"/>
-      <c r="G188" s="45"/>
-      <c r="H188" s="45"/>
-      <c r="I188" s="45"/>
-      <c r="J188" s="45"/>
+      <c r="E188" s="47"/>
+      <c r="F188" s="47"/>
+      <c r="G188" s="47"/>
+      <c r="H188" s="47"/>
+      <c r="I188" s="47"/>
+      <c r="J188" s="47"/>
       <c r="K188" s="10"/>
       <c r="L188" s="10"/>
       <c r="M188" s="10"/>
@@ -12463,9 +12631,9 @@
       <c r="AF188" s="10"/>
     </row>
     <row r="189" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A189" s="45"/>
-      <c r="B189" s="45"/>
-      <c r="C189" s="43"/>
+      <c r="A189" s="47"/>
+      <c r="B189" s="47"/>
+      <c r="C189" s="49"/>
       <c r="D189" s="2">
         <v>7800</v>
       </c>
@@ -13888,24 +14056,24 @@
       <c r="AF224" s="13"/>
     </row>
     <row r="225" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A225" s="45" t="s">
+      <c r="A225" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B225" s="45" t="s">
+      <c r="B225" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C225" s="42" t="s">
+      <c r="C225" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D225" s="45" t="s">
+      <c r="D225" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E225" s="45"/>
-      <c r="F225" s="45"/>
-      <c r="G225" s="45"/>
-      <c r="H225" s="45"/>
-      <c r="I225" s="45"/>
-      <c r="J225" s="45"/>
+      <c r="E225" s="47"/>
+      <c r="F225" s="47"/>
+      <c r="G225" s="47"/>
+      <c r="H225" s="47"/>
+      <c r="I225" s="47"/>
+      <c r="J225" s="47"/>
       <c r="K225" s="10"/>
       <c r="L225" s="10"/>
       <c r="M225" s="10"/>
@@ -13929,9 +14097,9 @@
       <c r="AF225" s="10"/>
     </row>
     <row r="226" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A226" s="45"/>
-      <c r="B226" s="45"/>
-      <c r="C226" s="43"/>
+      <c r="A226" s="47"/>
+      <c r="B226" s="47"/>
+      <c r="C226" s="49"/>
       <c r="D226" s="2">
         <v>7800</v>
       </c>
@@ -15354,24 +15522,24 @@
       <c r="AF261" s="13"/>
     </row>
     <row r="262" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A262" s="45" t="s">
+      <c r="A262" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B262" s="45" t="s">
+      <c r="B262" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C262" s="42" t="s">
+      <c r="C262" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D262" s="45" t="s">
+      <c r="D262" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E262" s="45"/>
-      <c r="F262" s="45"/>
-      <c r="G262" s="45"/>
-      <c r="H262" s="45"/>
-      <c r="I262" s="45"/>
-      <c r="J262" s="45"/>
+      <c r="E262" s="47"/>
+      <c r="F262" s="47"/>
+      <c r="G262" s="47"/>
+      <c r="H262" s="47"/>
+      <c r="I262" s="47"/>
+      <c r="J262" s="47"/>
       <c r="K262" s="10"/>
       <c r="L262" s="10"/>
       <c r="M262" s="10"/>
@@ -15395,9 +15563,9 @@
       <c r="AF262" s="10"/>
     </row>
     <row r="263" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A263" s="45"/>
-      <c r="B263" s="45"/>
-      <c r="C263" s="43"/>
+      <c r="A263" s="47"/>
+      <c r="B263" s="47"/>
+      <c r="C263" s="49"/>
       <c r="D263" s="2">
         <v>7800</v>
       </c>
@@ -16820,24 +16988,24 @@
       <c r="AF298" s="13"/>
     </row>
     <row r="299" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A299" s="45" t="s">
+      <c r="A299" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B299" s="45" t="s">
+      <c r="B299" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C299" s="42" t="s">
+      <c r="C299" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D299" s="45" t="s">
+      <c r="D299" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E299" s="45"/>
-      <c r="F299" s="45"/>
-      <c r="G299" s="45"/>
-      <c r="H299" s="45"/>
-      <c r="I299" s="45"/>
-      <c r="J299" s="45"/>
+      <c r="E299" s="47"/>
+      <c r="F299" s="47"/>
+      <c r="G299" s="47"/>
+      <c r="H299" s="47"/>
+      <c r="I299" s="47"/>
+      <c r="J299" s="47"/>
       <c r="K299" s="10"/>
       <c r="L299" s="10"/>
       <c r="M299" s="10"/>
@@ -16861,9 +17029,9 @@
       <c r="AF299" s="10"/>
     </row>
     <row r="300" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A300" s="45"/>
-      <c r="B300" s="45"/>
-      <c r="C300" s="43"/>
+      <c r="A300" s="47"/>
+      <c r="B300" s="47"/>
+      <c r="C300" s="49"/>
       <c r="D300" s="2">
         <v>7800</v>
       </c>
@@ -18286,24 +18454,24 @@
       <c r="AF335" s="13"/>
     </row>
     <row r="336" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A336" s="45" t="s">
+      <c r="A336" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B336" s="45" t="s">
+      <c r="B336" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C336" s="42" t="s">
+      <c r="C336" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D336" s="45" t="s">
+      <c r="D336" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E336" s="45"/>
-      <c r="F336" s="45"/>
-      <c r="G336" s="45"/>
-      <c r="H336" s="45"/>
-      <c r="I336" s="45"/>
-      <c r="J336" s="45"/>
+      <c r="E336" s="47"/>
+      <c r="F336" s="47"/>
+      <c r="G336" s="47"/>
+      <c r="H336" s="47"/>
+      <c r="I336" s="47"/>
+      <c r="J336" s="47"/>
       <c r="K336" s="10"/>
       <c r="L336" s="10"/>
       <c r="M336" s="10"/>
@@ -18327,9 +18495,9 @@
       <c r="AF336" s="10"/>
     </row>
     <row r="337" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A337" s="45"/>
-      <c r="B337" s="45"/>
-      <c r="C337" s="43"/>
+      <c r="A337" s="47"/>
+      <c r="B337" s="47"/>
+      <c r="C337" s="49"/>
       <c r="D337" s="2">
         <v>7800</v>
       </c>
@@ -19752,24 +19920,24 @@
       <c r="AF372" s="13"/>
     </row>
     <row r="373" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A373" s="45" t="s">
+      <c r="A373" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B373" s="45" t="s">
+      <c r="B373" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C373" s="42" t="s">
+      <c r="C373" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D373" s="45" t="s">
+      <c r="D373" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E373" s="45"/>
-      <c r="F373" s="45"/>
-      <c r="G373" s="45"/>
-      <c r="H373" s="45"/>
-      <c r="I373" s="45"/>
-      <c r="J373" s="45"/>
+      <c r="E373" s="47"/>
+      <c r="F373" s="47"/>
+      <c r="G373" s="47"/>
+      <c r="H373" s="47"/>
+      <c r="I373" s="47"/>
+      <c r="J373" s="47"/>
       <c r="K373" s="10"/>
       <c r="L373" s="10"/>
       <c r="M373" s="10"/>
@@ -19793,9 +19961,9 @@
       <c r="AF373" s="10"/>
     </row>
     <row r="374" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A374" s="45"/>
-      <c r="B374" s="45"/>
-      <c r="C374" s="43"/>
+      <c r="A374" s="47"/>
+      <c r="B374" s="47"/>
+      <c r="C374" s="49"/>
       <c r="D374" s="2">
         <v>7800</v>
       </c>
@@ -21302,24 +21470,24 @@
       <c r="AF409" s="13"/>
     </row>
     <row r="410" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A410" s="45" t="s">
+      <c r="A410" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B410" s="45" t="s">
+      <c r="B410" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C410" s="42" t="s">
+      <c r="C410" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D410" s="45" t="s">
+      <c r="D410" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E410" s="45"/>
-      <c r="F410" s="45"/>
-      <c r="G410" s="45"/>
-      <c r="H410" s="45"/>
-      <c r="I410" s="45"/>
-      <c r="J410" s="45"/>
+      <c r="E410" s="47"/>
+      <c r="F410" s="47"/>
+      <c r="G410" s="47"/>
+      <c r="H410" s="47"/>
+      <c r="I410" s="47"/>
+      <c r="J410" s="47"/>
       <c r="K410" s="10"/>
       <c r="L410" s="10"/>
       <c r="M410" s="10"/>
@@ -21343,9 +21511,9 @@
       <c r="AF410" s="10"/>
     </row>
     <row r="411" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A411" s="45"/>
-      <c r="B411" s="45"/>
-      <c r="C411" s="43"/>
+      <c r="A411" s="47"/>
+      <c r="B411" s="47"/>
+      <c r="C411" s="49"/>
       <c r="D411" s="2">
         <v>7800</v>
       </c>
@@ -22699,6 +22867,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="A261:J261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:J262"/>
+    <mergeCell ref="A223:J223"/>
+    <mergeCell ref="A224:J224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="D225:J225"/>
+    <mergeCell ref="A112:J112"/>
+    <mergeCell ref="A113:J113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:J114"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="D77:J77"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A150:J150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:J151"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="A186:J186"/>
+    <mergeCell ref="A187:J187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="D188:J188"/>
+    <mergeCell ref="A410:A411"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="D410:J410"/>
+    <mergeCell ref="A371:J371"/>
+    <mergeCell ref="A372:J372"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:J373"/>
+    <mergeCell ref="C410:C411"/>
+    <mergeCell ref="C373:C374"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AH2:AL2"/>
     <mergeCell ref="AH3:AL3"/>
@@ -22715,79 +22956,6 @@
     <mergeCell ref="A297:J297"/>
     <mergeCell ref="A298:J298"/>
     <mergeCell ref="A260:J260"/>
-    <mergeCell ref="A410:A411"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="D410:J410"/>
-    <mergeCell ref="A371:J371"/>
-    <mergeCell ref="A372:J372"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:J373"/>
-    <mergeCell ref="C410:C411"/>
-    <mergeCell ref="C373:C374"/>
-    <mergeCell ref="A186:J186"/>
-    <mergeCell ref="A187:J187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="D188:J188"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="A150:J150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:J151"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N3"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="D77:J77"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A112:J112"/>
-    <mergeCell ref="A113:J113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:J114"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="A261:J261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:J262"/>
-    <mergeCell ref="A223:J223"/>
-    <mergeCell ref="A224:J224"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="D225:J225"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22802,7 +22970,7 @@
   </sheetPr>
   <dimension ref="A1:G272"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -22816,22 +22984,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="53"/>
+      <c r="A1" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="57">
+      <c r="A3" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="41">
         <v>49</v>
       </c>
     </row>
@@ -22908,22 +23076,22 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="53"/>
+      <c r="A14" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="54"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="56"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="57">
+      <c r="A16" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="41">
         <v>47</v>
       </c>
     </row>
@@ -23004,10 +23172,10 @@
       <c r="B26"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="53"/>
+      <c r="A27" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="54"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
@@ -23016,10 +23184,10 @@
       <c r="B28" s="44"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="57">
+      <c r="A29" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="41">
         <v>44</v>
       </c>
     </row>
@@ -23108,10 +23276,10 @@
       <c r="B40"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="53"/>
+      <c r="A41" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="54"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
@@ -23120,10 +23288,10 @@
       <c r="B42" s="44"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="57">
+      <c r="A43" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="41">
         <v>41</v>
       </c>
     </row>
@@ -23220,10 +23388,10 @@
       <c r="B55"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="53"/>
+      <c r="A56" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="54"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
@@ -23232,10 +23400,10 @@
       <c r="B57" s="44"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="57">
+      <c r="A58" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="41">
         <v>39</v>
       </c>
     </row>
@@ -23332,10 +23500,10 @@
       <c r="B70"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="53"/>
+      <c r="A71" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="54"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="s">
@@ -23344,10 +23512,10 @@
       <c r="B72" s="44"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="57">
+      <c r="A73" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="41">
         <v>33</v>
       </c>
     </row>
@@ -23468,10 +23636,10 @@
       <c r="B88"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="53"/>
+      <c r="A89" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="54"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="s">
@@ -23480,10 +23648,10 @@
       <c r="B90" s="44"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B91" s="57">
+      <c r="A91" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="41">
         <v>30</v>
       </c>
     </row>
@@ -23620,10 +23788,10 @@
       <c r="B108"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B109" s="53"/>
+      <c r="A109" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" s="54"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="44" t="s">
@@ -23632,10 +23800,10 @@
       <c r="B110" s="44"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B111" s="57">
+      <c r="A111" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="41">
         <v>26</v>
       </c>
     </row>
@@ -23788,10 +23956,10 @@
       <c r="B130"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B131" s="53"/>
+      <c r="A131" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B131" s="54"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="s">
@@ -23800,10 +23968,10 @@
       <c r="B132" s="44"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B133" s="57">
+      <c r="A133" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" s="41">
         <v>22</v>
       </c>
     </row>
@@ -23956,10 +24124,10 @@
       <c r="B152"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B153" s="53"/>
+      <c r="A153" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B153" s="54"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="s">
@@ -23968,10 +24136,10 @@
       <c r="B154" s="44"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B155" s="57">
+      <c r="A155" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B155" s="41">
         <v>19</v>
       </c>
     </row>
@@ -24117,10 +24285,10 @@
       <c r="G173" s="31"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B174" s="53"/>
+      <c r="A174" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B174" s="54"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="s">
@@ -24129,10 +24297,10 @@
       <c r="B175" s="44"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B176" s="57">
+      <c r="A176" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B176" s="41">
         <v>15</v>
       </c>
     </row>
@@ -24285,10 +24453,10 @@
       <c r="B195"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B196" s="53"/>
+      <c r="A196" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B196" s="54"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="44" t="s">
@@ -24297,10 +24465,10 @@
       <c r="B197" s="44"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B198" s="57">
+      <c r="A198" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B198" s="41">
         <v>10</v>
       </c>
     </row>
@@ -24468,6 +24636,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A175:B175"/>
     <mergeCell ref="A196:B196"/>
@@ -24482,16 +24660,6 @@
     <mergeCell ref="A132:B132"/>
     <mergeCell ref="A153:B153"/>
     <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -24505,8 +24673,8 @@
   </sheetPr>
   <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251:B251"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G244" sqref="F243:G244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24516,10 +24684,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="53"/>
+      <c r="A1" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -24528,10 +24696,10 @@
       <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="57">
+      <c r="A3" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="41">
         <v>50</v>
       </c>
     </row>
@@ -24571,10 +24739,10 @@
       <c r="B8" s="33"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="53"/>
+      <c r="A9" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="54"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
@@ -24583,10 +24751,10 @@
       <c r="B10" s="44"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="57">
+      <c r="A11" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="41">
         <v>44</v>
       </c>
     </row>
@@ -24666,10 +24834,10 @@
       <c r="B20" s="33"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="53"/>
+      <c r="A21" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="54"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
@@ -24678,10 +24846,10 @@
       <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="57">
+      <c r="A23" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="41">
         <v>38</v>
       </c>
     </row>
@@ -24796,10 +24964,10 @@
       <c r="B36" s="33"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="53"/>
+      <c r="A37" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="54"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
@@ -24808,10 +24976,10 @@
       <c r="B38" s="44"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="57">
+      <c r="A39" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="41">
         <v>31</v>
       </c>
     </row>
@@ -24972,10 +25140,10 @@
       <c r="B57" s="33"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="53"/>
+      <c r="A58" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="54"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
@@ -24984,10 +25152,10 @@
       <c r="B59" s="44"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="57">
+      <c r="A60" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="41">
         <v>24</v>
       </c>
     </row>
@@ -25192,10 +25360,10 @@
       <c r="B83" s="33"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" s="53"/>
+      <c r="A84" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="54"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
@@ -25204,10 +25372,10 @@
       <c r="B85" s="44"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B86" s="57">
+      <c r="A86" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="41">
         <v>18</v>
       </c>
     </row>
@@ -25448,10 +25616,10 @@
       <c r="B113" s="33"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" s="53"/>
+      <c r="A114" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="54"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="s">
@@ -25460,10 +25628,10 @@
       <c r="B115" s="44"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" s="57">
+      <c r="A116" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="41">
         <v>11</v>
       </c>
     </row>
@@ -25749,10 +25917,10 @@
       <c r="B148" s="33"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B149" s="53"/>
+      <c r="A149" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B149" s="54"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="44" t="s">
@@ -25761,10 +25929,10 @@
       <c r="B150" s="44"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B151" s="57">
+      <c r="A151" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B151" s="41">
         <v>-2</v>
       </c>
     </row>
@@ -26149,10 +26317,10 @@
       <c r="B194" s="33"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B195" s="53"/>
+      <c r="A195" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B195" s="54"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="s">
@@ -26161,10 +26329,10 @@
       <c r="B196" s="44"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B197" s="57">
+      <c r="A197" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B197" s="41">
         <v>-14</v>
       </c>
     </row>
@@ -26639,10 +26807,10 @@
       <c r="B250" s="33"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B251" s="53"/>
+      <c r="A251" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B251" s="54"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="44" t="s">
@@ -26651,10 +26819,10 @@
       <c r="B252" s="44"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B253" s="57">
+      <c r="A253" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B253" s="41">
         <v>-26</v>
       </c>
     </row>
@@ -27199,26 +27367,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A252:B252"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
